--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>File Name</t>
   </si>
@@ -35,6 +35,12 @@
     <t>N\A</t>
   </si>
   <si>
+    <t>account-types-locations-and-fees.md</t>
+  </si>
+  <si>
+    <t>enable-your-device-for-development.md</t>
+  </si>
+  <si>
     <t>readme.md</t>
   </si>
   <si>
@@ -344,12 +350,6 @@
     <t>TargetPlatform.png</t>
   </si>
   <si>
-    <t>account-types-locations-and-fees.md</t>
-  </si>
-  <si>
-    <t>enable-your-device-for-development.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -383,21 +383,30 @@
     <t>2016-01-08 20:35:16</t>
   </si>
   <si>
-    <t>2016-01-11 04:50:00</t>
+    <t>2016-02-22 08:49:27</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
+    <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-03 03:39:51</t>
+  </si>
+  <si>
+    <t>2016-02-13 04:24:14</t>
+  </si>
+  <si>
+    <t>enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.zh-cn.xlf</t>
   </si>
   <si>
     <t>2015-12-29 08:16:19</t>
   </si>
   <si>
-    <t>2016-01-05 10:26:18</t>
-  </si>
-  <si>
     <t>Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.zh-cn.xlf</t>
   </si>
   <si>
@@ -695,25 +704,25 @@
     <t>3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png</t>
   </si>
   <si>
-    <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-03 03:39:51</t>
-  </si>
-  <si>
-    <t>2016-02-13 04:24:14</t>
-  </si>
-  <si>
-    <t>enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf</t>
   </si>
   <si>
     <t>2016-01-05 08:46:04</t>
   </si>
   <si>
-    <t>2016-01-05 08:50:23</t>
+    <t>2016-02-22 08:49:37</t>
+  </si>
+  <si>
+    <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-03 03:40:37</t>
+  </si>
+  <si>
+    <t>2016-02-13 04:24:40</t>
+  </si>
+  <si>
+    <t>enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf</t>
   </si>
   <si>
     <t>readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf</t>
@@ -722,9 +731,6 @@
     <t>2015-12-29 08:45:52</t>
   </si>
   <si>
-    <t>2016-01-08 12:53:58</t>
-  </si>
-  <si>
     <t>Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf</t>
   </si>
   <si>
@@ -764,9 +770,6 @@
     <t>msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-05 03:09:43</t>
-  </si>
-  <si>
     <t>macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf</t>
   </si>
   <si>
@@ -776,9 +779,6 @@
     <t>tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-05 06:24:42</t>
-  </si>
-  <si>
     <t>wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf</t>
   </si>
   <si>
@@ -786,18 +786,6 @@
   </si>
   <si>
     <t>TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf</t>
-  </si>
-  <si>
-    <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-03 03:40:37</t>
-  </si>
-  <si>
-    <t>2016-02-13 04:24:40</t>
-  </si>
-  <si>
-    <t>enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -958,32 +946,32 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -991,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1002,10 +990,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1013,10 +1001,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1024,10 +1012,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1035,10 +1023,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1046,10 +1034,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1068,10 +1056,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1079,10 +1067,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1090,10 +1078,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1101,10 +1089,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1112,10 +1100,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1123,10 +1111,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1134,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1145,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1156,10 +1144,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1155,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1178,10 +1166,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1189,10 +1177,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1200,10 +1188,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1199,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1222,10 +1210,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1233,10 +1221,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1244,10 +1232,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1255,10 +1243,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1266,10 +1254,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1277,10 +1265,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1288,10 +1276,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1299,10 +1287,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1310,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1321,10 +1309,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1332,10 +1320,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1343,10 +1331,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1354,10 +1342,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1365,10 +1353,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1376,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
@@ -1387,7 +1375,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
@@ -1398,7 +1386,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
@@ -1409,7 +1397,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
@@ -1420,7 +1408,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
@@ -1431,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
@@ -1442,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
@@ -1453,7 +1441,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
@@ -1464,7 +1452,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
@@ -1475,7 +1463,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
@@ -1486,7 +1474,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
@@ -1497,7 +1485,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
@@ -1508,7 +1496,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
@@ -1519,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
@@ -1530,7 +1518,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
@@ -1541,7 +1529,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
@@ -1552,7 +1540,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
@@ -1563,7 +1551,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
@@ -1574,7 +1562,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>5</v>
@@ -1585,7 +1573,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>5</v>
@@ -1596,7 +1584,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>5</v>
@@ -1607,7 +1595,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>5</v>
@@ -1618,7 +1606,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>5</v>
@@ -1629,7 +1617,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>5</v>
@@ -1640,7 +1628,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>5</v>
@@ -1651,7 +1639,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>5</v>
@@ -1662,7 +1650,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>5</v>
@@ -1673,7 +1661,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>5</v>
@@ -1684,7 +1672,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>5</v>
@@ -1695,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>5</v>
@@ -1706,7 +1694,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>5</v>
@@ -1717,7 +1705,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>5</v>
@@ -1728,7 +1716,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>5</v>
@@ -1739,7 +1727,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>5</v>
@@ -1750,7 +1738,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>5</v>
@@ -1761,7 +1749,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>5</v>
@@ -1772,7 +1760,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>5</v>
@@ -1783,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>5</v>
@@ -1794,7 +1782,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>5</v>
@@ -1805,7 +1793,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>5</v>
@@ -1816,7 +1804,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>5</v>
@@ -1827,7 +1815,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>5</v>
@@ -1838,7 +1826,7 @@
         <v>87</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>5</v>
@@ -1849,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>5</v>
@@ -1860,7 +1848,7 @@
         <v>89</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>5</v>
@@ -1871,7 +1859,7 @@
         <v>90</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>5</v>
@@ -1882,7 +1870,7 @@
         <v>91</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>5</v>
@@ -1893,7 +1881,7 @@
         <v>92</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>5</v>
@@ -1904,7 +1892,7 @@
         <v>93</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>5</v>
@@ -1915,7 +1903,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>5</v>
@@ -1926,7 +1914,7 @@
         <v>95</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>5</v>
@@ -1937,7 +1925,7 @@
         <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>5</v>
@@ -1948,7 +1936,7 @@
         <v>97</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>5</v>
@@ -1959,7 +1947,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>5</v>
@@ -1967,10 +1955,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>5</v>
@@ -1978,10 +1966,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>5</v>
@@ -1989,10 +1977,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>5</v>
@@ -2003,7 +1991,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>5</v>
@@ -2014,7 +2002,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>5</v>
@@ -2025,7 +2013,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>5</v>
@@ -2036,7 +2024,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>5</v>
@@ -2047,7 +2035,7 @@
         <v>105</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>5</v>
@@ -2058,7 +2046,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>5</v>
@@ -2069,7 +2057,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>5</v>
@@ -2080,7 +2068,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>5</v>
@@ -2091,10 +2079,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2102,120 +2090,120 @@
         <v>110</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="test-xliff-2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="readme.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId6"/>
-    <hyperlink ref="A7" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId9"/>
-    <hyperlink ref="A10" display="test.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="JasGro-home.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="test2.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="table_creation_tools.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="pigeon.png" r:id="rId15"/>
-    <hyperlink ref="A16" display="tools-for-beginners.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="HelloWorld.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="HelloWorld2.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="HelloWorld3.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="HelloWorld4.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="HelloWorld5.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="github-logo.png" r:id="rId22"/>
-    <hyperlink ref="A23" display="markdown-logo.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="available_policies.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="emie_to_improve_compatibility.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="EmIEOpeninIE.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="Edge_EmIE_RegistrySiteList.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="SendintranettoIE.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="hardware_and_software_requirements.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="msedge_deployment_guide_for_it_pros.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="macapara.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="markdown-tips.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="tedhudek-home.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="wdcml-to-open-publish.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="workflow.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="TOC.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="Welcome.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="attestation_driver_signing_submission_dashboard.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="b_wes_driversigning_v2.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="building_a_driver.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="building_drivers_for_different_versions_of_windows.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="create_a_custom_driver_installation_script.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="creating_a_device_metadata_package.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="creating_a_driver_from_existing_source_files.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="creating_a_driver_package.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="VsSlnExplorer.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="VsDrvrPkgProps.png" r:id="rId53"/>
-    <hyperlink ref="A54" display="MultipleDriversSingleSolution.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="creating_a_driver_verification_log.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="creating_a_new_driver.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="creating_a_new_filter_driver.md" r:id="rId59"/>
-    <hyperlink ref="A60" display="creating_a_new_software_driver.md" r:id="rId60"/>
-    <hyperlink ref="A61" display="debugging_a_driver.md" r:id="rId61"/>
-    <hyperlink ref="A62" display="deploying_a_driver_to_a_test_computer.md" r:id="rId62"/>
-    <hyperlink ref="A63" display="deployment_properties_for_driver_projects.md" r:id="rId63"/>
-    <hyperlink ref="A64" display="distributing_a_driver_package_win8.md" r:id="rId64"/>
-    <hyperlink ref="A65" display="driver_model_convergence.md" r:id="rId65"/>
-    <hyperlink ref="A66" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId66"/>
-    <hyperlink ref="A67" display="driver_signing_properties.md" r:id="rId67"/>
-    <hyperlink ref="A68" display="driver_verifier_properties_for__driver_projects.md" r:id="rId68"/>
-    <hyperlink ref="A69" display="getting_started_with_universal_drivers.md" r:id="rId69"/>
-    <hyperlink ref="A70" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId70"/>
-    <hyperlink ref="A71" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="how_to_write_a_driver_test_.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="installing_a_universal_driver.md" r:id="rId74"/>
-    <hyperlink ref="A75" display="Installing_the_Enterprise_WDK.md" r:id="rId75"/>
-    <hyperlink ref="A76" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="message_compiler_properties_for_driver_projects.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="mof_compiler_properties_for_driver_projects.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="read_the_driver_test_results_log.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="ert_test_results.png" r:id="rId82"/>
-    <hyperlink ref="A83" display="README.md" r:id="rId83"/>
-    <hyperlink ref="A84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId84"/>
-    <hyperlink ref="A85" display="signing_a_driver.md" r:id="rId85"/>
-    <hyperlink ref="A86" display="signing_a_driver_during_development_and_testing.md" r:id="rId86"/>
-    <hyperlink ref="A87" display="SigningADriver01.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="signing_a_driver_for_public_release.md" r:id="rId88"/>
-    <hyperlink ref="A89" display="stampinf_properties_for_driver_projects.md" r:id="rId89"/>
-    <hyperlink ref="A90" display="strategies_for_testing_drivers_during_development.md" r:id="rId90"/>
-    <hyperlink ref="A91" display="test_a_driver_package.md" r:id="rId91"/>
-    <hyperlink ref="A92" display="testing_a_driver.md" r:id="rId92"/>
-    <hyperlink ref="A93" display="testing_a_driver_at_runtime.md" r:id="rId93"/>
-    <hyperlink ref="A94" display="to_add_test_metadata.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="TOC.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="validating_universal_drivers.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="visual_studio_driver_development_environment.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="windows_10_editions_for_universal_drivers.md" r:id="rId104"/>
-    <hyperlink ref="A105" display="TargetPlatform.png" r:id="rId105"/>
-    <hyperlink ref="A106" display="account-types-locations-and-fees.md" r:id="rId106"/>
-    <hyperlink ref="A107" display="enable-your-device-for-development.md" r:id="rId107"/>
+    <hyperlink ref="A3" display="account-types-locations-and-fees.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="enable-your-device-for-development.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="readme.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId7"/>
+    <hyperlink ref="A8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId8"/>
+    <hyperlink ref="A9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId9"/>
+    <hyperlink ref="A10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId10"/>
+    <hyperlink ref="A11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId11"/>
+    <hyperlink ref="A12" display="test.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="JasGro-home.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="table_creation_tools.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="pigeon.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="tools-for-beginners.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="HelloWorld.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="HelloWorld2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="HelloWorld3.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="HelloWorld4.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="HelloWorld5.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="github-logo.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="markdown-logo.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="available_policies.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="emie_to_improve_compatibility.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="EmIEOpeninIE.png" r:id="rId28"/>
+    <hyperlink ref="A29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="SendintranettoIE.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="hardware_and_software_requirements.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="macapara.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="markdown-tips.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="tedhudek-home.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="wdcml-to-open-publish.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="workflow.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="TOC.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="Welcome.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="attestation_driver_signing_submission_dashboard.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="b_wes_driversigning_v2.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="building_a_driver.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="building_drivers_for_different_versions_of_windows.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="create_a_custom_driver_installation_script.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="creating_a_device_metadata_package.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="creating_a_driver_from_existing_source_files.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="creating_a_driver_package.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="VsSlnExplorer.png" r:id="rId54"/>
+    <hyperlink ref="A55" display="VsDrvrPkgProps.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="MultipleDriversSingleSolution.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="creating_a_driver_verification_log.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="creating_a_new_driver.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="creating_a_new_filter_driver.md" r:id="rId61"/>
+    <hyperlink ref="A62" display="creating_a_new_software_driver.md" r:id="rId62"/>
+    <hyperlink ref="A63" display="debugging_a_driver.md" r:id="rId63"/>
+    <hyperlink ref="A64" display="deploying_a_driver_to_a_test_computer.md" r:id="rId64"/>
+    <hyperlink ref="A65" display="deployment_properties_for_driver_projects.md" r:id="rId65"/>
+    <hyperlink ref="A66" display="distributing_a_driver_package_win8.md" r:id="rId66"/>
+    <hyperlink ref="A67" display="driver_model_convergence.md" r:id="rId67"/>
+    <hyperlink ref="A68" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId68"/>
+    <hyperlink ref="A69" display="driver_signing_properties.md" r:id="rId69"/>
+    <hyperlink ref="A70" display="driver_verifier_properties_for__driver_projects.md" r:id="rId70"/>
+    <hyperlink ref="A71" display="getting_started_with_universal_drivers.md" r:id="rId71"/>
+    <hyperlink ref="A72" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="how_to_write_a_driver_test_.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId75"/>
+    <hyperlink ref="A76" display="installing_a_universal_driver.md" r:id="rId76"/>
+    <hyperlink ref="A77" display="Installing_the_Enterprise_WDK.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="message_compiler_properties_for_driver_projects.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="read_the_driver_test_results_log.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="ert_test_results.png" r:id="rId84"/>
+    <hyperlink ref="A85" display="README.md" r:id="rId85"/>
+    <hyperlink ref="A86" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId86"/>
+    <hyperlink ref="A87" display="signing_a_driver.md" r:id="rId87"/>
+    <hyperlink ref="A88" display="signing_a_driver_during_development_and_testing.md" r:id="rId88"/>
+    <hyperlink ref="A89" display="SigningADriver01.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="signing_a_driver_for_public_release.md" r:id="rId90"/>
+    <hyperlink ref="A91" display="stampinf_properties_for_driver_projects.md" r:id="rId91"/>
+    <hyperlink ref="A92" display="strategies_for_testing_drivers_during_development.md" r:id="rId92"/>
+    <hyperlink ref="A93" display="test_a_driver_package.md" r:id="rId93"/>
+    <hyperlink ref="A94" display="testing_a_driver.md" r:id="rId94"/>
+    <hyperlink ref="A95" display="testing_a_driver_at_runtime.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="to_add_test_metadata.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="TOC.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="validating_universal_drivers.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="visual_studio_driver_development_environment.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId104"/>
+    <hyperlink ref="A105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId105"/>
+    <hyperlink ref="A106" display="windows_10_editions_for_universal_drivers.md" r:id="rId106"/>
+    <hyperlink ref="A107" display="TargetPlatform.png" r:id="rId107"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2286,7 +2274,7 @@
         <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>120</v>
@@ -2303,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>124</v>
@@ -2326,10 +2314,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>127</v>
@@ -2338,7 +2326,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>127</v>
@@ -2352,10 +2340,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>128</v>
@@ -2364,16 +2352,16 @@
         <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -2381,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>129</v>
@@ -2393,13 +2381,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -2407,25 +2395,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -2433,25 +2421,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -2459,25 +2447,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -2485,25 +2473,25 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
@@ -2511,25 +2499,25 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2537,22 +2525,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -2563,22 +2551,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -2589,22 +2577,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -2615,10 +2603,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>129</v>
@@ -2627,13 +2615,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -2641,22 +2629,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -2667,25 +2655,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -2693,22 +2681,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -2719,22 +2707,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>123</v>
@@ -2745,22 +2733,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>123</v>
@@ -2771,22 +2759,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>123</v>
@@ -2797,25 +2785,25 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -2823,25 +2811,25 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -2849,25 +2837,25 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
@@ -2875,25 +2863,25 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -2901,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>129</v>
@@ -2913,13 +2901,13 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -2927,10 +2915,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>129</v>
@@ -2939,13 +2927,13 @@
         <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -2953,25 +2941,25 @@
         <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
@@ -2979,25 +2967,25 @@
         <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -3005,25 +2993,25 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
@@ -3031,25 +3019,25 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
@@ -3057,22 +3045,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>123</v>
@@ -3083,22 +3071,22 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>123</v>
@@ -3109,22 +3097,22 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>123</v>
@@ -3135,22 +3123,22 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>123</v>
@@ -3161,22 +3149,22 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>123</v>
@@ -3187,22 +3175,22 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>123</v>
@@ -3213,19 +3201,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>122</v>
@@ -3239,13 +3227,13 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>43</v>
@@ -3265,19 +3253,19 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>122</v>
@@ -3291,25 +3279,25 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -3317,25 +3305,25 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -3343,25 +3331,25 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
@@ -3369,25 +3357,25 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
@@ -3395,10 +3383,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>121</v>
@@ -3407,7 +3395,7 @@
         <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>122</v>
@@ -3421,10 +3409,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>121</v>
@@ -3433,7 +3421,7 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>122</v>
@@ -3447,10 +3435,10 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>121</v>
@@ -3459,7 +3447,7 @@
         <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>122</v>
@@ -3473,10 +3461,10 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>121</v>
@@ -3485,7 +3473,7 @@
         <v>52</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>122</v>
@@ -3499,10 +3487,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>121</v>
@@ -3511,7 +3499,7 @@
         <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>122</v>
@@ -3525,10 +3513,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>121</v>
@@ -3537,7 +3525,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>122</v>
@@ -3551,10 +3539,10 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>121</v>
@@ -3563,7 +3551,7 @@
         <v>55</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>122</v>
@@ -3577,25 +3565,25 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -3603,25 +3591,25 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
@@ -3629,25 +3617,25 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -3655,25 +3643,25 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -3681,25 +3669,25 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -3707,10 +3695,10 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>121</v>
@@ -3719,7 +3707,7 @@
         <v>61</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>122</v>
@@ -3733,10 +3721,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>121</v>
@@ -3745,7 +3733,7 @@
         <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>122</v>
@@ -3759,10 +3747,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>121</v>
@@ -3771,7 +3759,7 @@
         <v>63</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>122</v>
@@ -3785,10 +3773,10 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>121</v>
@@ -3797,7 +3785,7 @@
         <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>122</v>
@@ -3811,10 +3799,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>121</v>
@@ -3823,7 +3811,7 @@
         <v>65</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>122</v>
@@ -3837,10 +3825,10 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>121</v>
@@ -3849,7 +3837,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>122</v>
@@ -3863,10 +3851,10 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>121</v>
@@ -3875,7 +3863,7 @@
         <v>67</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>122</v>
@@ -3889,10 +3877,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>121</v>
@@ -3901,7 +3889,7 @@
         <v>68</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>122</v>
@@ -3915,10 +3903,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>121</v>
@@ -3927,7 +3915,7 @@
         <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>122</v>
@@ -3941,10 +3929,10 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>121</v>
@@ -3953,7 +3941,7 @@
         <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>122</v>
@@ -3967,10 +3955,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>121</v>
@@ -3979,7 +3967,7 @@
         <v>71</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>122</v>
@@ -3993,10 +3981,10 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>121</v>
@@ -4005,7 +3993,7 @@
         <v>72</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>122</v>
@@ -4019,10 +4007,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>121</v>
@@ -4031,7 +4019,7 @@
         <v>73</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>122</v>
@@ -4045,10 +4033,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>121</v>
@@ -4057,7 +4045,7 @@
         <v>74</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>122</v>
@@ -4071,10 +4059,10 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>121</v>
@@ -4083,7 +4071,7 @@
         <v>75</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>122</v>
@@ -4097,10 +4085,10 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>121</v>
@@ -4109,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>122</v>
@@ -4123,10 +4111,10 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>121</v>
@@ -4135,7 +4123,7 @@
         <v>77</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>122</v>
@@ -4149,10 +4137,10 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>121</v>
@@ -4161,7 +4149,7 @@
         <v>78</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>122</v>
@@ -4175,10 +4163,10 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>121</v>
@@ -4187,7 +4175,7 @@
         <v>79</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>122</v>
@@ -4201,10 +4189,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>121</v>
@@ -4213,7 +4201,7 @@
         <v>80</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>122</v>
@@ -4227,10 +4215,10 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>121</v>
@@ -4239,7 +4227,7 @@
         <v>81</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>122</v>
@@ -4253,10 +4241,10 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>121</v>
@@ -4265,7 +4253,7 @@
         <v>82</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>122</v>
@@ -4279,10 +4267,10 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>121</v>
@@ -4291,7 +4279,7 @@
         <v>83</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>122</v>
@@ -4305,10 +4293,10 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>121</v>
@@ -4317,7 +4305,7 @@
         <v>84</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>122</v>
@@ -4331,10 +4319,10 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>121</v>
@@ -4343,7 +4331,7 @@
         <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>122</v>
@@ -4357,25 +4345,25 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
@@ -4383,10 +4371,10 @@
         <v>87</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>121</v>
@@ -4395,7 +4383,7 @@
         <v>87</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>122</v>
@@ -4409,25 +4397,25 @@
         <v>88</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
@@ -4435,10 +4423,10 @@
         <v>89</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>121</v>
@@ -4447,7 +4435,7 @@
         <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>122</v>
@@ -4461,10 +4449,10 @@
         <v>90</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>121</v>
@@ -4473,7 +4461,7 @@
         <v>90</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>122</v>
@@ -4487,25 +4475,25 @@
         <v>91</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
@@ -4513,10 +4501,10 @@
         <v>92</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>121</v>
@@ -4525,7 +4513,7 @@
         <v>92</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>122</v>
@@ -4539,25 +4527,25 @@
         <v>93</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
@@ -4565,10 +4553,10 @@
         <v>94</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>121</v>
@@ -4577,7 +4565,7 @@
         <v>94</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>122</v>
@@ -4591,10 +4579,10 @@
         <v>95</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>121</v>
@@ -4603,7 +4591,7 @@
         <v>95</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>122</v>
@@ -4617,10 +4605,10 @@
         <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>121</v>
@@ -4629,7 +4617,7 @@
         <v>96</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>122</v>
@@ -4643,10 +4631,10 @@
         <v>97</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>121</v>
@@ -4655,7 +4643,7 @@
         <v>97</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>122</v>
@@ -4669,10 +4657,10 @@
         <v>98</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>121</v>
@@ -4681,7 +4669,7 @@
         <v>98</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>122</v>
@@ -4692,22 +4680,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>122</v>
@@ -4718,22 +4706,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>122</v>
@@ -4744,22 +4732,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>122</v>
@@ -4773,10 +4761,10 @@
         <v>101</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>121</v>
@@ -4785,7 +4773,7 @@
         <v>101</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>122</v>
@@ -4799,19 +4787,19 @@
         <v>102</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>122</v>
@@ -4825,10 +4813,10 @@
         <v>103</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>121</v>
@@ -4837,7 +4825,7 @@
         <v>103</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>122</v>
@@ -4851,10 +4839,10 @@
         <v>104</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>121</v>
@@ -4863,7 +4851,7 @@
         <v>104</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>122</v>
@@ -4877,10 +4865,10 @@
         <v>105</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>121</v>
@@ -4889,7 +4877,7 @@
         <v>105</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>122</v>
@@ -4903,10 +4891,10 @@
         <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>121</v>
@@ -4915,7 +4903,7 @@
         <v>106</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>122</v>
@@ -4929,10 +4917,10 @@
         <v>107</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>121</v>
@@ -4941,7 +4929,7 @@
         <v>107</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>122</v>
@@ -4955,25 +4943,25 @@
         <v>108</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>122</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
@@ -4981,22 +4969,22 @@
         <v>109</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>123</v>
@@ -5007,25 +4995,25 @@
         <v>110</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5034,426 +5022,426 @@
     <hyperlink ref="C2" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId4"/>
     <hyperlink ref="F2" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="readme.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="readme.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId14"/>
-    <hyperlink ref="C5" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId15"/>
-    <hyperlink ref="E5" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId16"/>
-    <hyperlink ref="F5" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId17"/>
-    <hyperlink ref="A6" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId22"/>
-    <hyperlink ref="C7" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId23"/>
-    <hyperlink ref="E7" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId24"/>
-    <hyperlink ref="F7" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId26"/>
-    <hyperlink ref="C8" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId27"/>
-    <hyperlink ref="E8" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId28"/>
-    <hyperlink ref="F8" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId30"/>
-    <hyperlink ref="C9" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId31"/>
-    <hyperlink ref="E9" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId32"/>
-    <hyperlink ref="F9" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId33"/>
-    <hyperlink ref="A10" display="test.md" r:id="rId34"/>
-    <hyperlink ref="C10" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="E10" display="test.md" r:id="rId36"/>
-    <hyperlink ref="F10" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="JasGro-home.md" r:id="rId38"/>
-    <hyperlink ref="C11" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="E11" display="JasGro-home.md" r:id="rId40"/>
-    <hyperlink ref="F11" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test2.md" r:id="rId42"/>
-    <hyperlink ref="C12" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="E12" display="test2.md" r:id="rId44"/>
-    <hyperlink ref="F12" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="table_creation_tools.md" r:id="rId46"/>
-    <hyperlink ref="C13" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="E13" display="table_creation_tools.md" r:id="rId48"/>
-    <hyperlink ref="F13" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId50"/>
-    <hyperlink ref="C14" display="test1.7f0f552458431654d6ec10125262b97426875375.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="E14" display="test1.md" r:id="rId52"/>
-    <hyperlink ref="F14" display="test1.7f0f552458431654d6ec10125262b97426875375.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="pigeon.png" r:id="rId54"/>
-    <hyperlink ref="C15" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId55"/>
-    <hyperlink ref="E15" display="pigeon.png" r:id="rId56"/>
-    <hyperlink ref="F15" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId57"/>
-    <hyperlink ref="A16" display="tools-for-beginners.md" r:id="rId58"/>
-    <hyperlink ref="C16" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="E16" display="tools-for-beginners.md" r:id="rId60"/>
-    <hyperlink ref="F16" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="HelloWorld.md" r:id="rId62"/>
-    <hyperlink ref="C17" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="E17" display="HelloWorld.md" r:id="rId64"/>
-    <hyperlink ref="F17" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="HelloWorld2.md" r:id="rId66"/>
-    <hyperlink ref="C18" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="E18" display="HelloWorld.md" r:id="rId68"/>
-    <hyperlink ref="F18" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="HelloWorld3.md" r:id="rId70"/>
+    <hyperlink ref="A3" display="account-types-locations-and-fees.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="account-types-locations-and-fees.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="enable-your-device-for-development.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="enable-your-device-for-development.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="readme.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="readme.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId22"/>
+    <hyperlink ref="C7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId23"/>
+    <hyperlink ref="E7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId24"/>
+    <hyperlink ref="F7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId26"/>
+    <hyperlink ref="C8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId27"/>
+    <hyperlink ref="E8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId28"/>
+    <hyperlink ref="F8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId29"/>
+    <hyperlink ref="A9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId30"/>
+    <hyperlink ref="C9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId31"/>
+    <hyperlink ref="E9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId32"/>
+    <hyperlink ref="F9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId33"/>
+    <hyperlink ref="A10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId34"/>
+    <hyperlink ref="C10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId35"/>
+    <hyperlink ref="E10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId36"/>
+    <hyperlink ref="F10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId37"/>
+    <hyperlink ref="A11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId38"/>
+    <hyperlink ref="C11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId39"/>
+    <hyperlink ref="E11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId40"/>
+    <hyperlink ref="F11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId41"/>
+    <hyperlink ref="A12" display="test.md" r:id="rId42"/>
+    <hyperlink ref="C12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="E12" display="test.md" r:id="rId44"/>
+    <hyperlink ref="F12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="JasGro-home.md" r:id="rId46"/>
+    <hyperlink ref="C13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="E13" display="JasGro-home.md" r:id="rId48"/>
+    <hyperlink ref="F13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId50"/>
+    <hyperlink ref="C14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="E14" display="test2.md" r:id="rId52"/>
+    <hyperlink ref="F14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="table_creation_tools.md" r:id="rId54"/>
+    <hyperlink ref="C15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="E15" display="table_creation_tools.md" r:id="rId56"/>
+    <hyperlink ref="F15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="test1.md" r:id="rId58"/>
+    <hyperlink ref="C16" display="test1.7f0f552458431654d6ec10125262b97426875375.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="E16" display="test1.md" r:id="rId60"/>
+    <hyperlink ref="F16" display="test1.7f0f552458431654d6ec10125262b97426875375.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="pigeon.png" r:id="rId62"/>
+    <hyperlink ref="C17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId63"/>
+    <hyperlink ref="E17" display="pigeon.png" r:id="rId64"/>
+    <hyperlink ref="F17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="tools-for-beginners.md" r:id="rId66"/>
+    <hyperlink ref="C18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="E18" display="tools-for-beginners.md" r:id="rId68"/>
+    <hyperlink ref="F18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="HelloWorld.md" r:id="rId70"/>
     <hyperlink ref="C19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId71"/>
     <hyperlink ref="E19" display="HelloWorld.md" r:id="rId72"/>
     <hyperlink ref="F19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="HelloWorld4.md" r:id="rId74"/>
+    <hyperlink ref="A20" display="HelloWorld2.md" r:id="rId74"/>
     <hyperlink ref="C20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId75"/>
     <hyperlink ref="E20" display="HelloWorld.md" r:id="rId76"/>
     <hyperlink ref="F20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="HelloWorld5.md" r:id="rId78"/>
+    <hyperlink ref="A21" display="HelloWorld3.md" r:id="rId78"/>
     <hyperlink ref="C21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId79"/>
     <hyperlink ref="E21" display="HelloWorld.md" r:id="rId80"/>
     <hyperlink ref="F21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="github-logo.png" r:id="rId82"/>
-    <hyperlink ref="C22" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId83"/>
-    <hyperlink ref="E22" display="github-logo.png" r:id="rId84"/>
-    <hyperlink ref="F22" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId85"/>
-    <hyperlink ref="A23" display="markdown-logo.png" r:id="rId86"/>
-    <hyperlink ref="C23" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId87"/>
-    <hyperlink ref="E23" display="markdown-logo.png" r:id="rId88"/>
-    <hyperlink ref="F23" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId89"/>
-    <hyperlink ref="A24" display="available_policies.md" r:id="rId90"/>
-    <hyperlink ref="C24" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="E24" display="available_policies.md" r:id="rId92"/>
-    <hyperlink ref="F24" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="emie_to_improve_compatibility.md" r:id="rId94"/>
-    <hyperlink ref="C25" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="E25" display="emie_to_improve_compatibility.md" r:id="rId96"/>
-    <hyperlink ref="F25" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="EmIEOpeninIE.png" r:id="rId98"/>
-    <hyperlink ref="C26" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId99"/>
-    <hyperlink ref="E26" display="EmIEOpeninIE.png" r:id="rId100"/>
-    <hyperlink ref="F26" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId102"/>
-    <hyperlink ref="C27" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId103"/>
-    <hyperlink ref="E27" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId104"/>
-    <hyperlink ref="F27" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId105"/>
-    <hyperlink ref="A28" display="Edge_EmIE_RegistrySiteList.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="Edge_EmIE_RegistrySiteList.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="SendintranettoIE.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="SendintranettoIE.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="hardware_and_software_requirements.md" r:id="rId114"/>
-    <hyperlink ref="C30" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="E30" display="hardware_and_software_requirements.md" r:id="rId116"/>
-    <hyperlink ref="F30" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="msedge_deployment_guide_for_it_pros.md" r:id="rId118"/>
-    <hyperlink ref="C31" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.zh-cn.xlf" r:id="rId119"/>
-    <hyperlink ref="E31" display="msedge_deployment_guide_for_it_pros.md" r:id="rId120"/>
-    <hyperlink ref="F31" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.zh-cn.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="macapara.md" r:id="rId122"/>
-    <hyperlink ref="C32" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.zh-cn.xlf" r:id="rId123"/>
-    <hyperlink ref="E32" display="macapara.md" r:id="rId124"/>
-    <hyperlink ref="F32" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.zh-cn.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="markdown-tips.md" r:id="rId126"/>
-    <hyperlink ref="C33" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.zh-cn.xlf" r:id="rId127"/>
-    <hyperlink ref="E33" display="markdown-tips.md" r:id="rId128"/>
-    <hyperlink ref="F33" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.zh-cn.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="tedhudek-home.md" r:id="rId130"/>
-    <hyperlink ref="C34" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.zh-cn.xlf" r:id="rId131"/>
-    <hyperlink ref="E34" display="tedhudek-home.md" r:id="rId132"/>
-    <hyperlink ref="F34" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.zh-cn.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="wdcml-to-open-publish.md" r:id="rId134"/>
-    <hyperlink ref="C35" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.zh-cn.xlf" r:id="rId135"/>
-    <hyperlink ref="E35" display="wdcml-to-open-publish.md" r:id="rId136"/>
-    <hyperlink ref="F35" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.zh-cn.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="workflow.md" r:id="rId138"/>
-    <hyperlink ref="C36" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId139"/>
-    <hyperlink ref="E36" display="workflow.md" r:id="rId140"/>
-    <hyperlink ref="F36" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="TOC.md" r:id="rId142"/>
-    <hyperlink ref="C37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId143"/>
-    <hyperlink ref="E37" display="TOC.md" r:id="rId144"/>
-    <hyperlink ref="F37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="Welcome.md" r:id="rId146"/>
-    <hyperlink ref="C38" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId147"/>
-    <hyperlink ref="E38" display="Welcome.md" r:id="rId148"/>
-    <hyperlink ref="F38" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId154"/>
-    <hyperlink ref="C40" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId155"/>
-    <hyperlink ref="E40" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId156"/>
-    <hyperlink ref="F40" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="attestation_driver_signing_submission_dashboard.png" r:id="rId158"/>
-    <hyperlink ref="C41" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId159"/>
-    <hyperlink ref="E41" display="attestation_driver_signing_submission_dashboard.png" r:id="rId160"/>
-    <hyperlink ref="F41" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId161"/>
-    <hyperlink ref="A42" display="b_wes_driversigning_v2.png" r:id="rId162"/>
-    <hyperlink ref="C42" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId163"/>
-    <hyperlink ref="E42" display="b_wes_driversigning_v2.png" r:id="rId164"/>
-    <hyperlink ref="F42" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId165"/>
-    <hyperlink ref="A43" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId166"/>
-    <hyperlink ref="C43" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId167"/>
-    <hyperlink ref="E43" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId168"/>
-    <hyperlink ref="F43" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="building_a_driver.md" r:id="rId170"/>
-    <hyperlink ref="C44" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId171"/>
-    <hyperlink ref="E44" display="building_a_driver.md" r:id="rId172"/>
-    <hyperlink ref="F44" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="building_drivers_for_different_versions_of_windows.md" r:id="rId174"/>
-    <hyperlink ref="C45" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId175"/>
-    <hyperlink ref="E45" display="building_drivers_for_different_versions_of_windows.md" r:id="rId176"/>
-    <hyperlink ref="F45" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId178"/>
-    <hyperlink ref="C46" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId179"/>
-    <hyperlink ref="E46" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId180"/>
-    <hyperlink ref="F46" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId182"/>
-    <hyperlink ref="C47" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId183"/>
-    <hyperlink ref="E47" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId184"/>
-    <hyperlink ref="F47" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="create_a_custom_driver_installation_script.md" r:id="rId186"/>
-    <hyperlink ref="C48" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId187"/>
-    <hyperlink ref="E48" display="create_a_custom_driver_installation_script.md" r:id="rId188"/>
-    <hyperlink ref="F48" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="creating_a_device_metadata_package.md" r:id="rId190"/>
-    <hyperlink ref="C49" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId191"/>
-    <hyperlink ref="E49" display="creating_a_device_metadata_package.md" r:id="rId192"/>
-    <hyperlink ref="F49" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="creating_a_driver_from_existing_source_files.md" r:id="rId194"/>
-    <hyperlink ref="C50" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId195"/>
-    <hyperlink ref="E50" display="creating_a_driver_from_existing_source_files.md" r:id="rId196"/>
-    <hyperlink ref="F50" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="creating_a_driver_package.md" r:id="rId198"/>
-    <hyperlink ref="C51" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId199"/>
-    <hyperlink ref="E51" display="creating_a_driver_package.md" r:id="rId200"/>
-    <hyperlink ref="F51" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="VsSlnExplorer.png" r:id="rId202"/>
-    <hyperlink ref="C52" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId203"/>
-    <hyperlink ref="E52" display="VsSlnExplorer.png" r:id="rId204"/>
-    <hyperlink ref="F52" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId205"/>
-    <hyperlink ref="A53" display="VsDrvrPkgProps.png" r:id="rId206"/>
-    <hyperlink ref="C53" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId207"/>
-    <hyperlink ref="E53" display="VsDrvrPkgProps.png" r:id="rId208"/>
-    <hyperlink ref="F53" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId209"/>
-    <hyperlink ref="A54" display="MultipleDriversSingleSolution.png" r:id="rId210"/>
-    <hyperlink ref="C54" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId211"/>
-    <hyperlink ref="E54" display="MultipleDriversSingleSolution.png" r:id="rId212"/>
-    <hyperlink ref="F54" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId213"/>
-    <hyperlink ref="A55" display="creating_a_driver_verification_log.md" r:id="rId214"/>
-    <hyperlink ref="C55" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId215"/>
-    <hyperlink ref="E55" display="creating_a_driver_verification_log.md" r:id="rId216"/>
-    <hyperlink ref="F55" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId217"/>
-    <hyperlink ref="A56" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId218"/>
-    <hyperlink ref="C56" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId219"/>
-    <hyperlink ref="E56" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId220"/>
-    <hyperlink ref="F56" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId221"/>
-    <hyperlink ref="A57" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId222"/>
-    <hyperlink ref="C57" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId223"/>
-    <hyperlink ref="E57" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId224"/>
-    <hyperlink ref="F57" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId225"/>
-    <hyperlink ref="A58" display="creating_a_new_driver.md" r:id="rId226"/>
-    <hyperlink ref="C58" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId227"/>
-    <hyperlink ref="E58" display="creating_a_new_driver.md" r:id="rId228"/>
-    <hyperlink ref="F58" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId229"/>
-    <hyperlink ref="A59" display="creating_a_new_filter_driver.md" r:id="rId230"/>
-    <hyperlink ref="C59" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId231"/>
-    <hyperlink ref="E59" display="creating_a_new_filter_driver.md" r:id="rId232"/>
-    <hyperlink ref="F59" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId233"/>
-    <hyperlink ref="A60" display="creating_a_new_software_driver.md" r:id="rId234"/>
-    <hyperlink ref="C60" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId235"/>
-    <hyperlink ref="E60" display="creating_a_new_software_driver.md" r:id="rId236"/>
-    <hyperlink ref="F60" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId237"/>
-    <hyperlink ref="A61" display="debugging_a_driver.md" r:id="rId238"/>
-    <hyperlink ref="C61" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId239"/>
-    <hyperlink ref="E61" display="debugging_a_driver.md" r:id="rId240"/>
-    <hyperlink ref="F61" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId241"/>
-    <hyperlink ref="A62" display="deploying_a_driver_to_a_test_computer.md" r:id="rId242"/>
-    <hyperlink ref="C62" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId243"/>
-    <hyperlink ref="E62" display="deploying_a_driver_to_a_test_computer.md" r:id="rId244"/>
-    <hyperlink ref="F62" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId245"/>
-    <hyperlink ref="A63" display="deployment_properties_for_driver_projects.md" r:id="rId246"/>
-    <hyperlink ref="C63" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId247"/>
-    <hyperlink ref="E63" display="deployment_properties_for_driver_projects.md" r:id="rId248"/>
-    <hyperlink ref="F63" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId249"/>
-    <hyperlink ref="A64" display="distributing_a_driver_package_win8.md" r:id="rId250"/>
-    <hyperlink ref="C64" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId251"/>
-    <hyperlink ref="E64" display="distributing_a_driver_package_win8.md" r:id="rId252"/>
-    <hyperlink ref="F64" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId253"/>
-    <hyperlink ref="A65" display="driver_model_convergence.md" r:id="rId254"/>
-    <hyperlink ref="C65" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId255"/>
-    <hyperlink ref="E65" display="driver_model_convergence.md" r:id="rId256"/>
-    <hyperlink ref="F65" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A66" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId258"/>
-    <hyperlink ref="C66" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E66" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId260"/>
-    <hyperlink ref="F66" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A67" display="driver_signing_properties.md" r:id="rId262"/>
-    <hyperlink ref="C67" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="E67" display="driver_signing_properties.md" r:id="rId264"/>
-    <hyperlink ref="F67" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="A68" display="driver_verifier_properties_for__driver_projects.md" r:id="rId266"/>
-    <hyperlink ref="C68" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId267"/>
-    <hyperlink ref="E68" display="driver_verifier_properties_for__driver_projects.md" r:id="rId268"/>
-    <hyperlink ref="F68" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId269"/>
-    <hyperlink ref="A69" display="getting_started_with_universal_drivers.md" r:id="rId270"/>
-    <hyperlink ref="C69" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId271"/>
-    <hyperlink ref="E69" display="getting_started_with_universal_drivers.md" r:id="rId272"/>
-    <hyperlink ref="F69" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId273"/>
-    <hyperlink ref="A70" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId274"/>
-    <hyperlink ref="C70" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="E70" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId276"/>
-    <hyperlink ref="F70" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="A71" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId278"/>
-    <hyperlink ref="C71" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="E71" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId280"/>
-    <hyperlink ref="F71" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="A72" display="how_to_write_a_driver_test_.md" r:id="rId282"/>
-    <hyperlink ref="C72" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="E72" display="how_to_write_a_driver_test_.md" r:id="rId284"/>
-    <hyperlink ref="F72" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId285"/>
-    <hyperlink ref="A73" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId286"/>
-    <hyperlink ref="C73" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId287"/>
-    <hyperlink ref="E73" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId288"/>
-    <hyperlink ref="F73" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId289"/>
-    <hyperlink ref="A74" display="installing_a_universal_driver.md" r:id="rId290"/>
-    <hyperlink ref="C74" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId291"/>
-    <hyperlink ref="E74" display="installing_a_universal_driver.md" r:id="rId292"/>
-    <hyperlink ref="F74" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="A75" display="Installing_the_Enterprise_WDK.md" r:id="rId294"/>
-    <hyperlink ref="C75" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E75" display="Installing_the_Enterprise_WDK.md" r:id="rId296"/>
-    <hyperlink ref="F75" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A76" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId298"/>
-    <hyperlink ref="C76" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E76" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId300"/>
-    <hyperlink ref="F76" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A77" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId302"/>
-    <hyperlink ref="C77" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId303"/>
-    <hyperlink ref="E77" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId304"/>
-    <hyperlink ref="F77" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId305"/>
-    <hyperlink ref="A78" display="message_compiler_properties_for_driver_projects.md" r:id="rId306"/>
-    <hyperlink ref="C78" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId307"/>
-    <hyperlink ref="E78" display="message_compiler_properties_for_driver_projects.md" r:id="rId308"/>
-    <hyperlink ref="F78" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId309"/>
-    <hyperlink ref="A79" display="mof_compiler_properties_for_driver_projects.md" r:id="rId310"/>
-    <hyperlink ref="C79" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId311"/>
-    <hyperlink ref="E79" display="mof_compiler_properties_for_driver_projects.md" r:id="rId312"/>
-    <hyperlink ref="F79" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId313"/>
-    <hyperlink ref="A80" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId314"/>
-    <hyperlink ref="C80" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId315"/>
-    <hyperlink ref="E80" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId316"/>
-    <hyperlink ref="F80" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId317"/>
-    <hyperlink ref="A81" display="read_the_driver_test_results_log.md" r:id="rId318"/>
-    <hyperlink ref="C81" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId319"/>
-    <hyperlink ref="E81" display="read_the_driver_test_results_log.md" r:id="rId320"/>
-    <hyperlink ref="F81" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId321"/>
-    <hyperlink ref="A82" display="ert_test_results.png" r:id="rId322"/>
-    <hyperlink ref="C82" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId323"/>
-    <hyperlink ref="E82" display="ert_test_results.png" r:id="rId324"/>
-    <hyperlink ref="F82" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId325"/>
-    <hyperlink ref="A83" display="README.md" r:id="rId326"/>
-    <hyperlink ref="C83" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId327"/>
-    <hyperlink ref="E83" display="README.md" r:id="rId328"/>
-    <hyperlink ref="F83" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId329"/>
-    <hyperlink ref="A84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId330"/>
-    <hyperlink ref="C84" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId331"/>
-    <hyperlink ref="E84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId332"/>
-    <hyperlink ref="F84" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId333"/>
-    <hyperlink ref="A85" display="signing_a_driver.md" r:id="rId334"/>
-    <hyperlink ref="C85" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId335"/>
-    <hyperlink ref="E85" display="signing_a_driver.md" r:id="rId336"/>
-    <hyperlink ref="F85" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId337"/>
-    <hyperlink ref="A86" display="signing_a_driver_during_development_and_testing.md" r:id="rId338"/>
-    <hyperlink ref="C86" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId339"/>
-    <hyperlink ref="E86" display="signing_a_driver_during_development_and_testing.md" r:id="rId340"/>
-    <hyperlink ref="F86" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId341"/>
-    <hyperlink ref="A87" display="SigningADriver01.png" r:id="rId342"/>
-    <hyperlink ref="C87" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId343"/>
-    <hyperlink ref="E87" display="SigningADriver01.png" r:id="rId344"/>
-    <hyperlink ref="F87" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId345"/>
-    <hyperlink ref="A88" display="signing_a_driver_for_public_release.md" r:id="rId346"/>
-    <hyperlink ref="C88" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E88" display="signing_a_driver_for_public_release.md" r:id="rId348"/>
-    <hyperlink ref="F88" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A89" display="stampinf_properties_for_driver_projects.md" r:id="rId350"/>
-    <hyperlink ref="C89" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E89" display="stampinf_properties_for_driver_projects.md" r:id="rId352"/>
-    <hyperlink ref="F89" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A90" display="strategies_for_testing_drivers_during_development.md" r:id="rId354"/>
-    <hyperlink ref="C90" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E90" display="strategies_for_testing_drivers_during_development.md" r:id="rId356"/>
-    <hyperlink ref="F90" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A91" display="test_a_driver_package.md" r:id="rId358"/>
-    <hyperlink ref="C91" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E91" display="test_a_driver_package.md" r:id="rId360"/>
-    <hyperlink ref="F91" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A92" display="testing_a_driver.md" r:id="rId362"/>
-    <hyperlink ref="C92" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E92" display="testing_a_driver.md" r:id="rId364"/>
-    <hyperlink ref="F92" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A93" display="testing_a_driver_at_runtime.md" r:id="rId366"/>
-    <hyperlink ref="C93" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId367"/>
-    <hyperlink ref="E93" display="testing_a_driver_at_runtime.md" r:id="rId368"/>
-    <hyperlink ref="F93" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId369"/>
-    <hyperlink ref="A94" display="to_add_test_metadata.md" r:id="rId370"/>
-    <hyperlink ref="C94" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId371"/>
-    <hyperlink ref="E94" display="to_add_test_metadata.md" r:id="rId372"/>
-    <hyperlink ref="F94" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId373"/>
-    <hyperlink ref="A95" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="C95" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId375"/>
-    <hyperlink ref="E95" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="F95" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId377"/>
-    <hyperlink ref="A96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId378"/>
-    <hyperlink ref="C96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId379"/>
-    <hyperlink ref="E96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId380"/>
-    <hyperlink ref="F96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId381"/>
-    <hyperlink ref="A97" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId382"/>
-    <hyperlink ref="C97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId383"/>
-    <hyperlink ref="E97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId384"/>
-    <hyperlink ref="F97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId385"/>
-    <hyperlink ref="A98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId386"/>
-    <hyperlink ref="C98" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId387"/>
-    <hyperlink ref="E98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId388"/>
-    <hyperlink ref="F98" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId389"/>
-    <hyperlink ref="A99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId390"/>
-    <hyperlink ref="C99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId391"/>
-    <hyperlink ref="E99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId392"/>
-    <hyperlink ref="F99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId393"/>
-    <hyperlink ref="A100" display="validating_universal_drivers.md" r:id="rId394"/>
-    <hyperlink ref="C100" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId395"/>
-    <hyperlink ref="E100" display="validating_universal_drivers.md" r:id="rId396"/>
-    <hyperlink ref="F100" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId397"/>
-    <hyperlink ref="A101" display="visual_studio_driver_development_environment.md" r:id="rId398"/>
-    <hyperlink ref="C101" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId399"/>
-    <hyperlink ref="E101" display="visual_studio_driver_development_environment.md" r:id="rId400"/>
-    <hyperlink ref="F101" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId401"/>
-    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId402"/>
-    <hyperlink ref="C102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId403"/>
-    <hyperlink ref="E102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId404"/>
-    <hyperlink ref="F102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId405"/>
-    <hyperlink ref="A103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId406"/>
-    <hyperlink ref="C103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId407"/>
-    <hyperlink ref="E103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId408"/>
-    <hyperlink ref="F103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId409"/>
-    <hyperlink ref="A104" display="windows_10_editions_for_universal_drivers.md" r:id="rId410"/>
-    <hyperlink ref="C104" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId411"/>
-    <hyperlink ref="E104" display="windows_10_editions_for_universal_drivers.md" r:id="rId412"/>
-    <hyperlink ref="F104" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId413"/>
-    <hyperlink ref="A105" display="TargetPlatform.png" r:id="rId414"/>
-    <hyperlink ref="C105" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId415"/>
-    <hyperlink ref="E105" display="TargetPlatform.png" r:id="rId416"/>
-    <hyperlink ref="F105" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId417"/>
-    <hyperlink ref="A106" display="account-types-locations-and-fees.md" r:id="rId418"/>
-    <hyperlink ref="C106" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf" r:id="rId419"/>
-    <hyperlink ref="E106" display="account-types-locations-and-fees.md" r:id="rId420"/>
-    <hyperlink ref="F106" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf" r:id="rId421"/>
-    <hyperlink ref="A107" display="enable-your-device-for-development.md" r:id="rId422"/>
-    <hyperlink ref="C107" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf" r:id="rId423"/>
-    <hyperlink ref="E107" display="enable-your-device-for-development.md" r:id="rId424"/>
-    <hyperlink ref="F107" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.zh-cn.xlf" r:id="rId425"/>
+    <hyperlink ref="A22" display="HelloWorld4.md" r:id="rId82"/>
+    <hyperlink ref="C22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="E22" display="HelloWorld.md" r:id="rId84"/>
+    <hyperlink ref="F22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="HelloWorld5.md" r:id="rId86"/>
+    <hyperlink ref="C23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="E23" display="HelloWorld.md" r:id="rId88"/>
+    <hyperlink ref="F23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="github-logo.png" r:id="rId90"/>
+    <hyperlink ref="C24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId91"/>
+    <hyperlink ref="E24" display="github-logo.png" r:id="rId92"/>
+    <hyperlink ref="F24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId93"/>
+    <hyperlink ref="A25" display="markdown-logo.png" r:id="rId94"/>
+    <hyperlink ref="C25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId95"/>
+    <hyperlink ref="E25" display="markdown-logo.png" r:id="rId96"/>
+    <hyperlink ref="F25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId97"/>
+    <hyperlink ref="A26" display="available_policies.md" r:id="rId98"/>
+    <hyperlink ref="C26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="E26" display="available_policies.md" r:id="rId100"/>
+    <hyperlink ref="F26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="emie_to_improve_compatibility.md" r:id="rId102"/>
+    <hyperlink ref="C27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="E27" display="emie_to_improve_compatibility.md" r:id="rId104"/>
+    <hyperlink ref="F27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="EmIEOpeninIE.png" r:id="rId106"/>
+    <hyperlink ref="C28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId107"/>
+    <hyperlink ref="E28" display="EmIEOpeninIE.png" r:id="rId108"/>
+    <hyperlink ref="F28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId109"/>
+    <hyperlink ref="A29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId110"/>
+    <hyperlink ref="C29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId111"/>
+    <hyperlink ref="E29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId112"/>
+    <hyperlink ref="F29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId113"/>
+    <hyperlink ref="A30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId114"/>
+    <hyperlink ref="C30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId115"/>
+    <hyperlink ref="E30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId116"/>
+    <hyperlink ref="F30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId117"/>
+    <hyperlink ref="A31" display="SendintranettoIE.png" r:id="rId118"/>
+    <hyperlink ref="C31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId119"/>
+    <hyperlink ref="E31" display="SendintranettoIE.png" r:id="rId120"/>
+    <hyperlink ref="F31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId121"/>
+    <hyperlink ref="A32" display="hardware_and_software_requirements.md" r:id="rId122"/>
+    <hyperlink ref="C32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.zh-cn.xlf" r:id="rId123"/>
+    <hyperlink ref="E32" display="hardware_and_software_requirements.md" r:id="rId124"/>
+    <hyperlink ref="F32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.zh-cn.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId126"/>
+    <hyperlink ref="C33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.zh-cn.xlf" r:id="rId127"/>
+    <hyperlink ref="E33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId128"/>
+    <hyperlink ref="F33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.zh-cn.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="macapara.md" r:id="rId130"/>
+    <hyperlink ref="C34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.zh-cn.xlf" r:id="rId131"/>
+    <hyperlink ref="E34" display="macapara.md" r:id="rId132"/>
+    <hyperlink ref="F34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.zh-cn.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="markdown-tips.md" r:id="rId134"/>
+    <hyperlink ref="C35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.zh-cn.xlf" r:id="rId135"/>
+    <hyperlink ref="E35" display="markdown-tips.md" r:id="rId136"/>
+    <hyperlink ref="F35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.zh-cn.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="tedhudek-home.md" r:id="rId138"/>
+    <hyperlink ref="C36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.zh-cn.xlf" r:id="rId139"/>
+    <hyperlink ref="E36" display="tedhudek-home.md" r:id="rId140"/>
+    <hyperlink ref="F36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.zh-cn.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="wdcml-to-open-publish.md" r:id="rId142"/>
+    <hyperlink ref="C37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.zh-cn.xlf" r:id="rId143"/>
+    <hyperlink ref="E37" display="wdcml-to-open-publish.md" r:id="rId144"/>
+    <hyperlink ref="F37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.zh-cn.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="workflow.md" r:id="rId146"/>
+    <hyperlink ref="C38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId147"/>
+    <hyperlink ref="E38" display="workflow.md" r:id="rId148"/>
+    <hyperlink ref="F38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="TOC.md" r:id="rId150"/>
+    <hyperlink ref="C39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId151"/>
+    <hyperlink ref="E39" display="TOC.md" r:id="rId152"/>
+    <hyperlink ref="F39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="Welcome.md" r:id="rId154"/>
+    <hyperlink ref="C40" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId155"/>
+    <hyperlink ref="E40" display="Welcome.md" r:id="rId156"/>
+    <hyperlink ref="F40" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId158"/>
+    <hyperlink ref="C41" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId159"/>
+    <hyperlink ref="E41" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId160"/>
+    <hyperlink ref="F41" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId162"/>
+    <hyperlink ref="C42" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId163"/>
+    <hyperlink ref="E42" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId164"/>
+    <hyperlink ref="F42" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="attestation_driver_signing_submission_dashboard.png" r:id="rId166"/>
+    <hyperlink ref="C43" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId167"/>
+    <hyperlink ref="E43" display="attestation_driver_signing_submission_dashboard.png" r:id="rId168"/>
+    <hyperlink ref="F43" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId169"/>
+    <hyperlink ref="A44" display="b_wes_driversigning_v2.png" r:id="rId170"/>
+    <hyperlink ref="C44" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId171"/>
+    <hyperlink ref="E44" display="b_wes_driversigning_v2.png" r:id="rId172"/>
+    <hyperlink ref="F44" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId173"/>
+    <hyperlink ref="A45" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId174"/>
+    <hyperlink ref="C45" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId175"/>
+    <hyperlink ref="E45" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId176"/>
+    <hyperlink ref="F45" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="building_a_driver.md" r:id="rId178"/>
+    <hyperlink ref="C46" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId179"/>
+    <hyperlink ref="E46" display="building_a_driver.md" r:id="rId180"/>
+    <hyperlink ref="F46" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="building_drivers_for_different_versions_of_windows.md" r:id="rId182"/>
+    <hyperlink ref="C47" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId183"/>
+    <hyperlink ref="E47" display="building_drivers_for_different_versions_of_windows.md" r:id="rId184"/>
+    <hyperlink ref="F47" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId186"/>
+    <hyperlink ref="C48" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId187"/>
+    <hyperlink ref="E48" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId188"/>
+    <hyperlink ref="F48" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId190"/>
+    <hyperlink ref="C49" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId191"/>
+    <hyperlink ref="E49" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId192"/>
+    <hyperlink ref="F49" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="create_a_custom_driver_installation_script.md" r:id="rId194"/>
+    <hyperlink ref="C50" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId195"/>
+    <hyperlink ref="E50" display="create_a_custom_driver_installation_script.md" r:id="rId196"/>
+    <hyperlink ref="F50" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="creating_a_device_metadata_package.md" r:id="rId198"/>
+    <hyperlink ref="C51" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId199"/>
+    <hyperlink ref="E51" display="creating_a_device_metadata_package.md" r:id="rId200"/>
+    <hyperlink ref="F51" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="creating_a_driver_from_existing_source_files.md" r:id="rId202"/>
+    <hyperlink ref="C52" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId203"/>
+    <hyperlink ref="E52" display="creating_a_driver_from_existing_source_files.md" r:id="rId204"/>
+    <hyperlink ref="F52" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="creating_a_driver_package.md" r:id="rId206"/>
+    <hyperlink ref="C53" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId207"/>
+    <hyperlink ref="E53" display="creating_a_driver_package.md" r:id="rId208"/>
+    <hyperlink ref="F53" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="VsSlnExplorer.png" r:id="rId210"/>
+    <hyperlink ref="C54" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId211"/>
+    <hyperlink ref="E54" display="VsSlnExplorer.png" r:id="rId212"/>
+    <hyperlink ref="F54" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId213"/>
+    <hyperlink ref="A55" display="VsDrvrPkgProps.png" r:id="rId214"/>
+    <hyperlink ref="C55" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId215"/>
+    <hyperlink ref="E55" display="VsDrvrPkgProps.png" r:id="rId216"/>
+    <hyperlink ref="F55" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId217"/>
+    <hyperlink ref="A56" display="MultipleDriversSingleSolution.png" r:id="rId218"/>
+    <hyperlink ref="C56" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId219"/>
+    <hyperlink ref="E56" display="MultipleDriversSingleSolution.png" r:id="rId220"/>
+    <hyperlink ref="F56" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId221"/>
+    <hyperlink ref="A57" display="creating_a_driver_verification_log.md" r:id="rId222"/>
+    <hyperlink ref="C57" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId223"/>
+    <hyperlink ref="E57" display="creating_a_driver_verification_log.md" r:id="rId224"/>
+    <hyperlink ref="F57" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId225"/>
+    <hyperlink ref="A58" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId226"/>
+    <hyperlink ref="C58" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId227"/>
+    <hyperlink ref="E58" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId228"/>
+    <hyperlink ref="F58" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId229"/>
+    <hyperlink ref="A59" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId230"/>
+    <hyperlink ref="C59" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId231"/>
+    <hyperlink ref="E59" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId232"/>
+    <hyperlink ref="F59" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId233"/>
+    <hyperlink ref="A60" display="creating_a_new_driver.md" r:id="rId234"/>
+    <hyperlink ref="C60" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId235"/>
+    <hyperlink ref="E60" display="creating_a_new_driver.md" r:id="rId236"/>
+    <hyperlink ref="F60" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId237"/>
+    <hyperlink ref="A61" display="creating_a_new_filter_driver.md" r:id="rId238"/>
+    <hyperlink ref="C61" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId239"/>
+    <hyperlink ref="E61" display="creating_a_new_filter_driver.md" r:id="rId240"/>
+    <hyperlink ref="F61" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId241"/>
+    <hyperlink ref="A62" display="creating_a_new_software_driver.md" r:id="rId242"/>
+    <hyperlink ref="C62" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId243"/>
+    <hyperlink ref="E62" display="creating_a_new_software_driver.md" r:id="rId244"/>
+    <hyperlink ref="F62" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId245"/>
+    <hyperlink ref="A63" display="debugging_a_driver.md" r:id="rId246"/>
+    <hyperlink ref="C63" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId247"/>
+    <hyperlink ref="E63" display="debugging_a_driver.md" r:id="rId248"/>
+    <hyperlink ref="F63" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId249"/>
+    <hyperlink ref="A64" display="deploying_a_driver_to_a_test_computer.md" r:id="rId250"/>
+    <hyperlink ref="C64" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId251"/>
+    <hyperlink ref="E64" display="deploying_a_driver_to_a_test_computer.md" r:id="rId252"/>
+    <hyperlink ref="F64" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId253"/>
+    <hyperlink ref="A65" display="deployment_properties_for_driver_projects.md" r:id="rId254"/>
+    <hyperlink ref="C65" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId255"/>
+    <hyperlink ref="E65" display="deployment_properties_for_driver_projects.md" r:id="rId256"/>
+    <hyperlink ref="F65" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId257"/>
+    <hyperlink ref="A66" display="distributing_a_driver_package_win8.md" r:id="rId258"/>
+    <hyperlink ref="C66" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="E66" display="distributing_a_driver_package_win8.md" r:id="rId260"/>
+    <hyperlink ref="F66" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="A67" display="driver_model_convergence.md" r:id="rId262"/>
+    <hyperlink ref="C67" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="E67" display="driver_model_convergence.md" r:id="rId264"/>
+    <hyperlink ref="F67" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="A68" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId266"/>
+    <hyperlink ref="C68" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="E68" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId268"/>
+    <hyperlink ref="F68" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="A69" display="driver_signing_properties.md" r:id="rId270"/>
+    <hyperlink ref="C69" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId271"/>
+    <hyperlink ref="E69" display="driver_signing_properties.md" r:id="rId272"/>
+    <hyperlink ref="F69" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId273"/>
+    <hyperlink ref="A70" display="driver_verifier_properties_for__driver_projects.md" r:id="rId274"/>
+    <hyperlink ref="C70" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId275"/>
+    <hyperlink ref="E70" display="driver_verifier_properties_for__driver_projects.md" r:id="rId276"/>
+    <hyperlink ref="F70" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId277"/>
+    <hyperlink ref="A71" display="getting_started_with_universal_drivers.md" r:id="rId278"/>
+    <hyperlink ref="C71" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="E71" display="getting_started_with_universal_drivers.md" r:id="rId280"/>
+    <hyperlink ref="F71" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="A72" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId282"/>
+    <hyperlink ref="C72" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="E72" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId284"/>
+    <hyperlink ref="F72" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="A73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId286"/>
+    <hyperlink ref="C73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="E73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId288"/>
+    <hyperlink ref="F73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId289"/>
+    <hyperlink ref="A74" display="how_to_write_a_driver_test_.md" r:id="rId290"/>
+    <hyperlink ref="C74" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E74" display="how_to_write_a_driver_test_.md" r:id="rId292"/>
+    <hyperlink ref="F74" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId294"/>
+    <hyperlink ref="C75" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId296"/>
+    <hyperlink ref="F75" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A76" display="installing_a_universal_driver.md" r:id="rId298"/>
+    <hyperlink ref="C76" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E76" display="installing_a_universal_driver.md" r:id="rId300"/>
+    <hyperlink ref="F76" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A77" display="Installing_the_Enterprise_WDK.md" r:id="rId302"/>
+    <hyperlink ref="C77" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E77" display="Installing_the_Enterprise_WDK.md" r:id="rId304"/>
+    <hyperlink ref="F77" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId306"/>
+    <hyperlink ref="C78" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId307"/>
+    <hyperlink ref="E78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId308"/>
+    <hyperlink ref="F78" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId309"/>
+    <hyperlink ref="A79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId310"/>
+    <hyperlink ref="C79" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId311"/>
+    <hyperlink ref="E79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId312"/>
+    <hyperlink ref="F79" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId313"/>
+    <hyperlink ref="A80" display="message_compiler_properties_for_driver_projects.md" r:id="rId314"/>
+    <hyperlink ref="C80" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId315"/>
+    <hyperlink ref="E80" display="message_compiler_properties_for_driver_projects.md" r:id="rId316"/>
+    <hyperlink ref="F80" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId317"/>
+    <hyperlink ref="A81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId318"/>
+    <hyperlink ref="C81" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId319"/>
+    <hyperlink ref="E81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId320"/>
+    <hyperlink ref="F81" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId321"/>
+    <hyperlink ref="A82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId322"/>
+    <hyperlink ref="C82" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId323"/>
+    <hyperlink ref="E82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId324"/>
+    <hyperlink ref="F82" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId325"/>
+    <hyperlink ref="A83" display="read_the_driver_test_results_log.md" r:id="rId326"/>
+    <hyperlink ref="C83" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId327"/>
+    <hyperlink ref="E83" display="read_the_driver_test_results_log.md" r:id="rId328"/>
+    <hyperlink ref="F83" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId329"/>
+    <hyperlink ref="A84" display="ert_test_results.png" r:id="rId330"/>
+    <hyperlink ref="C84" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId331"/>
+    <hyperlink ref="E84" display="ert_test_results.png" r:id="rId332"/>
+    <hyperlink ref="F84" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId333"/>
+    <hyperlink ref="A85" display="README.md" r:id="rId334"/>
+    <hyperlink ref="C85" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId335"/>
+    <hyperlink ref="E85" display="README.md" r:id="rId336"/>
+    <hyperlink ref="F85" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId337"/>
+    <hyperlink ref="A86" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId338"/>
+    <hyperlink ref="C86" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId339"/>
+    <hyperlink ref="E86" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId340"/>
+    <hyperlink ref="F86" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId341"/>
+    <hyperlink ref="A87" display="signing_a_driver.md" r:id="rId342"/>
+    <hyperlink ref="C87" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId343"/>
+    <hyperlink ref="E87" display="signing_a_driver.md" r:id="rId344"/>
+    <hyperlink ref="F87" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId345"/>
+    <hyperlink ref="A88" display="signing_a_driver_during_development_and_testing.md" r:id="rId346"/>
+    <hyperlink ref="C88" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId347"/>
+    <hyperlink ref="E88" display="signing_a_driver_during_development_and_testing.md" r:id="rId348"/>
+    <hyperlink ref="F88" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId349"/>
+    <hyperlink ref="A89" display="SigningADriver01.png" r:id="rId350"/>
+    <hyperlink ref="C89" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId351"/>
+    <hyperlink ref="E89" display="SigningADriver01.png" r:id="rId352"/>
+    <hyperlink ref="F89" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId353"/>
+    <hyperlink ref="A90" display="signing_a_driver_for_public_release.md" r:id="rId354"/>
+    <hyperlink ref="C90" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E90" display="signing_a_driver_for_public_release.md" r:id="rId356"/>
+    <hyperlink ref="F90" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A91" display="stampinf_properties_for_driver_projects.md" r:id="rId358"/>
+    <hyperlink ref="C91" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E91" display="stampinf_properties_for_driver_projects.md" r:id="rId360"/>
+    <hyperlink ref="F91" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A92" display="strategies_for_testing_drivers_during_development.md" r:id="rId362"/>
+    <hyperlink ref="C92" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E92" display="strategies_for_testing_drivers_during_development.md" r:id="rId364"/>
+    <hyperlink ref="F92" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A93" display="test_a_driver_package.md" r:id="rId366"/>
+    <hyperlink ref="C93" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E93" display="test_a_driver_package.md" r:id="rId368"/>
+    <hyperlink ref="F93" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A94" display="testing_a_driver.md" r:id="rId370"/>
+    <hyperlink ref="C94" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId371"/>
+    <hyperlink ref="E94" display="testing_a_driver.md" r:id="rId372"/>
+    <hyperlink ref="F94" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId373"/>
+    <hyperlink ref="A95" display="testing_a_driver_at_runtime.md" r:id="rId374"/>
+    <hyperlink ref="C95" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId375"/>
+    <hyperlink ref="E95" display="testing_a_driver_at_runtime.md" r:id="rId376"/>
+    <hyperlink ref="F95" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId377"/>
+    <hyperlink ref="A96" display="to_add_test_metadata.md" r:id="rId378"/>
+    <hyperlink ref="C96" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId379"/>
+    <hyperlink ref="E96" display="to_add_test_metadata.md" r:id="rId380"/>
+    <hyperlink ref="F96" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId381"/>
+    <hyperlink ref="A97" display="TOC.md" r:id="rId382"/>
+    <hyperlink ref="C97" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId383"/>
+    <hyperlink ref="E97" display="TOC.md" r:id="rId384"/>
+    <hyperlink ref="F97" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId385"/>
+    <hyperlink ref="A98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId386"/>
+    <hyperlink ref="C98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId387"/>
+    <hyperlink ref="E98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId388"/>
+    <hyperlink ref="F98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId389"/>
+    <hyperlink ref="A99" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId390"/>
+    <hyperlink ref="C99" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId391"/>
+    <hyperlink ref="E99" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId392"/>
+    <hyperlink ref="F99" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId393"/>
+    <hyperlink ref="A100" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId394"/>
+    <hyperlink ref="C100" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId395"/>
+    <hyperlink ref="E100" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId396"/>
+    <hyperlink ref="F100" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId397"/>
+    <hyperlink ref="A101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId398"/>
+    <hyperlink ref="C101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId399"/>
+    <hyperlink ref="E101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId400"/>
+    <hyperlink ref="F101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId401"/>
+    <hyperlink ref="A102" display="validating_universal_drivers.md" r:id="rId402"/>
+    <hyperlink ref="C102" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId403"/>
+    <hyperlink ref="E102" display="validating_universal_drivers.md" r:id="rId404"/>
+    <hyperlink ref="F102" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId405"/>
+    <hyperlink ref="A103" display="visual_studio_driver_development_environment.md" r:id="rId406"/>
+    <hyperlink ref="C103" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId407"/>
+    <hyperlink ref="E103" display="visual_studio_driver_development_environment.md" r:id="rId408"/>
+    <hyperlink ref="F103" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId409"/>
+    <hyperlink ref="A104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId410"/>
+    <hyperlink ref="C104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId411"/>
+    <hyperlink ref="E104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId412"/>
+    <hyperlink ref="F104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId413"/>
+    <hyperlink ref="A105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId414"/>
+    <hyperlink ref="C105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId415"/>
+    <hyperlink ref="E105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId416"/>
+    <hyperlink ref="F105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId417"/>
+    <hyperlink ref="A106" display="windows_10_editions_for_universal_drivers.md" r:id="rId418"/>
+    <hyperlink ref="C106" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId419"/>
+    <hyperlink ref="E106" display="windows_10_editions_for_universal_drivers.md" r:id="rId420"/>
+    <hyperlink ref="F106" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId421"/>
+    <hyperlink ref="A107" display="TargetPlatform.png" r:id="rId422"/>
+    <hyperlink ref="C107" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId423"/>
+    <hyperlink ref="E107" display="TargetPlatform.png" r:id="rId424"/>
+    <hyperlink ref="F107" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId425"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -5512,25 +5500,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>123</v>
@@ -5541,22 +5529,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -5564,25 +5552,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -5590,28 +5578,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -5619,10 +5607,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>237</v>
@@ -5631,13 +5619,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -5645,25 +5633,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -5671,25 +5659,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -5697,25 +5685,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -5723,25 +5711,25 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
@@ -5749,25 +5737,25 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -5775,13 +5763,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -5790,7 +5778,7 @@
         <v>240</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -5801,13 +5789,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -5816,7 +5804,7 @@
         <v>241</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -5827,13 +5815,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -5842,7 +5830,7 @@
         <v>242</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -5853,10 +5841,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>237</v>
@@ -5865,13 +5853,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -5879,22 +5867,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -5905,25 +5893,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -5931,22 +5919,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -5957,22 +5945,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>123</v>
@@ -5983,22 +5971,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>123</v>
@@ -6009,22 +5997,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>123</v>
@@ -6035,25 +6023,25 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -6061,25 +6049,25 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -6087,25 +6075,25 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
@@ -6113,25 +6101,25 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -6139,10 +6127,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>237</v>
@@ -6151,13 +6139,13 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -6165,10 +6153,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>237</v>
@@ -6177,13 +6165,13 @@
         <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -6191,25 +6179,25 @@
         <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
@@ -6217,25 +6205,25 @@
         <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -6243,25 +6231,25 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
@@ -6269,25 +6257,25 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
@@ -6295,22 +6283,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>123</v>
@@ -6321,22 +6309,22 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>123</v>
@@ -6347,22 +6335,22 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>123</v>
@@ -6373,22 +6361,22 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>123</v>
@@ -6399,22 +6387,22 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>123</v>
@@ -6425,22 +6413,22 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>123</v>
@@ -6448,25 +6436,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>123</v>
@@ -6474,25 +6462,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>123</v>
@@ -6504,154 +6492,154 @@
     <hyperlink ref="C2" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="Welcome.md" r:id="rId4"/>
     <hyperlink ref="F2" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="readme.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="readme.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId14"/>
-    <hyperlink ref="C5" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId15"/>
-    <hyperlink ref="E5" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId16"/>
-    <hyperlink ref="F5" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId17"/>
-    <hyperlink ref="A6" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId22"/>
-    <hyperlink ref="C7" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId23"/>
-    <hyperlink ref="E7" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId24"/>
-    <hyperlink ref="F7" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId26"/>
-    <hyperlink ref="C8" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId27"/>
-    <hyperlink ref="E8" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId28"/>
-    <hyperlink ref="F8" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId30"/>
-    <hyperlink ref="C9" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId31"/>
-    <hyperlink ref="E9" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId32"/>
-    <hyperlink ref="F9" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId33"/>
-    <hyperlink ref="A10" display="test.md" r:id="rId34"/>
-    <hyperlink ref="C10" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="E10" display="test.md" r:id="rId36"/>
-    <hyperlink ref="F10" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="JasGro-home.md" r:id="rId38"/>
-    <hyperlink ref="C11" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="E11" display="JasGro-home.md" r:id="rId40"/>
-    <hyperlink ref="F11" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test2.md" r:id="rId42"/>
-    <hyperlink ref="C12" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="E12" display="test2.md" r:id="rId44"/>
-    <hyperlink ref="F12" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="table_creation_tools.md" r:id="rId46"/>
-    <hyperlink ref="C13" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId47"/>
-    <hyperlink ref="E13" display="table_creation_tools.md" r:id="rId48"/>
-    <hyperlink ref="F13" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId50"/>
-    <hyperlink ref="C14" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId51"/>
-    <hyperlink ref="E14" display="test1.md" r:id="rId52"/>
-    <hyperlink ref="F14" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="pigeon.png" r:id="rId54"/>
-    <hyperlink ref="C15" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId55"/>
-    <hyperlink ref="E15" display="pigeon.png" r:id="rId56"/>
-    <hyperlink ref="F15" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId57"/>
-    <hyperlink ref="A16" display="tools-for-beginners.md" r:id="rId58"/>
-    <hyperlink ref="C16" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId59"/>
-    <hyperlink ref="E16" display="tools-for-beginners.md" r:id="rId60"/>
-    <hyperlink ref="F16" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="HelloWorld.md" r:id="rId62"/>
-    <hyperlink ref="C17" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId63"/>
-    <hyperlink ref="E17" display="HelloWorld.md" r:id="rId64"/>
-    <hyperlink ref="F17" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="HelloWorld2.md" r:id="rId66"/>
-    <hyperlink ref="C18" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId67"/>
-    <hyperlink ref="E18" display="HelloWorld.md" r:id="rId68"/>
-    <hyperlink ref="F18" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="HelloWorld3.md" r:id="rId70"/>
+    <hyperlink ref="A3" display="account-types-locations-and-fees.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="account-types-locations-and-fees.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="enable-your-device-for-development.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="enable-your-device-for-development.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="readme.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="readme.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId22"/>
+    <hyperlink ref="C7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId23"/>
+    <hyperlink ref="E7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId24"/>
+    <hyperlink ref="F7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId26"/>
+    <hyperlink ref="C8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId27"/>
+    <hyperlink ref="E8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId28"/>
+    <hyperlink ref="F8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId29"/>
+    <hyperlink ref="A9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId30"/>
+    <hyperlink ref="C9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId31"/>
+    <hyperlink ref="E9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId32"/>
+    <hyperlink ref="F9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId33"/>
+    <hyperlink ref="A10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId34"/>
+    <hyperlink ref="C10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId35"/>
+    <hyperlink ref="E10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId36"/>
+    <hyperlink ref="F10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId37"/>
+    <hyperlink ref="A11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId38"/>
+    <hyperlink ref="C11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId39"/>
+    <hyperlink ref="E11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId40"/>
+    <hyperlink ref="F11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId41"/>
+    <hyperlink ref="A12" display="test.md" r:id="rId42"/>
+    <hyperlink ref="C12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="E12" display="test.md" r:id="rId44"/>
+    <hyperlink ref="F12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="JasGro-home.md" r:id="rId46"/>
+    <hyperlink ref="C13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId47"/>
+    <hyperlink ref="E13" display="JasGro-home.md" r:id="rId48"/>
+    <hyperlink ref="F13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId50"/>
+    <hyperlink ref="C14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="E14" display="test2.md" r:id="rId52"/>
+    <hyperlink ref="F14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="table_creation_tools.md" r:id="rId54"/>
+    <hyperlink ref="C15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId55"/>
+    <hyperlink ref="E15" display="table_creation_tools.md" r:id="rId56"/>
+    <hyperlink ref="F15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="test1.md" r:id="rId58"/>
+    <hyperlink ref="C16" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId59"/>
+    <hyperlink ref="E16" display="test1.md" r:id="rId60"/>
+    <hyperlink ref="F16" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="pigeon.png" r:id="rId62"/>
+    <hyperlink ref="C17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId63"/>
+    <hyperlink ref="E17" display="pigeon.png" r:id="rId64"/>
+    <hyperlink ref="F17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="tools-for-beginners.md" r:id="rId66"/>
+    <hyperlink ref="C18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId67"/>
+    <hyperlink ref="E18" display="tools-for-beginners.md" r:id="rId68"/>
+    <hyperlink ref="F18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="HelloWorld.md" r:id="rId70"/>
     <hyperlink ref="C19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId71"/>
     <hyperlink ref="E19" display="HelloWorld.md" r:id="rId72"/>
     <hyperlink ref="F19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="HelloWorld4.md" r:id="rId74"/>
+    <hyperlink ref="A20" display="HelloWorld2.md" r:id="rId74"/>
     <hyperlink ref="C20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId75"/>
     <hyperlink ref="E20" display="HelloWorld.md" r:id="rId76"/>
     <hyperlink ref="F20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="HelloWorld5.md" r:id="rId78"/>
+    <hyperlink ref="A21" display="HelloWorld3.md" r:id="rId78"/>
     <hyperlink ref="C21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId79"/>
     <hyperlink ref="E21" display="HelloWorld.md" r:id="rId80"/>
     <hyperlink ref="F21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="github-logo.png" r:id="rId82"/>
-    <hyperlink ref="C22" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId83"/>
-    <hyperlink ref="E22" display="github-logo.png" r:id="rId84"/>
-    <hyperlink ref="F22" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId85"/>
-    <hyperlink ref="A23" display="markdown-logo.png" r:id="rId86"/>
-    <hyperlink ref="C23" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId87"/>
-    <hyperlink ref="E23" display="markdown-logo.png" r:id="rId88"/>
-    <hyperlink ref="F23" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId89"/>
-    <hyperlink ref="A24" display="available_policies.md" r:id="rId90"/>
-    <hyperlink ref="C24" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId91"/>
-    <hyperlink ref="E24" display="available_policies.md" r:id="rId92"/>
-    <hyperlink ref="F24" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="emie_to_improve_compatibility.md" r:id="rId94"/>
-    <hyperlink ref="C25" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId95"/>
-    <hyperlink ref="E25" display="emie_to_improve_compatibility.md" r:id="rId96"/>
-    <hyperlink ref="F25" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="EmIEOpeninIE.png" r:id="rId98"/>
-    <hyperlink ref="C26" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId99"/>
-    <hyperlink ref="E26" display="EmIEOpeninIE.png" r:id="rId100"/>
-    <hyperlink ref="F26" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId102"/>
-    <hyperlink ref="C27" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId103"/>
-    <hyperlink ref="E27" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId104"/>
-    <hyperlink ref="F27" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId105"/>
-    <hyperlink ref="A28" display="Edge_EmIE_RegistrySiteList.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="Edge_EmIE_RegistrySiteList.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="SendintranettoIE.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="SendintranettoIE.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="hardware_and_software_requirements.md" r:id="rId114"/>
-    <hyperlink ref="C30" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId115"/>
-    <hyperlink ref="E30" display="hardware_and_software_requirements.md" r:id="rId116"/>
-    <hyperlink ref="F30" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="msedge_deployment_guide_for_it_pros.md" r:id="rId118"/>
-    <hyperlink ref="C31" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId119"/>
-    <hyperlink ref="E31" display="msedge_deployment_guide_for_it_pros.md" r:id="rId120"/>
-    <hyperlink ref="F31" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="macapara.md" r:id="rId122"/>
-    <hyperlink ref="C32" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId123"/>
-    <hyperlink ref="E32" display="macapara.md" r:id="rId124"/>
-    <hyperlink ref="F32" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="markdown-tips.md" r:id="rId126"/>
-    <hyperlink ref="C33" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId127"/>
-    <hyperlink ref="E33" display="markdown-tips.md" r:id="rId128"/>
-    <hyperlink ref="F33" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="tedhudek-home.md" r:id="rId130"/>
-    <hyperlink ref="C34" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId131"/>
-    <hyperlink ref="E34" display="tedhudek-home.md" r:id="rId132"/>
-    <hyperlink ref="F34" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="wdcml-to-open-publish.md" r:id="rId134"/>
-    <hyperlink ref="C35" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId135"/>
-    <hyperlink ref="E35" display="wdcml-to-open-publish.md" r:id="rId136"/>
-    <hyperlink ref="F35" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="workflow.md" r:id="rId138"/>
-    <hyperlink ref="C36" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId139"/>
-    <hyperlink ref="E36" display="workflow.md" r:id="rId140"/>
-    <hyperlink ref="F36" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="TOC.md" r:id="rId142"/>
-    <hyperlink ref="C37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId143"/>
-    <hyperlink ref="E37" display="TOC.md" r:id="rId144"/>
-    <hyperlink ref="F37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="account-types-locations-and-fees.md" r:id="rId146"/>
-    <hyperlink ref="C38" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId147"/>
-    <hyperlink ref="E38" display="account-types-locations-and-fees.md" r:id="rId148"/>
-    <hyperlink ref="F38" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="enable-your-device-for-development.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="enable-your-device-for-development.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId153"/>
+    <hyperlink ref="A22" display="HelloWorld4.md" r:id="rId82"/>
+    <hyperlink ref="C22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId83"/>
+    <hyperlink ref="E22" display="HelloWorld.md" r:id="rId84"/>
+    <hyperlink ref="F22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="HelloWorld5.md" r:id="rId86"/>
+    <hyperlink ref="C23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId87"/>
+    <hyperlink ref="E23" display="HelloWorld.md" r:id="rId88"/>
+    <hyperlink ref="F23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="github-logo.png" r:id="rId90"/>
+    <hyperlink ref="C24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId91"/>
+    <hyperlink ref="E24" display="github-logo.png" r:id="rId92"/>
+    <hyperlink ref="F24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId93"/>
+    <hyperlink ref="A25" display="markdown-logo.png" r:id="rId94"/>
+    <hyperlink ref="C25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId95"/>
+    <hyperlink ref="E25" display="markdown-logo.png" r:id="rId96"/>
+    <hyperlink ref="F25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId97"/>
+    <hyperlink ref="A26" display="available_policies.md" r:id="rId98"/>
+    <hyperlink ref="C26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="E26" display="available_policies.md" r:id="rId100"/>
+    <hyperlink ref="F26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="emie_to_improve_compatibility.md" r:id="rId102"/>
+    <hyperlink ref="C27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId103"/>
+    <hyperlink ref="E27" display="emie_to_improve_compatibility.md" r:id="rId104"/>
+    <hyperlink ref="F27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="EmIEOpeninIE.png" r:id="rId106"/>
+    <hyperlink ref="C28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId107"/>
+    <hyperlink ref="E28" display="EmIEOpeninIE.png" r:id="rId108"/>
+    <hyperlink ref="F28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId109"/>
+    <hyperlink ref="A29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId110"/>
+    <hyperlink ref="C29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId111"/>
+    <hyperlink ref="E29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId112"/>
+    <hyperlink ref="F29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId113"/>
+    <hyperlink ref="A30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId114"/>
+    <hyperlink ref="C30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId115"/>
+    <hyperlink ref="E30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId116"/>
+    <hyperlink ref="F30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId117"/>
+    <hyperlink ref="A31" display="SendintranettoIE.png" r:id="rId118"/>
+    <hyperlink ref="C31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId119"/>
+    <hyperlink ref="E31" display="SendintranettoIE.png" r:id="rId120"/>
+    <hyperlink ref="F31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId121"/>
+    <hyperlink ref="A32" display="hardware_and_software_requirements.md" r:id="rId122"/>
+    <hyperlink ref="C32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId123"/>
+    <hyperlink ref="E32" display="hardware_and_software_requirements.md" r:id="rId124"/>
+    <hyperlink ref="F32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId126"/>
+    <hyperlink ref="C33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId127"/>
+    <hyperlink ref="E33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId128"/>
+    <hyperlink ref="F33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="macapara.md" r:id="rId130"/>
+    <hyperlink ref="C34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId131"/>
+    <hyperlink ref="E34" display="macapara.md" r:id="rId132"/>
+    <hyperlink ref="F34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="markdown-tips.md" r:id="rId134"/>
+    <hyperlink ref="C35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId135"/>
+    <hyperlink ref="E35" display="markdown-tips.md" r:id="rId136"/>
+    <hyperlink ref="F35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="tedhudek-home.md" r:id="rId138"/>
+    <hyperlink ref="C36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId139"/>
+    <hyperlink ref="E36" display="tedhudek-home.md" r:id="rId140"/>
+    <hyperlink ref="F36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="wdcml-to-open-publish.md" r:id="rId142"/>
+    <hyperlink ref="C37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId143"/>
+    <hyperlink ref="E37" display="wdcml-to-open-publish.md" r:id="rId144"/>
+    <hyperlink ref="F37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="workflow.md" r:id="rId146"/>
+    <hyperlink ref="C38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId147"/>
+    <hyperlink ref="E38" display="workflow.md" r:id="rId148"/>
+    <hyperlink ref="F38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="TOC.md" r:id="rId150"/>
+    <hyperlink ref="C39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId151"/>
+    <hyperlink ref="E39" display="TOC.md" r:id="rId152"/>
+    <hyperlink ref="F39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId153"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -383,7 +383,7 @@
     <t>2016-01-08 20:35:16</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:27</t>
+    <t>2016-02-22 08:58:14</t>
   </si>
   <si>
     <t>Include</t>
@@ -710,7 +710,7 @@
     <t>2016-01-05 08:46:04</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:37</t>
+    <t>2016-02-22 08:58:24</t>
   </si>
   <si>
     <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -6,24 +6,32 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
-    <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
+    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>it-it</t>
+  </si>
+  <si>
     <t>zh-cn</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>testhtml.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>N\A</t>
   </si>
   <si>
     <t>test-xliff-2.md</t>
@@ -32,9 +40,6 @@
     <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
-    <t>N\A</t>
-  </si>
-  <si>
     <t>account-types-locations-and-fees.md</t>
   </si>
   <si>
@@ -44,9 +49,6 @@
     <t>readme.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>Directions_To_Update_Existing_Topic_Using_Browser.md</t>
   </si>
   <si>
@@ -377,6 +379,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>testhtml.a5059cd2abaa4519b328ce39518d5ebfcd6b4fc0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 17:10:27</t>
+  </si>
+  <si>
+    <t>2016-03-04 17:37:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf</t>
   </si>
   <si>
@@ -386,9 +400,6 @@
     <t>2016-02-22 08:58:14</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.zh-cn.xlf</t>
   </si>
   <si>
@@ -702,90 +713,6 @@
   </si>
   <si>
     <t>3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png</t>
-  </si>
-  <si>
-    <t>Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 08:46:04</t>
-  </si>
-  <si>
-    <t>2016-02-22 08:58:24</t>
-  </si>
-  <si>
-    <t>account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-03 03:40:37</t>
-  </si>
-  <si>
-    <t>2016-02-13 04:24:40</t>
-  </si>
-  <si>
-    <t>enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf</t>
-  </si>
-  <si>
-    <t>readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-12-29 08:45:52</t>
-  </si>
-  <si>
-    <t>Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 12:47:18</t>
-  </si>
-  <si>
-    <t>test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf</t>
-  </si>
-  <si>
-    <t>JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf</t>
-  </si>
-  <si>
-    <t>tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf</t>
-  </si>
-  <si>
-    <t>available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf</t>
-  </si>
-  <si>
-    <t>emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf</t>
-  </si>
-  <si>
-    <t>markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf</t>
-  </si>
-  <si>
-    <t>wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -842,7 +769,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -860,7 +787,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -878,29 +805,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Correspond Handoff File"/>
-    <tableColumn id="4" name="Correspond Handoff Datetime"/>
-    <tableColumn id="5" name="Target File"/>
-    <tableColumn id="6" name="Correspond Handback File"/>
-    <tableColumn id="7" name="Correspond Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
-    <tableColumn id="3" name="de-de"/>
+    <tableColumn id="2" name="it-it"/>
+    <tableColumn id="3" name="zh-cn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -908,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,32 +855,32 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -979,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -990,10 +899,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1001,10 +910,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1012,10 +921,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +932,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1034,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1045,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1056,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1067,10 +976,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1078,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1089,10 +998,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1100,10 +1009,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1111,10 +1020,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1122,10 +1031,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1133,10 +1042,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1144,10 +1053,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1155,10 +1064,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1166,10 +1075,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1177,10 +1086,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1188,10 +1097,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1199,10 +1108,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1210,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1221,10 +1130,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1232,10 +1141,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1243,10 +1152,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1254,10 +1163,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1265,10 +1174,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1276,10 +1185,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1287,10 +1196,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1298,10 +1207,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1309,10 +1218,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1320,10 +1229,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1331,10 +1240,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1342,10 +1251,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1353,7 +1262,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>4</v>
@@ -1364,10 +1273,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1375,10 +1284,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1386,10 +1295,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1397,10 +1306,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1317,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1419,10 +1328,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1430,10 +1339,10 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1441,10 +1350,10 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1452,10 +1361,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1463,10 +1372,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1474,10 +1383,10 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1485,10 +1394,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1496,10 +1405,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1507,10 +1416,10 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1518,10 +1427,10 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1529,10 +1438,10 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1540,10 +1449,10 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1551,10 +1460,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1562,10 +1471,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1573,10 +1482,10 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -1584,10 +1493,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1595,10 +1504,10 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -1606,10 +1515,10 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1617,10 +1526,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1628,10 +1537,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1639,10 +1548,10 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -1650,10 +1559,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -1661,10 +1570,10 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -1672,10 +1581,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1683,10 +1592,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1694,10 +1603,10 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -1705,10 +1614,10 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -1716,10 +1625,10 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1727,10 +1636,10 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -1738,10 +1647,10 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1749,10 +1658,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -1760,10 +1669,10 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1771,10 +1680,10 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -1782,10 +1691,10 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -1793,10 +1702,10 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -1804,10 +1713,10 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1815,10 +1724,10 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1826,10 +1735,10 @@
         <v>87</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -1837,10 +1746,10 @@
         <v>88</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -1848,10 +1757,10 @@
         <v>89</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1859,10 +1768,10 @@
         <v>90</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1870,10 +1779,10 @@
         <v>91</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -1881,10 +1790,10 @@
         <v>92</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -1892,10 +1801,10 @@
         <v>93</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -1903,10 +1812,10 @@
         <v>94</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -1914,10 +1823,10 @@
         <v>95</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -1925,10 +1834,10 @@
         <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -1936,10 +1845,10 @@
         <v>97</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -1947,10 +1856,10 @@
         <v>98</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -1958,10 +1867,10 @@
         <v>99</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -1969,32 +1878,32 @@
         <v>100</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -2002,10 +1911,10 @@
         <v>102</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -2013,10 +1922,10 @@
         <v>103</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -2024,10 +1933,10 @@
         <v>104</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2035,10 +1944,10 @@
         <v>105</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -2046,10 +1955,10 @@
         <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -2057,10 +1966,10 @@
         <v>107</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -2068,10 +1977,10 @@
         <v>108</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -2079,10 +1988,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -2090,120 +1999,132 @@
         <v>110</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-xliff-2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="account-types-locations-and-fees.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="enable-your-device-for-development.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="readme.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId9"/>
-    <hyperlink ref="A10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId11"/>
-    <hyperlink ref="A12" display="test.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="JasGro-home.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="table_creation_tools.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="test1.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="pigeon.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="tools-for-beginners.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="HelloWorld.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="HelloWorld2.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="HelloWorld3.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="HelloWorld4.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="HelloWorld5.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="github-logo.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="markdown-logo.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="available_policies.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="emie_to_improve_compatibility.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="EmIEOpeninIE.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="SendintranettoIE.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="hardware_and_software_requirements.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="macapara.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="markdown-tips.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="tedhudek-home.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="wdcml-to-open-publish.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="workflow.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="TOC.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="Welcome.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="attestation_driver_signing_submission_dashboard.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="b_wes_driversigning_v2.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="building_a_driver.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="building_drivers_for_different_versions_of_windows.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="create_a_custom_driver_installation_script.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="creating_a_device_metadata_package.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="creating_a_driver_from_existing_source_files.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="creating_a_driver_package.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="VsSlnExplorer.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="VsDrvrPkgProps.png" r:id="rId55"/>
-    <hyperlink ref="A56" display="MultipleDriversSingleSolution.png" r:id="rId56"/>
-    <hyperlink ref="A57" display="creating_a_driver_verification_log.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId59"/>
-    <hyperlink ref="A60" display="creating_a_new_driver.md" r:id="rId60"/>
-    <hyperlink ref="A61" display="creating_a_new_filter_driver.md" r:id="rId61"/>
-    <hyperlink ref="A62" display="creating_a_new_software_driver.md" r:id="rId62"/>
-    <hyperlink ref="A63" display="debugging_a_driver.md" r:id="rId63"/>
-    <hyperlink ref="A64" display="deploying_a_driver_to_a_test_computer.md" r:id="rId64"/>
-    <hyperlink ref="A65" display="deployment_properties_for_driver_projects.md" r:id="rId65"/>
-    <hyperlink ref="A66" display="distributing_a_driver_package_win8.md" r:id="rId66"/>
-    <hyperlink ref="A67" display="driver_model_convergence.md" r:id="rId67"/>
-    <hyperlink ref="A68" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId68"/>
-    <hyperlink ref="A69" display="driver_signing_properties.md" r:id="rId69"/>
-    <hyperlink ref="A70" display="driver_verifier_properties_for__driver_projects.md" r:id="rId70"/>
-    <hyperlink ref="A71" display="getting_started_with_universal_drivers.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="how_to_write_a_driver_test_.md" r:id="rId74"/>
-    <hyperlink ref="A75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId75"/>
-    <hyperlink ref="A76" display="installing_a_universal_driver.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="Installing_the_Enterprise_WDK.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="message_compiler_properties_for_driver_projects.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="read_the_driver_test_results_log.md" r:id="rId83"/>
-    <hyperlink ref="A84" display="ert_test_results.png" r:id="rId84"/>
-    <hyperlink ref="A85" display="README.md" r:id="rId85"/>
-    <hyperlink ref="A86" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId86"/>
-    <hyperlink ref="A87" display="signing_a_driver.md" r:id="rId87"/>
-    <hyperlink ref="A88" display="signing_a_driver_during_development_and_testing.md" r:id="rId88"/>
-    <hyperlink ref="A89" display="SigningADriver01.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="signing_a_driver_for_public_release.md" r:id="rId90"/>
-    <hyperlink ref="A91" display="stampinf_properties_for_driver_projects.md" r:id="rId91"/>
-    <hyperlink ref="A92" display="strategies_for_testing_drivers_during_development.md" r:id="rId92"/>
-    <hyperlink ref="A93" display="test_a_driver_package.md" r:id="rId93"/>
-    <hyperlink ref="A94" display="testing_a_driver.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="testing_a_driver_at_runtime.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="to_add_test_metadata.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="TOC.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="validating_universal_drivers.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="visual_studio_driver_development_environment.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId104"/>
-    <hyperlink ref="A105" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId105"/>
-    <hyperlink ref="A106" display="windows_10_editions_for_universal_drivers.md" r:id="rId106"/>
-    <hyperlink ref="A107" display="TargetPlatform.png" r:id="rId107"/>
+    <hyperlink ref="A2" display="testhtml.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="test-xliff-2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="account-types-locations-and-fees.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="enable-your-device-for-development.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="readme.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId8"/>
+    <hyperlink ref="A9" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId9"/>
+    <hyperlink ref="A10" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId10"/>
+    <hyperlink ref="A11" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId11"/>
+    <hyperlink ref="A12" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId12"/>
+    <hyperlink ref="A13" display="test.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="JasGro-home.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="test2.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="table_creation_tools.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="test1.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="pigeon.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="tools-for-beginners.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="HelloWorld.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="HelloWorld2.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="HelloWorld3.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="HelloWorld4.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="HelloWorld5.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="github-logo.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="markdown-logo.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="available_policies.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="emie_to_improve_compatibility.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="EmIEOpeninIE.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="Edge_EmIE_RegistrySiteList.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="SendintranettoIE.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="hardware_and_software_requirements.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="msedge_deployment_guide_for_it_pros.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="macapara.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="markdown-tips.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="tedhudek-home.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="wdcml-to-open-publish.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="workflow.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="TOC.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="Welcome.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="attestation_driver_signing_submission_dashboard.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="b_wes_driversigning_v2.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="building_a_driver.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="building_drivers_for_different_versions_of_windows.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="create_a_custom_driver_installation_script.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="creating_a_device_metadata_package.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="creating_a_driver_from_existing_source_files.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="creating_a_driver_package.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="VsSlnExplorer.png" r:id="rId55"/>
+    <hyperlink ref="A56" display="VsDrvrPkgProps.png" r:id="rId56"/>
+    <hyperlink ref="A57" display="MultipleDriversSingleSolution.png" r:id="rId57"/>
+    <hyperlink ref="A58" display="creating_a_driver_verification_log.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="creating_a_new_driver.md" r:id="rId61"/>
+    <hyperlink ref="A62" display="creating_a_new_filter_driver.md" r:id="rId62"/>
+    <hyperlink ref="A63" display="creating_a_new_software_driver.md" r:id="rId63"/>
+    <hyperlink ref="A64" display="debugging_a_driver.md" r:id="rId64"/>
+    <hyperlink ref="A65" display="deploying_a_driver_to_a_test_computer.md" r:id="rId65"/>
+    <hyperlink ref="A66" display="deployment_properties_for_driver_projects.md" r:id="rId66"/>
+    <hyperlink ref="A67" display="distributing_a_driver_package_win8.md" r:id="rId67"/>
+    <hyperlink ref="A68" display="driver_model_convergence.md" r:id="rId68"/>
+    <hyperlink ref="A69" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId69"/>
+    <hyperlink ref="A70" display="driver_signing_properties.md" r:id="rId70"/>
+    <hyperlink ref="A71" display="driver_verifier_properties_for__driver_projects.md" r:id="rId71"/>
+    <hyperlink ref="A72" display="getting_started_with_universal_drivers.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="how_to_write_a_driver_test_.md" r:id="rId75"/>
+    <hyperlink ref="A76" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId76"/>
+    <hyperlink ref="A77" display="installing_a_universal_driver.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="Installing_the_Enterprise_WDK.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="message_compiler_properties_for_driver_projects.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="mof_compiler_properties_for_driver_projects.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="read_the_driver_test_results_log.md" r:id="rId84"/>
+    <hyperlink ref="A85" display="ert_test_results.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="README.md" r:id="rId86"/>
+    <hyperlink ref="A87" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId87"/>
+    <hyperlink ref="A88" display="signing_a_driver.md" r:id="rId88"/>
+    <hyperlink ref="A89" display="signing_a_driver_during_development_and_testing.md" r:id="rId89"/>
+    <hyperlink ref="A90" display="SigningADriver01.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="signing_a_driver_for_public_release.md" r:id="rId91"/>
+    <hyperlink ref="A92" display="stampinf_properties_for_driver_projects.md" r:id="rId92"/>
+    <hyperlink ref="A93" display="strategies_for_testing_drivers_during_development.md" r:id="rId93"/>
+    <hyperlink ref="A94" display="test_a_driver_package.md" r:id="rId94"/>
+    <hyperlink ref="A95" display="testing_a_driver.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="testing_a_driver_at_runtime.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="to_add_test_metadata.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="TOC.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="validating_universal_drivers.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="visual_studio_driver_development_environment.md" r:id="rId104"/>
+    <hyperlink ref="A105" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId105"/>
+    <hyperlink ref="A106" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId106"/>
+    <hyperlink ref="A107" display="windows_10_editions_for_universal_drivers.md" r:id="rId107"/>
+    <hyperlink ref="A108" display="TargetPlatform.png" r:id="rId108"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2213,6 +2134,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="testhtml.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="testhtml.a5059cd2abaa4519b328ce39518d5ebfcd6b4fc0.it-it.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="testhtml.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="testhtml.a5059cd2abaa4519b328ce39518d5ebfcd6b4fc0.it-it.xlf" r:id="rId5"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I107"/>
   <sheetViews>
@@ -2233,2787 +2242,2787 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5448,1258 +5457,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="Welcome.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="Welcome.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="account-types-locations-and-fees.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="account-types-locations-and-fees.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="account-types-locations-and-fees.206483d37e2cea3de35a893b6c5c4f041d2ea97b.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="enable-your-device-for-development.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="enable-your-device-for-development.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="enable-your-device-for-development.19b66aafca4f72280d15c2a09d13299c5f0df9ca.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="readme.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="readme.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="readme.af6253305c53dd1b0aae6b09cb2e883c85e0a5f1.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="E6" display="Directions_To_Update_Existing_Topic_Using_Browser.md" r:id="rId20"/>
-    <hyperlink ref="F6" display="Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId22"/>
-    <hyperlink ref="C7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId23"/>
-    <hyperlink ref="E7" display="Browser_Edit_Button_Screen_Shot.png" r:id="rId24"/>
-    <hyperlink ref="F7" display="36f650b486398eec8dda23bcce6de967a49b8425.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId26"/>
-    <hyperlink ref="C8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId27"/>
-    <hyperlink ref="E8" display="Browser_Commit_Changes_Screen_Shot.png" r:id="rId28"/>
-    <hyperlink ref="F8" display="044a112ca2e00f71a2a8d04b2e9aa8bd2628f5ed.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId30"/>
-    <hyperlink ref="C9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId31"/>
-    <hyperlink ref="E9" display="Browser_Pull_Request_Screen_Shot.png" r:id="rId32"/>
-    <hyperlink ref="F9" display="61d96a22a5f72b0e5f41de91f1ec3320f0f9888e.png" r:id="rId33"/>
-    <hyperlink ref="A10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId34"/>
-    <hyperlink ref="C10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId35"/>
-    <hyperlink ref="E10" display="Browser_New_Pull_Request_Screen_Shot.png" r:id="rId36"/>
-    <hyperlink ref="F10" display="f43cbe8759da606676de094fd0024cb7c86551ec.png" r:id="rId37"/>
-    <hyperlink ref="A11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId38"/>
-    <hyperlink ref="C11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId39"/>
-    <hyperlink ref="E11" display="Browser_Comparing_Changes_Screen_Shot.png" r:id="rId40"/>
-    <hyperlink ref="F11" display="3dcb3c57b957dd388a5115f830f1c1cb2cf6936e.png" r:id="rId41"/>
-    <hyperlink ref="A12" display="test.md" r:id="rId42"/>
-    <hyperlink ref="C12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="E12" display="test.md" r:id="rId44"/>
-    <hyperlink ref="F12" display="test.32f64f5d1fb6a6d1c28f2fdcde27666d5ae6d241.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="JasGro-home.md" r:id="rId46"/>
-    <hyperlink ref="C13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId47"/>
-    <hyperlink ref="E13" display="JasGro-home.md" r:id="rId48"/>
-    <hyperlink ref="F13" display="JasGro-home.ba84114f220b838b887e90f9f4cd08731827ca7e.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="test2.md" r:id="rId50"/>
-    <hyperlink ref="C14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId51"/>
-    <hyperlink ref="E14" display="test2.md" r:id="rId52"/>
-    <hyperlink ref="F14" display="test2.07a4be2c106a040b3bdba866b593683135789f3f.de-de.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="table_creation_tools.md" r:id="rId54"/>
-    <hyperlink ref="C15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId55"/>
-    <hyperlink ref="E15" display="table_creation_tools.md" r:id="rId56"/>
-    <hyperlink ref="F15" display="table_creation_tools.5ac47164b84c765dfffb92438e12fbe35019767e.de-de.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="test1.md" r:id="rId58"/>
-    <hyperlink ref="C16" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId59"/>
-    <hyperlink ref="E16" display="test1.md" r:id="rId60"/>
-    <hyperlink ref="F16" display="test1.7f0f552458431654d6ec10125262b97426875375.de-de.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="pigeon.png" r:id="rId62"/>
-    <hyperlink ref="C17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId63"/>
-    <hyperlink ref="E17" display="pigeon.png" r:id="rId64"/>
-    <hyperlink ref="F17" display="51b695b5f279ee59c19fa59c6b5b4b9ed521ef8e.png" r:id="rId65"/>
-    <hyperlink ref="A18" display="tools-for-beginners.md" r:id="rId66"/>
-    <hyperlink ref="C18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId67"/>
-    <hyperlink ref="E18" display="tools-for-beginners.md" r:id="rId68"/>
-    <hyperlink ref="F18" display="tools-for-beginners.c71176847e2ebf0c8813ff5acbcc8f660f8adee2.de-de.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="HelloWorld.md" r:id="rId70"/>
-    <hyperlink ref="C19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId71"/>
-    <hyperlink ref="E19" display="HelloWorld.md" r:id="rId72"/>
-    <hyperlink ref="F19" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="HelloWorld2.md" r:id="rId74"/>
-    <hyperlink ref="C20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId75"/>
-    <hyperlink ref="E20" display="HelloWorld.md" r:id="rId76"/>
-    <hyperlink ref="F20" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="HelloWorld3.md" r:id="rId78"/>
-    <hyperlink ref="C21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId79"/>
-    <hyperlink ref="E21" display="HelloWorld.md" r:id="rId80"/>
-    <hyperlink ref="F21" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="HelloWorld4.md" r:id="rId82"/>
-    <hyperlink ref="C22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId83"/>
-    <hyperlink ref="E22" display="HelloWorld.md" r:id="rId84"/>
-    <hyperlink ref="F22" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="HelloWorld5.md" r:id="rId86"/>
-    <hyperlink ref="C23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId87"/>
-    <hyperlink ref="E23" display="HelloWorld.md" r:id="rId88"/>
-    <hyperlink ref="F23" display="HelloWorld.7aaa496756fe8c6b3dcd6becf9a46bec0b205822.de-de.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="github-logo.png" r:id="rId90"/>
-    <hyperlink ref="C24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId91"/>
-    <hyperlink ref="E24" display="github-logo.png" r:id="rId92"/>
-    <hyperlink ref="F24" display="90d7dca36f340986a0c7b98525226d3fd282aa6a.png" r:id="rId93"/>
-    <hyperlink ref="A25" display="markdown-logo.png" r:id="rId94"/>
-    <hyperlink ref="C25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId95"/>
-    <hyperlink ref="E25" display="markdown-logo.png" r:id="rId96"/>
-    <hyperlink ref="F25" display="ced6981729e25a31e25e8bbac32f2a822851abb0.png" r:id="rId97"/>
-    <hyperlink ref="A26" display="available_policies.md" r:id="rId98"/>
-    <hyperlink ref="C26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId99"/>
-    <hyperlink ref="E26" display="available_policies.md" r:id="rId100"/>
-    <hyperlink ref="F26" display="available_policies.ff49108befeca60e0cb8e2a505ce332559123ced.de-de.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="emie_to_improve_compatibility.md" r:id="rId102"/>
-    <hyperlink ref="C27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId103"/>
-    <hyperlink ref="E27" display="emie_to_improve_compatibility.md" r:id="rId104"/>
-    <hyperlink ref="F27" display="emie_to_improve_compatibility.01466982c77753bd70eee0c62860ff289eab85fd.de-de.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="EmIEOpeninIE.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="EmIEOpeninIE.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="c60b61e09592ccc99e5af898dcef91d310e8d794.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="Edge_EmIE_GroupPolicySiteList.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId114"/>
-    <hyperlink ref="C30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId115"/>
-    <hyperlink ref="E30" display="Edge_EmIE_RegistrySiteList.png" r:id="rId116"/>
-    <hyperlink ref="F30" display="c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png" r:id="rId117"/>
-    <hyperlink ref="A31" display="SendintranettoIE.png" r:id="rId118"/>
-    <hyperlink ref="C31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId119"/>
-    <hyperlink ref="E31" display="SendintranettoIE.png" r:id="rId120"/>
-    <hyperlink ref="F31" display="13db3344d2ab0ff7d5350584470566ac2b128e12.png" r:id="rId121"/>
-    <hyperlink ref="A32" display="hardware_and_software_requirements.md" r:id="rId122"/>
-    <hyperlink ref="C32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId123"/>
-    <hyperlink ref="E32" display="hardware_and_software_requirements.md" r:id="rId124"/>
-    <hyperlink ref="F32" display="hardware_and_software_requirements.b95d588b7b44b2bbc115562bda4a63386f1b62fb.de-de.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId126"/>
-    <hyperlink ref="C33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId127"/>
-    <hyperlink ref="E33" display="msedge_deployment_guide_for_it_pros.md" r:id="rId128"/>
-    <hyperlink ref="F33" display="msedge_deployment_guide_for_it_pros.b5fb018fe51efcf49ab261fda90e80e2c708e2c5.de-de.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="macapara.md" r:id="rId130"/>
-    <hyperlink ref="C34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId131"/>
-    <hyperlink ref="E34" display="macapara.md" r:id="rId132"/>
-    <hyperlink ref="F34" display="macapara.1f4a6c8a550f2dadc79422a1faf545785d5e7174.de-de.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="markdown-tips.md" r:id="rId134"/>
-    <hyperlink ref="C35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId135"/>
-    <hyperlink ref="E35" display="markdown-tips.md" r:id="rId136"/>
-    <hyperlink ref="F35" display="markdown-tips.0223efeae412507af7c4547e7e0aa549e87ea60a.de-de.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="tedhudek-home.md" r:id="rId138"/>
-    <hyperlink ref="C36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId139"/>
-    <hyperlink ref="E36" display="tedhudek-home.md" r:id="rId140"/>
-    <hyperlink ref="F36" display="tedhudek-home.cd82e1b999ca1e8e89601b96d7b6ed332d44c137.de-de.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="wdcml-to-open-publish.md" r:id="rId142"/>
-    <hyperlink ref="C37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId143"/>
-    <hyperlink ref="E37" display="wdcml-to-open-publish.md" r:id="rId144"/>
-    <hyperlink ref="F37" display="wdcml-to-open-publish.a4dd794f0bf7ce39cc12ecded434499fcb86d4f4.de-de.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="workflow.md" r:id="rId146"/>
-    <hyperlink ref="C38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId147"/>
-    <hyperlink ref="E38" display="workflow.md" r:id="rId148"/>
-    <hyperlink ref="F38" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.de-de.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="TOC.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="TOC.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId153"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -7,6 +7,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -504,7 +505,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ko-kr" displayName="ko_kr" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Correspond Handoff File"/>
+    <tableColumn id="4" name="Correspond Handoff Datetime"/>
+    <tableColumn id="5" name="Target File"/>
+    <tableColumn id="6" name="Correspond Handback File"/>
+    <tableColumn id="7" name="Correspond Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="fr-fr"/>
@@ -3017,4 +3036,60 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>File Name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>em-drive.png</t>
   </si>
   <si>
-    <t>em-frameratecounters.png</t>
-  </si>
-  <si>
     <t>em-list.png</t>
   </si>
   <si>
@@ -103,45 +100,45 @@
     <t>videowithoverlay.png</t>
   </si>
   <si>
+    <t>accelerometer-axis-orientation-landscape-180-with-text-inverted.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape-180-with-text.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape-180.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape-270.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape-90.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape-with-text.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-landscape.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-portrait-180.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-portrait-270.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-portrait-90.png</t>
+  </si>
+  <si>
+    <t>accelerometer-axis-orientation-portrait.png</t>
+  </si>
+  <si>
     <t>accelerometer1.png</t>
   </si>
   <si>
     <t>accelerometer2.png</t>
   </si>
   <si>
-    <t>accelerometer-axis-orientation-landscape.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-180.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-180-with-text.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-180-with-text-inverted.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-270.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-90.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-landscape-with-text.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-portrait.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-portrait-180.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-portrait-270.png</t>
-  </si>
-  <si>
-    <t>accelerometer-axis-orientation-portrait-90.png</t>
-  </si>
-  <si>
     <t>ap-tools.png</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>animation-child-rectangles.gif</t>
   </si>
   <si>
+    <t>test-xliff-2.md</t>
+  </si>
+  <si>
     <t>attestation_driver_signing_submission_dashboard.png</t>
   </si>
   <si>
@@ -214,6 +214,9 @@
     <t>Source File Name</t>
   </si>
   <si>
+    <t>File Extension</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -232,12 +235,21 @@
     <t>Correspond Handback DateTime</t>
   </si>
   <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
     <t>Handoff Reason</t>
   </si>
   <si>
     <t>Dependency From</t>
   </si>
   <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>de64362d21f090b76586193191ed6df624521fd0.png</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>IsDependency</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\deploying-and-debugging-uwp-apps.md</t>
+  </si>
+  <si>
     <t>be67298c637f11a63d6f7973c658b7d7258fbc96.png</t>
   </si>
   <si>
@@ -262,12 +277,12 @@
     <t>3b5af7218d84235781ffc7e51764f154365f4ec7.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\test-with-the-emulator.md</t>
+  </si>
+  <si>
     <t>2ac42acfeb68e181714b37fd7d6675f8484fc294.png</t>
   </si>
   <si>
-    <t>49d5c6b9b25d3dee65e09aeb7726c3695132bc60.png</t>
-  </si>
-  <si>
     <t>ea673383ad3164af72a73e80425c7e4b0982aa42.png</t>
   </si>
   <si>
@@ -301,9 +316,15 @@
     <t>68f2e5c1d62a0d70574037395b80f1d0c70fb43a.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\windows-runtime-components-and-optimizing-interop.md</t>
+  </si>
+  <si>
     <t>7a21e1ce72a44d286995acbb76a4813054f87533.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\optimize-your-xaml-layout.md</t>
+  </si>
+  <si>
     <t>055fc04e0997c7ab9ee8da2762587fd01d8b949f.png</t>
   </si>
   <si>
@@ -313,60 +334,78 @@
     <t>f1edb548dee0c9f192acedc13d7ba31c1bb4728e.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\best-practices-for-your-app-s-startup-performance.md</t>
+  </si>
+  <si>
     <t>b8cb5db84b4f8675c88c6f2a68299770f9f2895b.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\optimize-xaml-loading.md</t>
+  </si>
+  <si>
     <t>294384ee98e324679fafb2b71b289a893394c8b9.png</t>
   </si>
   <si>
     <t>6d1a9a148c0284c7eb58787e97562dad238d89e8.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\debug-test-perf\optimize-animations-and-media.md</t>
+  </si>
+  <si>
     <t>37eeaaeaec2acf7ee51ab3cfa7b145faae08388f.png</t>
   </si>
   <si>
+    <t>4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png</t>
+  </si>
+  <si>
+    <t>wdg-cpub-test\ndolci\devices-sensors\sensor-orientation.md</t>
+  </si>
+  <si>
+    <t>280322bf9a41f156f092e9b52d1c6536c386e27b.png</t>
+  </si>
+  <si>
+    <t>dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png</t>
+  </si>
+  <si>
+    <t>0d10b05a511c945d903d6bd82be796202912d483.png</t>
+  </si>
+  <si>
+    <t>c43ef20d6b9d6422c0306d81e891e519666e3310.png</t>
+  </si>
+  <si>
+    <t>d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png</t>
+  </si>
+  <si>
+    <t>db61344d5f58e7e9974e86abc07dd44c3429167a.png</t>
+  </si>
+  <si>
+    <t>90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png</t>
+  </si>
+  <si>
+    <t>c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png</t>
+  </si>
+  <si>
+    <t>85ca5217a6a62cad158009e9c26a5a9e4607b82a.png</t>
+  </si>
+  <si>
+    <t>002511e038f43b765ad0e70703796fa3f6f1f54a.png</t>
+  </si>
+  <si>
     <t>34ce1ba42c93457b28691e358831a508597b298f.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\devices-sensors\sensors.md</t>
+  </si>
+  <si>
     <t>ad405137416569d6e655743fbf94c8c80f93755c.png</t>
   </si>
   <si>
-    <t>db61344d5f58e7e9974e86abc07dd44c3429167a.png</t>
-  </si>
-  <si>
-    <t>dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png</t>
-  </si>
-  <si>
-    <t>280322bf9a41f156f092e9b52d1c6536c386e27b.png</t>
-  </si>
-  <si>
-    <t>4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png</t>
-  </si>
-  <si>
-    <t>0d10b05a511c945d903d6bd82be796202912d483.png</t>
-  </si>
-  <si>
-    <t>c43ef20d6b9d6422c0306d81e891e519666e3310.png</t>
-  </si>
-  <si>
-    <t>d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png</t>
-  </si>
-  <si>
-    <t>002511e038f43b765ad0e70703796fa3f6f1f54a.png</t>
-  </si>
-  <si>
-    <t>90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png</t>
-  </si>
-  <si>
-    <t>c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png</t>
-  </si>
-  <si>
-    <t>85ca5217a6a62cad158009e9c26a5a9e4607b82a.png</t>
-  </si>
-  <si>
     <t>1e45b813bb59c1c92dc98602387180ae11d43249.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\devices-sensors\enable-device-capabilities.md</t>
+  </si>
+  <si>
     <t>5f0f8f74ecf3a67cf978683559ec0994695068fe.png</t>
   </si>
   <si>
@@ -385,6 +424,9 @@
     <t>58236135d6c51eeca583aa62721d60d2244a3f69.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\devices-sensors\host-card-emulation.md</t>
+  </si>
+  <si>
     <t>d0ca1c2b792d95199b7c692d4be7852a6413440d.png</t>
   </si>
   <si>
@@ -397,34 +439,77 @@
     <t>1223021b5904a53a7ae4f06400037d597608eeea.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\files\quickstart-using-file-and-folder-pickers.md</t>
+  </si>
+  <si>
     <t>9a5d025932240178a724c75df457cf6e2e3dead6.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci\files\quickstart-managing-folders-in-the-music-pictures-and-videos-libraries.md</t>
+  </si>
+  <si>
     <t>c380c2394ff9d39c56af5f382a131a8460a4a136.png</t>
   </si>
   <si>
     <t>6d4b6e3ac9146763af8ef8e02271aafa2047e50c.png</t>
   </si>
   <si>
+    <t>.gif</t>
+  </si>
+  <si>
     <t>2c93f2a215aa9b5e0a5b880a0cafaa790fb9b141.gif</t>
   </si>
   <si>
+    <t>wdg-cpub-test\ndolci1\graphics\animations-overview.md,
+wdg-cpub-test\ndolci2\graphics\animations-overview.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-15 06:53:23</t>
+  </si>
+  <si>
+    <t>2016-04-15 07:16:52</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>e0f09dec7a25d3016140c132c7e6f0411589b8f3.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\v-paulj\Windows-driver-docs_develop\attestation_signing_a_kernel_driver_for_public_release.md</t>
+  </si>
+  <si>
     <t>21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png</t>
   </si>
   <si>
     <t>df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\v-paulj\Windows-driver-docs_develop\read_the_driver_test_results_log.md</t>
+  </si>
+  <si>
     <t>b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\v-paulj\Windows-driver-docs_develop\creating_a_driver_package.md</t>
+  </si>
+  <si>
     <t>95f73079b57688206bf3238e1a509f0b81ba8da2.png</t>
   </si>
   <si>
+    <t>wdg-cpub-test\v-paulj\Windows-driver-docs_develop\signing_a_driver_during_development_and_testing.md</t>
+  </si>
+  <si>
     <t>3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png</t>
+  </si>
+  <si>
+    <t>wdg-cpub-test\v-paulj\Windows-driver-docs_develop\windows_10_editions_for_universal_drivers.md</t>
   </si>
   <si>
     <t>65302587cbc9b4aa1c3633df61751962844f9e2c.png</t>
@@ -487,43 +572,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L63" headerRowCount="1">
+  <autoFilter ref="A1:L63"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Correspond Handoff File"/>
-    <tableColumn id="4" name="Correspond Handoff Datetime"/>
-    <tableColumn id="5" name="Target File"/>
-    <tableColumn id="6" name="Correspond Handback File"/>
-    <tableColumn id="7" name="Correspond Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ko-kr" displayName="ko_kr" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Correspond Handoff File"/>
-    <tableColumn id="4" name="Correspond Handoff Datetime"/>
-    <tableColumn id="5" name="Target File"/>
-    <tableColumn id="6" name="Correspond Handback File"/>
-    <tableColumn id="7" name="Correspond Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B63" headerRowCount="1">
+  <autoFilter ref="A1:B63"/>
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="fr-fr"/>
@@ -1056,54 +1147,54 @@
     <hyperlink ref="A5" display="debug-remote-machine-config.png" r:id="rId5"/>
     <hyperlink ref="A6" display="em-accelerometer.png" r:id="rId6"/>
     <hyperlink ref="A7" display="em-drive.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="em-frameratecounters.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="em-list.png" r:id="rId9"/>
-    <hyperlink ref="A10" display="em-multipoint.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="em-network.png" r:id="rId11"/>
-    <hyperlink ref="A12" display="em-notifications.png" r:id="rId12"/>
-    <hyperlink ref="A13" display="em-sdcard.png" r:id="rId13"/>
-    <hyperlink ref="A14" display="em-sensors.png" r:id="rId14"/>
-    <hyperlink ref="A15" display="emulator-nfc-hce.png" r:id="rId15"/>
-    <hyperlink ref="A16" display="emulator-nfc-proximity.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="emulator-showing-mouse-input-button-bar.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="emulator-with-mouse-enabled.png" r:id="rId18"/>
-    <hyperlink ref="A19" display="interop-transitions.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="layout-perf-ex1.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="layout-perf-ex2.png" r:id="rId21"/>
-    <hyperlink ref="A22" display="layout-perf-ex3.png" r:id="rId22"/>
-    <hyperlink ref="A23" display="live-visual-tree.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="solidvenn.png" r:id="rId24"/>
-    <hyperlink ref="A25" display="translucentvenn.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="videowithneighbors.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="videowithoverlay.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="accelerometer1.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="accelerometer2.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="accelerometer-axis-orientation-landscape.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId31"/>
-    <hyperlink ref="A32" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId32"/>
-    <hyperlink ref="A33" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId33"/>
-    <hyperlink ref="A34" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId36"/>
+    <hyperlink ref="A8" display="em-list.png" r:id="rId8"/>
+    <hyperlink ref="A9" display="em-multipoint.png" r:id="rId9"/>
+    <hyperlink ref="A10" display="em-network.png" r:id="rId10"/>
+    <hyperlink ref="A11" display="em-notifications.png" r:id="rId11"/>
+    <hyperlink ref="A12" display="em-sdcard.png" r:id="rId12"/>
+    <hyperlink ref="A13" display="em-sensors.png" r:id="rId13"/>
+    <hyperlink ref="A14" display="emulator-nfc-hce.png" r:id="rId14"/>
+    <hyperlink ref="A15" display="emulator-nfc-proximity.png" r:id="rId15"/>
+    <hyperlink ref="A16" display="emulator-showing-mouse-input-button-bar.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="emulator-with-mouse-enabled.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="interop-transitions.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="layout-perf-ex1.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="layout-perf-ex2.png" r:id="rId20"/>
+    <hyperlink ref="A21" display="layout-perf-ex3.png" r:id="rId21"/>
+    <hyperlink ref="A22" display="live-visual-tree.png" r:id="rId22"/>
+    <hyperlink ref="A23" display="solidvenn.png" r:id="rId23"/>
+    <hyperlink ref="A24" display="translucentvenn.png" r:id="rId24"/>
+    <hyperlink ref="A25" display="videowithneighbors.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="videowithoverlay.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId28"/>
+    <hyperlink ref="A29" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId32"/>
+    <hyperlink ref="A33" display="accelerometer-axis-orientation-landscape.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId36"/>
     <hyperlink ref="A37" display="accelerometer-axis-orientation-portrait.png" r:id="rId37"/>
-    <hyperlink ref="A38" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId38"/>
-    <hyperlink ref="A39" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId39"/>
-    <hyperlink ref="A40" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId40"/>
-    <hyperlink ref="A41" display="ap-tools.png" r:id="rId41"/>
-    <hyperlink ref="A42" display="batchsample.png" r:id="rId42"/>
-    <hyperlink ref="A43" display="compass.png" r:id="rId43"/>
-    <hyperlink ref="A44" display="eulers-formula.png" r:id="rId44"/>
-    <hyperlink ref="A45" display="gyrometer.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="inclinometer.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="nfc-architecture.png" r:id="rId47"/>
-    <hyperlink ref="A48" display="nfc-settings.png" r:id="rId48"/>
-    <hyperlink ref="A49" display="orientation-formula.png" r:id="rId49"/>
-    <hyperlink ref="A50" display="orientation-sensor.png" r:id="rId50"/>
-    <hyperlink ref="A51" display="app-to-app-diagram-600px.png" r:id="rId51"/>
-    <hyperlink ref="A52" display="phone-media-locations.png" r:id="rId52"/>
-    <hyperlink ref="A53" display="phone-media-queries.png" r:id="rId53"/>
-    <hyperlink ref="A54" display="picker-multifile-600px.png" r:id="rId54"/>
-    <hyperlink ref="A55" display="animation-child-rectangles.gif" r:id="rId55"/>
+    <hyperlink ref="A38" display="accelerometer1.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="accelerometer2.png" r:id="rId39"/>
+    <hyperlink ref="A40" display="ap-tools.png" r:id="rId40"/>
+    <hyperlink ref="A41" display="batchsample.png" r:id="rId41"/>
+    <hyperlink ref="A42" display="compass.png" r:id="rId42"/>
+    <hyperlink ref="A43" display="eulers-formula.png" r:id="rId43"/>
+    <hyperlink ref="A44" display="gyrometer.png" r:id="rId44"/>
+    <hyperlink ref="A45" display="inclinometer.png" r:id="rId45"/>
+    <hyperlink ref="A46" display="nfc-architecture.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="nfc-settings.png" r:id="rId47"/>
+    <hyperlink ref="A48" display="orientation-formula.png" r:id="rId48"/>
+    <hyperlink ref="A49" display="orientation-sensor.png" r:id="rId49"/>
+    <hyperlink ref="A50" display="app-to-app-diagram-600px.png" r:id="rId50"/>
+    <hyperlink ref="A51" display="phone-media-locations.png" r:id="rId51"/>
+    <hyperlink ref="A52" display="phone-media-queries.png" r:id="rId52"/>
+    <hyperlink ref="A53" display="picker-multifile-600px.png" r:id="rId53"/>
+    <hyperlink ref="A54" display="animation-child-rectangles.gif" r:id="rId54"/>
+    <hyperlink ref="A55" display="test-xliff-2.md" r:id="rId55"/>
     <hyperlink ref="A56" display="attestation_driver_signing_submission_dashboard.png" r:id="rId56"/>
     <hyperlink ref="A57" display="b_wes_driversigning_v2.png" r:id="rId57"/>
     <hyperlink ref="A58" display="ert_test_results.png" r:id="rId58"/>
@@ -1122,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,6 +1228,9 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1167,31 +1261,46 @@
       <c r="I1" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>77</v>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1199,25 +1308,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>77</v>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1225,25 +1340,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>77</v>
+      <c r="G4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1251,25 +1372,31 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>77</v>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1277,25 +1404,31 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>77</v>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1303,25 +1436,31 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>77</v>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1329,25 +1468,31 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>77</v>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1355,25 +1500,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>77</v>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -1381,25 +1532,31 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>77</v>
+      <c r="G10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -1407,25 +1564,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>77</v>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1433,25 +1596,31 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1459,25 +1628,31 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>77</v>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1485,25 +1660,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>77</v>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1511,25 +1692,31 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>77</v>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1537,25 +1724,31 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>77</v>
+      <c r="G16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1563,25 +1756,31 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>77</v>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1589,25 +1788,31 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>77</v>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1615,25 +1820,31 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>77</v>
+      <c r="G19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -1641,25 +1852,31 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>77</v>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1667,25 +1884,31 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>77</v>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -1693,25 +1916,31 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>77</v>
+      <c r="G22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1719,25 +1948,31 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>77</v>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -1745,25 +1980,31 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>77</v>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1771,25 +2012,31 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>77</v>
+      <c r="G25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1797,25 +2044,31 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>77</v>
+      <c r="G26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1823,25 +2076,31 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>77</v>
+      <c r="G27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -1849,25 +2108,31 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>77</v>
+      <c r="G28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -1875,25 +2140,31 @@
         <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>77</v>
+      <c r="G29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -1901,25 +2172,31 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>77</v>
+      <c r="G30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -1927,25 +2204,31 @@
         <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>77</v>
+      <c r="G31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1953,25 +2236,31 @@
         <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>77</v>
+      <c r="G32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1979,25 +2268,31 @@
         <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>77</v>
+      <c r="G33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -2005,25 +2300,31 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>77</v>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2031,25 +2332,31 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>77</v>
+      <c r="G35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -2057,25 +2364,31 @@
         <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>77</v>
+      <c r="G36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -2083,25 +2396,31 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>77</v>
+      <c r="G37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -2109,25 +2428,31 @@
         <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>77</v>
+      <c r="G38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -2135,25 +2460,31 @@
         <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>77</v>
+      <c r="G39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -2161,25 +2492,31 @@
         <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>77</v>
+      <c r="G40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -2187,25 +2524,31 @@
         <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>77</v>
+      <c r="G41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -2213,25 +2556,31 @@
         <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>77</v>
+      <c r="G42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -2239,25 +2588,31 @@
         <v>44</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>77</v>
+      <c r="G43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -2265,25 +2620,31 @@
         <v>45</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>77</v>
+      <c r="G44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -2291,25 +2652,31 @@
         <v>46</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>77</v>
+      <c r="G45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -2317,25 +2684,31 @@
         <v>47</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>77</v>
+      <c r="G46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47">
@@ -2343,25 +2716,31 @@
         <v>48</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>77</v>
+      <c r="G47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48">
@@ -2369,25 +2748,31 @@
         <v>49</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>77</v>
+      <c r="G48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -2395,25 +2780,31 @@
         <v>50</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>77</v>
+      <c r="G49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50">
@@ -2421,25 +2812,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>77</v>
+      <c r="G50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="51">
@@ -2447,25 +2844,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>77</v>
+      <c r="G51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52">
@@ -2473,25 +2876,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>77</v>
+      <c r="G52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53">
@@ -2499,25 +2908,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>77</v>
+      <c r="G53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="54">
@@ -2525,25 +2940,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>77</v>
+      <c r="G54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="55">
@@ -2551,25 +2972,28 @@
         <v>56</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>77</v>
+      <c r="G55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56">
@@ -2577,25 +3001,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>77</v>
+      <c r="G56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57">
@@ -2603,25 +3033,31 @@
         <v>58</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>77</v>
+      <c r="G57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58">
@@ -2629,25 +3065,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>77</v>
+      <c r="G58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59">
@@ -2655,25 +3097,31 @@
         <v>60</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>77</v>
+      <c r="G59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60">
@@ -2681,25 +3129,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>77</v>
+      <c r="G60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="61">
@@ -2707,25 +3161,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>77</v>
+      <c r="G61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="62">
@@ -2733,25 +3193,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>77</v>
+      <c r="G62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63">
@@ -2759,277 +3225,283 @@
         <v>64</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>77</v>
+      <c r="G63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="debug-device-target-list.png" r:id="rId2"/>
-    <hyperlink ref="C2" display="de64362d21f090b76586193191ed6df624521fd0.png" r:id="rId3"/>
-    <hyperlink ref="E2" display="debug-device-target-list.png" r:id="rId4"/>
-    <hyperlink ref="F2" display="de64362d21f090b76586193191ed6df624521fd0.png" r:id="rId5"/>
+    <hyperlink ref="D2" display="de64362d21f090b76586193191ed6df624521fd0.png" r:id="rId3"/>
+    <hyperlink ref="F2" display="debug-device-target-list.png" r:id="rId4"/>
+    <hyperlink ref="G2" display="de64362d21f090b76586193191ed6df624521fd0.png" r:id="rId5"/>
     <hyperlink ref="A3" display="debug-property-pages.png" r:id="rId6"/>
-    <hyperlink ref="C3" display="be67298c637f11a63d6f7973c658b7d7258fbc96.png" r:id="rId7"/>
-    <hyperlink ref="E3" display="debug-property-pages.png" r:id="rId8"/>
-    <hyperlink ref="F3" display="be67298c637f11a63d6f7973c658b7d7258fbc96.png" r:id="rId9"/>
+    <hyperlink ref="D3" display="be67298c637f11a63d6f7973c658b7d7258fbc96.png" r:id="rId7"/>
+    <hyperlink ref="F3" display="debug-property-pages.png" r:id="rId8"/>
+    <hyperlink ref="G3" display="be67298c637f11a63d6f7973c658b7d7258fbc96.png" r:id="rId9"/>
     <hyperlink ref="A4" display="debug-remote-connections.png" r:id="rId10"/>
-    <hyperlink ref="C4" display="3c13afd3c3794a7173390bb719c152d2be9ae622.png" r:id="rId11"/>
-    <hyperlink ref="E4" display="debug-remote-connections.png" r:id="rId12"/>
-    <hyperlink ref="F4" display="3c13afd3c3794a7173390bb719c152d2be9ae622.png" r:id="rId13"/>
+    <hyperlink ref="D4" display="3c13afd3c3794a7173390bb719c152d2be9ae622.png" r:id="rId11"/>
+    <hyperlink ref="F4" display="debug-remote-connections.png" r:id="rId12"/>
+    <hyperlink ref="G4" display="3c13afd3c3794a7173390bb719c152d2be9ae622.png" r:id="rId13"/>
     <hyperlink ref="A5" display="debug-remote-machine-config.png" r:id="rId14"/>
-    <hyperlink ref="C5" display="b57f6bfba888a9cb57bfc2242b3c6d9b65867b52.png" r:id="rId15"/>
-    <hyperlink ref="E5" display="debug-remote-machine-config.png" r:id="rId16"/>
-    <hyperlink ref="F5" display="b57f6bfba888a9cb57bfc2242b3c6d9b65867b52.png" r:id="rId17"/>
+    <hyperlink ref="D5" display="b57f6bfba888a9cb57bfc2242b3c6d9b65867b52.png" r:id="rId15"/>
+    <hyperlink ref="F5" display="debug-remote-machine-config.png" r:id="rId16"/>
+    <hyperlink ref="G5" display="b57f6bfba888a9cb57bfc2242b3c6d9b65867b52.png" r:id="rId17"/>
     <hyperlink ref="A6" display="em-accelerometer.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="3b5af7218d84235781ffc7e51764f154365f4ec7.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="em-accelerometer.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="3b5af7218d84235781ffc7e51764f154365f4ec7.png" r:id="rId21"/>
+    <hyperlink ref="D6" display="3b5af7218d84235781ffc7e51764f154365f4ec7.png" r:id="rId19"/>
+    <hyperlink ref="F6" display="em-accelerometer.png" r:id="rId20"/>
+    <hyperlink ref="G6" display="3b5af7218d84235781ffc7e51764f154365f4ec7.png" r:id="rId21"/>
     <hyperlink ref="A7" display="em-drive.png" r:id="rId22"/>
-    <hyperlink ref="C7" display="2ac42acfeb68e181714b37fd7d6675f8484fc294.png" r:id="rId23"/>
-    <hyperlink ref="E7" display="em-drive.png" r:id="rId24"/>
-    <hyperlink ref="F7" display="2ac42acfeb68e181714b37fd7d6675f8484fc294.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="em-frameratecounters.png" r:id="rId26"/>
-    <hyperlink ref="C8" display="49d5c6b9b25d3dee65e09aeb7726c3695132bc60.png" r:id="rId27"/>
-    <hyperlink ref="E8" display="em-frameratecounters.png" r:id="rId28"/>
-    <hyperlink ref="F8" display="49d5c6b9b25d3dee65e09aeb7726c3695132bc60.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="em-list.png" r:id="rId30"/>
-    <hyperlink ref="C9" display="ea673383ad3164af72a73e80425c7e4b0982aa42.png" r:id="rId31"/>
-    <hyperlink ref="E9" display="em-list.png" r:id="rId32"/>
-    <hyperlink ref="F9" display="ea673383ad3164af72a73e80425c7e4b0982aa42.png" r:id="rId33"/>
-    <hyperlink ref="A10" display="em-multipoint.png" r:id="rId34"/>
-    <hyperlink ref="C10" display="8330a2966313c8c81bf3082cccf18cdfd97612c0.png" r:id="rId35"/>
-    <hyperlink ref="E10" display="em-multipoint.png" r:id="rId36"/>
-    <hyperlink ref="F10" display="8330a2966313c8c81bf3082cccf18cdfd97612c0.png" r:id="rId37"/>
-    <hyperlink ref="A11" display="em-network.png" r:id="rId38"/>
-    <hyperlink ref="C11" display="ca8c6bd1bba1a76f7e2fcc4673b055f7768a9631.png" r:id="rId39"/>
-    <hyperlink ref="E11" display="em-network.png" r:id="rId40"/>
-    <hyperlink ref="F11" display="ca8c6bd1bba1a76f7e2fcc4673b055f7768a9631.png" r:id="rId41"/>
-    <hyperlink ref="A12" display="em-notifications.png" r:id="rId42"/>
-    <hyperlink ref="C12" display="f7abe9d85d0dc10b263ebbe90fe9f3d72a1069a3.png" r:id="rId43"/>
-    <hyperlink ref="E12" display="em-notifications.png" r:id="rId44"/>
-    <hyperlink ref="F12" display="f7abe9d85d0dc10b263ebbe90fe9f3d72a1069a3.png" r:id="rId45"/>
-    <hyperlink ref="A13" display="em-sdcard.png" r:id="rId46"/>
-    <hyperlink ref="C13" display="fbead21ab5fb26b1f04a0cdb0c39770106cbc2f0.png" r:id="rId47"/>
-    <hyperlink ref="E13" display="em-sdcard.png" r:id="rId48"/>
-    <hyperlink ref="F13" display="fbead21ab5fb26b1f04a0cdb0c39770106cbc2f0.png" r:id="rId49"/>
-    <hyperlink ref="A14" display="em-sensors.png" r:id="rId50"/>
-    <hyperlink ref="C14" display="8f814bc4fa6eb794dc1d2d21fce479f2093ee76d.png" r:id="rId51"/>
-    <hyperlink ref="E14" display="em-sensors.png" r:id="rId52"/>
-    <hyperlink ref="F14" display="8f814bc4fa6eb794dc1d2d21fce479f2093ee76d.png" r:id="rId53"/>
-    <hyperlink ref="A15" display="emulator-nfc-hce.png" r:id="rId54"/>
-    <hyperlink ref="C15" display="32a52771b9a99c2d29c8b77f37b880bbdbdf612d.png" r:id="rId55"/>
-    <hyperlink ref="E15" display="emulator-nfc-hce.png" r:id="rId56"/>
-    <hyperlink ref="F15" display="32a52771b9a99c2d29c8b77f37b880bbdbdf612d.png" r:id="rId57"/>
-    <hyperlink ref="A16" display="emulator-nfc-proximity.png" r:id="rId58"/>
-    <hyperlink ref="C16" display="45ff0e690ec5ac6c1e2db1c789cf558851cdd672.png" r:id="rId59"/>
-    <hyperlink ref="E16" display="emulator-nfc-proximity.png" r:id="rId60"/>
-    <hyperlink ref="F16" display="45ff0e690ec5ac6c1e2db1c789cf558851cdd672.png" r:id="rId61"/>
-    <hyperlink ref="A17" display="emulator-showing-mouse-input-button-bar.png" r:id="rId62"/>
-    <hyperlink ref="C17" display="fe7567cf0d82bf502aeb102aac071fd560b0d47e.png" r:id="rId63"/>
-    <hyperlink ref="E17" display="emulator-showing-mouse-input-button-bar.png" r:id="rId64"/>
-    <hyperlink ref="F17" display="fe7567cf0d82bf502aeb102aac071fd560b0d47e.png" r:id="rId65"/>
-    <hyperlink ref="A18" display="emulator-with-mouse-enabled.png" r:id="rId66"/>
-    <hyperlink ref="C18" display="e273d46684a3fe6d157892b7db4999dce035401c.png" r:id="rId67"/>
-    <hyperlink ref="E18" display="emulator-with-mouse-enabled.png" r:id="rId68"/>
-    <hyperlink ref="F18" display="e273d46684a3fe6d157892b7db4999dce035401c.png" r:id="rId69"/>
-    <hyperlink ref="A19" display="interop-transitions.png" r:id="rId70"/>
-    <hyperlink ref="C19" display="68f2e5c1d62a0d70574037395b80f1d0c70fb43a.png" r:id="rId71"/>
-    <hyperlink ref="E19" display="interop-transitions.png" r:id="rId72"/>
-    <hyperlink ref="F19" display="68f2e5c1d62a0d70574037395b80f1d0c70fb43a.png" r:id="rId73"/>
-    <hyperlink ref="A20" display="layout-perf-ex1.png" r:id="rId74"/>
-    <hyperlink ref="C20" display="7a21e1ce72a44d286995acbb76a4813054f87533.png" r:id="rId75"/>
-    <hyperlink ref="E20" display="layout-perf-ex1.png" r:id="rId76"/>
-    <hyperlink ref="F20" display="7a21e1ce72a44d286995acbb76a4813054f87533.png" r:id="rId77"/>
-    <hyperlink ref="A21" display="layout-perf-ex2.png" r:id="rId78"/>
-    <hyperlink ref="C21" display="055fc04e0997c7ab9ee8da2762587fd01d8b949f.png" r:id="rId79"/>
-    <hyperlink ref="E21" display="layout-perf-ex2.png" r:id="rId80"/>
-    <hyperlink ref="F21" display="055fc04e0997c7ab9ee8da2762587fd01d8b949f.png" r:id="rId81"/>
-    <hyperlink ref="A22" display="layout-perf-ex3.png" r:id="rId82"/>
-    <hyperlink ref="C22" display="70174df9d165e4b9845ed2300000bf0dd5718905.png" r:id="rId83"/>
-    <hyperlink ref="E22" display="layout-perf-ex3.png" r:id="rId84"/>
-    <hyperlink ref="F22" display="70174df9d165e4b9845ed2300000bf0dd5718905.png" r:id="rId85"/>
-    <hyperlink ref="A23" display="live-visual-tree.png" r:id="rId86"/>
-    <hyperlink ref="C23" display="f1edb548dee0c9f192acedc13d7ba31c1bb4728e.png" r:id="rId87"/>
-    <hyperlink ref="E23" display="live-visual-tree.png" r:id="rId88"/>
-    <hyperlink ref="F23" display="f1edb548dee0c9f192acedc13d7ba31c1bb4728e.png" r:id="rId89"/>
-    <hyperlink ref="A24" display="solidvenn.png" r:id="rId90"/>
-    <hyperlink ref="C24" display="b8cb5db84b4f8675c88c6f2a68299770f9f2895b.png" r:id="rId91"/>
-    <hyperlink ref="E24" display="solidvenn.png" r:id="rId92"/>
-    <hyperlink ref="F24" display="b8cb5db84b4f8675c88c6f2a68299770f9f2895b.png" r:id="rId93"/>
-    <hyperlink ref="A25" display="translucentvenn.png" r:id="rId94"/>
-    <hyperlink ref="C25" display="294384ee98e324679fafb2b71b289a893394c8b9.png" r:id="rId95"/>
-    <hyperlink ref="E25" display="translucentvenn.png" r:id="rId96"/>
-    <hyperlink ref="F25" display="294384ee98e324679fafb2b71b289a893394c8b9.png" r:id="rId97"/>
-    <hyperlink ref="A26" display="videowithneighbors.png" r:id="rId98"/>
-    <hyperlink ref="C26" display="6d1a9a148c0284c7eb58787e97562dad238d89e8.png" r:id="rId99"/>
-    <hyperlink ref="E26" display="videowithneighbors.png" r:id="rId100"/>
-    <hyperlink ref="F26" display="6d1a9a148c0284c7eb58787e97562dad238d89e8.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="videowithoverlay.png" r:id="rId102"/>
-    <hyperlink ref="C27" display="37eeaaeaec2acf7ee51ab3cfa7b145faae08388f.png" r:id="rId103"/>
-    <hyperlink ref="E27" display="videowithoverlay.png" r:id="rId104"/>
-    <hyperlink ref="F27" display="37eeaaeaec2acf7ee51ab3cfa7b145faae08388f.png" r:id="rId105"/>
-    <hyperlink ref="A28" display="accelerometer1.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="34ce1ba42c93457b28691e358831a508597b298f.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="accelerometer1.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="34ce1ba42c93457b28691e358831a508597b298f.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="accelerometer2.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="ad405137416569d6e655743fbf94c8c80f93755c.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="accelerometer2.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="ad405137416569d6e655743fbf94c8c80f93755c.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="accelerometer-axis-orientation-landscape.png" r:id="rId114"/>
-    <hyperlink ref="C30" display="db61344d5f58e7e9974e86abc07dd44c3429167a.png" r:id="rId115"/>
-    <hyperlink ref="E30" display="accelerometer-axis-orientation-landscape.png" r:id="rId116"/>
-    <hyperlink ref="F30" display="db61344d5f58e7e9974e86abc07dd44c3429167a.png" r:id="rId117"/>
-    <hyperlink ref="A31" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId118"/>
-    <hyperlink ref="C31" display="dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png" r:id="rId119"/>
-    <hyperlink ref="E31" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId120"/>
-    <hyperlink ref="F31" display="dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png" r:id="rId121"/>
-    <hyperlink ref="A32" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId122"/>
-    <hyperlink ref="C32" display="280322bf9a41f156f092e9b52d1c6536c386e27b.png" r:id="rId123"/>
-    <hyperlink ref="E32" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId124"/>
-    <hyperlink ref="F32" display="280322bf9a41f156f092e9b52d1c6536c386e27b.png" r:id="rId125"/>
-    <hyperlink ref="A33" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId126"/>
-    <hyperlink ref="C33" display="4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png" r:id="rId127"/>
-    <hyperlink ref="E33" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId128"/>
-    <hyperlink ref="F33" display="4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png" r:id="rId129"/>
-    <hyperlink ref="A34" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId130"/>
-    <hyperlink ref="C34" display="0d10b05a511c945d903d6bd82be796202912d483.png" r:id="rId131"/>
-    <hyperlink ref="E34" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId132"/>
-    <hyperlink ref="F34" display="0d10b05a511c945d903d6bd82be796202912d483.png" r:id="rId133"/>
-    <hyperlink ref="A35" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId134"/>
-    <hyperlink ref="C35" display="c43ef20d6b9d6422c0306d81e891e519666e3310.png" r:id="rId135"/>
-    <hyperlink ref="E35" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId136"/>
-    <hyperlink ref="F35" display="c43ef20d6b9d6422c0306d81e891e519666e3310.png" r:id="rId137"/>
-    <hyperlink ref="A36" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId138"/>
-    <hyperlink ref="C36" display="d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png" r:id="rId139"/>
-    <hyperlink ref="E36" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId140"/>
-    <hyperlink ref="F36" display="d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png" r:id="rId141"/>
+    <hyperlink ref="D7" display="2ac42acfeb68e181714b37fd7d6675f8484fc294.png" r:id="rId23"/>
+    <hyperlink ref="F7" display="em-drive.png" r:id="rId24"/>
+    <hyperlink ref="G7" display="2ac42acfeb68e181714b37fd7d6675f8484fc294.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="em-list.png" r:id="rId26"/>
+    <hyperlink ref="D8" display="ea673383ad3164af72a73e80425c7e4b0982aa42.png" r:id="rId27"/>
+    <hyperlink ref="F8" display="em-list.png" r:id="rId28"/>
+    <hyperlink ref="G8" display="ea673383ad3164af72a73e80425c7e4b0982aa42.png" r:id="rId29"/>
+    <hyperlink ref="A9" display="em-multipoint.png" r:id="rId30"/>
+    <hyperlink ref="D9" display="8330a2966313c8c81bf3082cccf18cdfd97612c0.png" r:id="rId31"/>
+    <hyperlink ref="F9" display="em-multipoint.png" r:id="rId32"/>
+    <hyperlink ref="G9" display="8330a2966313c8c81bf3082cccf18cdfd97612c0.png" r:id="rId33"/>
+    <hyperlink ref="A10" display="em-network.png" r:id="rId34"/>
+    <hyperlink ref="D10" display="ca8c6bd1bba1a76f7e2fcc4673b055f7768a9631.png" r:id="rId35"/>
+    <hyperlink ref="F10" display="em-network.png" r:id="rId36"/>
+    <hyperlink ref="G10" display="ca8c6bd1bba1a76f7e2fcc4673b055f7768a9631.png" r:id="rId37"/>
+    <hyperlink ref="A11" display="em-notifications.png" r:id="rId38"/>
+    <hyperlink ref="D11" display="f7abe9d85d0dc10b263ebbe90fe9f3d72a1069a3.png" r:id="rId39"/>
+    <hyperlink ref="F11" display="em-notifications.png" r:id="rId40"/>
+    <hyperlink ref="G11" display="f7abe9d85d0dc10b263ebbe90fe9f3d72a1069a3.png" r:id="rId41"/>
+    <hyperlink ref="A12" display="em-sdcard.png" r:id="rId42"/>
+    <hyperlink ref="D12" display="fbead21ab5fb26b1f04a0cdb0c39770106cbc2f0.png" r:id="rId43"/>
+    <hyperlink ref="F12" display="em-sdcard.png" r:id="rId44"/>
+    <hyperlink ref="G12" display="fbead21ab5fb26b1f04a0cdb0c39770106cbc2f0.png" r:id="rId45"/>
+    <hyperlink ref="A13" display="em-sensors.png" r:id="rId46"/>
+    <hyperlink ref="D13" display="8f814bc4fa6eb794dc1d2d21fce479f2093ee76d.png" r:id="rId47"/>
+    <hyperlink ref="F13" display="em-sensors.png" r:id="rId48"/>
+    <hyperlink ref="G13" display="8f814bc4fa6eb794dc1d2d21fce479f2093ee76d.png" r:id="rId49"/>
+    <hyperlink ref="A14" display="emulator-nfc-hce.png" r:id="rId50"/>
+    <hyperlink ref="D14" display="32a52771b9a99c2d29c8b77f37b880bbdbdf612d.png" r:id="rId51"/>
+    <hyperlink ref="F14" display="emulator-nfc-hce.png" r:id="rId52"/>
+    <hyperlink ref="G14" display="32a52771b9a99c2d29c8b77f37b880bbdbdf612d.png" r:id="rId53"/>
+    <hyperlink ref="A15" display="emulator-nfc-proximity.png" r:id="rId54"/>
+    <hyperlink ref="D15" display="45ff0e690ec5ac6c1e2db1c789cf558851cdd672.png" r:id="rId55"/>
+    <hyperlink ref="F15" display="emulator-nfc-proximity.png" r:id="rId56"/>
+    <hyperlink ref="G15" display="45ff0e690ec5ac6c1e2db1c789cf558851cdd672.png" r:id="rId57"/>
+    <hyperlink ref="A16" display="emulator-showing-mouse-input-button-bar.png" r:id="rId58"/>
+    <hyperlink ref="D16" display="fe7567cf0d82bf502aeb102aac071fd560b0d47e.png" r:id="rId59"/>
+    <hyperlink ref="F16" display="emulator-showing-mouse-input-button-bar.png" r:id="rId60"/>
+    <hyperlink ref="G16" display="fe7567cf0d82bf502aeb102aac071fd560b0d47e.png" r:id="rId61"/>
+    <hyperlink ref="A17" display="emulator-with-mouse-enabled.png" r:id="rId62"/>
+    <hyperlink ref="D17" display="e273d46684a3fe6d157892b7db4999dce035401c.png" r:id="rId63"/>
+    <hyperlink ref="F17" display="emulator-with-mouse-enabled.png" r:id="rId64"/>
+    <hyperlink ref="G17" display="e273d46684a3fe6d157892b7db4999dce035401c.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="interop-transitions.png" r:id="rId66"/>
+    <hyperlink ref="D18" display="68f2e5c1d62a0d70574037395b80f1d0c70fb43a.png" r:id="rId67"/>
+    <hyperlink ref="F18" display="interop-transitions.png" r:id="rId68"/>
+    <hyperlink ref="G18" display="68f2e5c1d62a0d70574037395b80f1d0c70fb43a.png" r:id="rId69"/>
+    <hyperlink ref="A19" display="layout-perf-ex1.png" r:id="rId70"/>
+    <hyperlink ref="D19" display="7a21e1ce72a44d286995acbb76a4813054f87533.png" r:id="rId71"/>
+    <hyperlink ref="F19" display="layout-perf-ex1.png" r:id="rId72"/>
+    <hyperlink ref="G19" display="7a21e1ce72a44d286995acbb76a4813054f87533.png" r:id="rId73"/>
+    <hyperlink ref="A20" display="layout-perf-ex2.png" r:id="rId74"/>
+    <hyperlink ref="D20" display="055fc04e0997c7ab9ee8da2762587fd01d8b949f.png" r:id="rId75"/>
+    <hyperlink ref="F20" display="layout-perf-ex2.png" r:id="rId76"/>
+    <hyperlink ref="G20" display="055fc04e0997c7ab9ee8da2762587fd01d8b949f.png" r:id="rId77"/>
+    <hyperlink ref="A21" display="layout-perf-ex3.png" r:id="rId78"/>
+    <hyperlink ref="D21" display="70174df9d165e4b9845ed2300000bf0dd5718905.png" r:id="rId79"/>
+    <hyperlink ref="F21" display="layout-perf-ex3.png" r:id="rId80"/>
+    <hyperlink ref="G21" display="70174df9d165e4b9845ed2300000bf0dd5718905.png" r:id="rId81"/>
+    <hyperlink ref="A22" display="live-visual-tree.png" r:id="rId82"/>
+    <hyperlink ref="D22" display="f1edb548dee0c9f192acedc13d7ba31c1bb4728e.png" r:id="rId83"/>
+    <hyperlink ref="F22" display="live-visual-tree.png" r:id="rId84"/>
+    <hyperlink ref="G22" display="f1edb548dee0c9f192acedc13d7ba31c1bb4728e.png" r:id="rId85"/>
+    <hyperlink ref="A23" display="solidvenn.png" r:id="rId86"/>
+    <hyperlink ref="D23" display="b8cb5db84b4f8675c88c6f2a68299770f9f2895b.png" r:id="rId87"/>
+    <hyperlink ref="F23" display="solidvenn.png" r:id="rId88"/>
+    <hyperlink ref="G23" display="b8cb5db84b4f8675c88c6f2a68299770f9f2895b.png" r:id="rId89"/>
+    <hyperlink ref="A24" display="translucentvenn.png" r:id="rId90"/>
+    <hyperlink ref="D24" display="294384ee98e324679fafb2b71b289a893394c8b9.png" r:id="rId91"/>
+    <hyperlink ref="F24" display="translucentvenn.png" r:id="rId92"/>
+    <hyperlink ref="G24" display="294384ee98e324679fafb2b71b289a893394c8b9.png" r:id="rId93"/>
+    <hyperlink ref="A25" display="videowithneighbors.png" r:id="rId94"/>
+    <hyperlink ref="D25" display="6d1a9a148c0284c7eb58787e97562dad238d89e8.png" r:id="rId95"/>
+    <hyperlink ref="F25" display="videowithneighbors.png" r:id="rId96"/>
+    <hyperlink ref="G25" display="6d1a9a148c0284c7eb58787e97562dad238d89e8.png" r:id="rId97"/>
+    <hyperlink ref="A26" display="videowithoverlay.png" r:id="rId98"/>
+    <hyperlink ref="D26" display="37eeaaeaec2acf7ee51ab3cfa7b145faae08388f.png" r:id="rId99"/>
+    <hyperlink ref="F26" display="videowithoverlay.png" r:id="rId100"/>
+    <hyperlink ref="G26" display="37eeaaeaec2acf7ee51ab3cfa7b145faae08388f.png" r:id="rId101"/>
+    <hyperlink ref="A27" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId102"/>
+    <hyperlink ref="D27" display="4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png" r:id="rId103"/>
+    <hyperlink ref="F27" display="accelerometer-axis-orientation-landscape-180-with-text-inverted.png" r:id="rId104"/>
+    <hyperlink ref="G27" display="4da08a6e9faf12bb5dc7caf4f346dc50ae378ac8.png" r:id="rId105"/>
+    <hyperlink ref="A28" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId106"/>
+    <hyperlink ref="D28" display="280322bf9a41f156f092e9b52d1c6536c386e27b.png" r:id="rId107"/>
+    <hyperlink ref="F28" display="accelerometer-axis-orientation-landscape-180-with-text.png" r:id="rId108"/>
+    <hyperlink ref="G28" display="280322bf9a41f156f092e9b52d1c6536c386e27b.png" r:id="rId109"/>
+    <hyperlink ref="A29" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId110"/>
+    <hyperlink ref="D29" display="dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png" r:id="rId111"/>
+    <hyperlink ref="F29" display="accelerometer-axis-orientation-landscape-180.png" r:id="rId112"/>
+    <hyperlink ref="G29" display="dc7225c2a9f6ad98c98e4e02eeecc555288b4157.png" r:id="rId113"/>
+    <hyperlink ref="A30" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId114"/>
+    <hyperlink ref="D30" display="0d10b05a511c945d903d6bd82be796202912d483.png" r:id="rId115"/>
+    <hyperlink ref="F30" display="accelerometer-axis-orientation-landscape-270.png" r:id="rId116"/>
+    <hyperlink ref="G30" display="0d10b05a511c945d903d6bd82be796202912d483.png" r:id="rId117"/>
+    <hyperlink ref="A31" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId118"/>
+    <hyperlink ref="D31" display="c43ef20d6b9d6422c0306d81e891e519666e3310.png" r:id="rId119"/>
+    <hyperlink ref="F31" display="accelerometer-axis-orientation-landscape-90.png" r:id="rId120"/>
+    <hyperlink ref="G31" display="c43ef20d6b9d6422c0306d81e891e519666e3310.png" r:id="rId121"/>
+    <hyperlink ref="A32" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId122"/>
+    <hyperlink ref="D32" display="d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png" r:id="rId123"/>
+    <hyperlink ref="F32" display="accelerometer-axis-orientation-landscape-with-text.png" r:id="rId124"/>
+    <hyperlink ref="G32" display="d1dfac2bf4fd565909a296de37cdcc7d88b2f66c.png" r:id="rId125"/>
+    <hyperlink ref="A33" display="accelerometer-axis-orientation-landscape.png" r:id="rId126"/>
+    <hyperlink ref="D33" display="db61344d5f58e7e9974e86abc07dd44c3429167a.png" r:id="rId127"/>
+    <hyperlink ref="F33" display="accelerometer-axis-orientation-landscape.png" r:id="rId128"/>
+    <hyperlink ref="G33" display="db61344d5f58e7e9974e86abc07dd44c3429167a.png" r:id="rId129"/>
+    <hyperlink ref="A34" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId130"/>
+    <hyperlink ref="D34" display="90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png" r:id="rId131"/>
+    <hyperlink ref="F34" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId132"/>
+    <hyperlink ref="G34" display="90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png" r:id="rId133"/>
+    <hyperlink ref="A35" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId134"/>
+    <hyperlink ref="D35" display="c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png" r:id="rId135"/>
+    <hyperlink ref="F35" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId136"/>
+    <hyperlink ref="G35" display="c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png" r:id="rId137"/>
+    <hyperlink ref="A36" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId138"/>
+    <hyperlink ref="D36" display="85ca5217a6a62cad158009e9c26a5a9e4607b82a.png" r:id="rId139"/>
+    <hyperlink ref="F36" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId140"/>
+    <hyperlink ref="G36" display="85ca5217a6a62cad158009e9c26a5a9e4607b82a.png" r:id="rId141"/>
     <hyperlink ref="A37" display="accelerometer-axis-orientation-portrait.png" r:id="rId142"/>
-    <hyperlink ref="C37" display="002511e038f43b765ad0e70703796fa3f6f1f54a.png" r:id="rId143"/>
-    <hyperlink ref="E37" display="accelerometer-axis-orientation-portrait.png" r:id="rId144"/>
-    <hyperlink ref="F37" display="002511e038f43b765ad0e70703796fa3f6f1f54a.png" r:id="rId145"/>
-    <hyperlink ref="A38" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId146"/>
-    <hyperlink ref="C38" display="90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png" r:id="rId147"/>
-    <hyperlink ref="E38" display="accelerometer-axis-orientation-portrait-180.png" r:id="rId148"/>
-    <hyperlink ref="F38" display="90c7ecda71cf0000fd5b8bb0adfd17e1e0e03dfd.png" r:id="rId149"/>
-    <hyperlink ref="A39" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId150"/>
-    <hyperlink ref="C39" display="c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png" r:id="rId151"/>
-    <hyperlink ref="E39" display="accelerometer-axis-orientation-portrait-270.png" r:id="rId152"/>
-    <hyperlink ref="F39" display="c19c414d13095c61971d3d0fe7ef2820bfb0d6cc.png" r:id="rId153"/>
-    <hyperlink ref="A40" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId154"/>
-    <hyperlink ref="C40" display="85ca5217a6a62cad158009e9c26a5a9e4607b82a.png" r:id="rId155"/>
-    <hyperlink ref="E40" display="accelerometer-axis-orientation-portrait-90.png" r:id="rId156"/>
-    <hyperlink ref="F40" display="85ca5217a6a62cad158009e9c26a5a9e4607b82a.png" r:id="rId157"/>
-    <hyperlink ref="A41" display="ap-tools.png" r:id="rId158"/>
-    <hyperlink ref="C41" display="1e45b813bb59c1c92dc98602387180ae11d43249.png" r:id="rId159"/>
-    <hyperlink ref="E41" display="ap-tools.png" r:id="rId160"/>
-    <hyperlink ref="F41" display="1e45b813bb59c1c92dc98602387180ae11d43249.png" r:id="rId161"/>
-    <hyperlink ref="A42" display="batchsample.png" r:id="rId162"/>
-    <hyperlink ref="C42" display="5f0f8f74ecf3a67cf978683559ec0994695068fe.png" r:id="rId163"/>
-    <hyperlink ref="E42" display="batchsample.png" r:id="rId164"/>
-    <hyperlink ref="F42" display="5f0f8f74ecf3a67cf978683559ec0994695068fe.png" r:id="rId165"/>
-    <hyperlink ref="A43" display="compass.png" r:id="rId166"/>
-    <hyperlink ref="C43" display="6e4afeadfe36ce4b91f6c9617ee00814924f2770.png" r:id="rId167"/>
-    <hyperlink ref="E43" display="compass.png" r:id="rId168"/>
-    <hyperlink ref="F43" display="6e4afeadfe36ce4b91f6c9617ee00814924f2770.png" r:id="rId169"/>
-    <hyperlink ref="A44" display="eulers-formula.png" r:id="rId170"/>
-    <hyperlink ref="C44" display="4f625926cc2e273d91c1f0179fc5bb3e78fbf3ad.png" r:id="rId171"/>
-    <hyperlink ref="E44" display="eulers-formula.png" r:id="rId172"/>
-    <hyperlink ref="F44" display="4f625926cc2e273d91c1f0179fc5bb3e78fbf3ad.png" r:id="rId173"/>
-    <hyperlink ref="A45" display="gyrometer.png" r:id="rId174"/>
-    <hyperlink ref="C45" display="6084dfebd13ad8f42139027580920b2c316db9a0.png" r:id="rId175"/>
-    <hyperlink ref="E45" display="gyrometer.png" r:id="rId176"/>
-    <hyperlink ref="F45" display="6084dfebd13ad8f42139027580920b2c316db9a0.png" r:id="rId177"/>
-    <hyperlink ref="A46" display="inclinometer.png" r:id="rId178"/>
-    <hyperlink ref="C46" display="edd67b20e8ca923aedcc76f7ee4726c2d302c972.png" r:id="rId179"/>
-    <hyperlink ref="E46" display="inclinometer.png" r:id="rId180"/>
-    <hyperlink ref="F46" display="edd67b20e8ca923aedcc76f7ee4726c2d302c972.png" r:id="rId181"/>
-    <hyperlink ref="A47" display="nfc-architecture.png" r:id="rId182"/>
-    <hyperlink ref="C47" display="58236135d6c51eeca583aa62721d60d2244a3f69.png" r:id="rId183"/>
-    <hyperlink ref="E47" display="nfc-architecture.png" r:id="rId184"/>
-    <hyperlink ref="F47" display="58236135d6c51eeca583aa62721d60d2244a3f69.png" r:id="rId185"/>
-    <hyperlink ref="A48" display="nfc-settings.png" r:id="rId186"/>
-    <hyperlink ref="C48" display="d0ca1c2b792d95199b7c692d4be7852a6413440d.png" r:id="rId187"/>
-    <hyperlink ref="E48" display="nfc-settings.png" r:id="rId188"/>
-    <hyperlink ref="F48" display="d0ca1c2b792d95199b7c692d4be7852a6413440d.png" r:id="rId189"/>
-    <hyperlink ref="A49" display="orientation-formula.png" r:id="rId190"/>
-    <hyperlink ref="C49" display="7245ab445177e9240f9294539c5fa108ccf52add.png" r:id="rId191"/>
-    <hyperlink ref="E49" display="orientation-formula.png" r:id="rId192"/>
-    <hyperlink ref="F49" display="7245ab445177e9240f9294539c5fa108ccf52add.png" r:id="rId193"/>
-    <hyperlink ref="A50" display="orientation-sensor.png" r:id="rId194"/>
-    <hyperlink ref="C50" display="7551619cd5856be67a81dd891dd7b75cafa45877.png" r:id="rId195"/>
-    <hyperlink ref="E50" display="orientation-sensor.png" r:id="rId196"/>
-    <hyperlink ref="F50" display="7551619cd5856be67a81dd891dd7b75cafa45877.png" r:id="rId197"/>
-    <hyperlink ref="A51" display="app-to-app-diagram-600px.png" r:id="rId198"/>
-    <hyperlink ref="C51" display="1223021b5904a53a7ae4f06400037d597608eeea.png" r:id="rId199"/>
-    <hyperlink ref="E51" display="app-to-app-diagram-600px.png" r:id="rId200"/>
-    <hyperlink ref="F51" display="1223021b5904a53a7ae4f06400037d597608eeea.png" r:id="rId201"/>
-    <hyperlink ref="A52" display="phone-media-locations.png" r:id="rId202"/>
-    <hyperlink ref="C52" display="9a5d025932240178a724c75df457cf6e2e3dead6.png" r:id="rId203"/>
-    <hyperlink ref="E52" display="phone-media-locations.png" r:id="rId204"/>
-    <hyperlink ref="F52" display="9a5d025932240178a724c75df457cf6e2e3dead6.png" r:id="rId205"/>
-    <hyperlink ref="A53" display="phone-media-queries.png" r:id="rId206"/>
-    <hyperlink ref="C53" display="c380c2394ff9d39c56af5f382a131a8460a4a136.png" r:id="rId207"/>
-    <hyperlink ref="E53" display="phone-media-queries.png" r:id="rId208"/>
-    <hyperlink ref="F53" display="c380c2394ff9d39c56af5f382a131a8460a4a136.png" r:id="rId209"/>
-    <hyperlink ref="A54" display="picker-multifile-600px.png" r:id="rId210"/>
-    <hyperlink ref="C54" display="6d4b6e3ac9146763af8ef8e02271aafa2047e50c.png" r:id="rId211"/>
-    <hyperlink ref="E54" display="picker-multifile-600px.png" r:id="rId212"/>
-    <hyperlink ref="F54" display="6d4b6e3ac9146763af8ef8e02271aafa2047e50c.png" r:id="rId213"/>
-    <hyperlink ref="A55" display="animation-child-rectangles.gif" r:id="rId214"/>
-    <hyperlink ref="C55" display="2c93f2a215aa9b5e0a5b880a0cafaa790fb9b141.gif" r:id="rId215"/>
-    <hyperlink ref="E55" display="animation-child-rectangles.gif" r:id="rId216"/>
-    <hyperlink ref="F55" display="2c93f2a215aa9b5e0a5b880a0cafaa790fb9b141.gif" r:id="rId217"/>
+    <hyperlink ref="D37" display="002511e038f43b765ad0e70703796fa3f6f1f54a.png" r:id="rId143"/>
+    <hyperlink ref="F37" display="accelerometer-axis-orientation-portrait.png" r:id="rId144"/>
+    <hyperlink ref="G37" display="002511e038f43b765ad0e70703796fa3f6f1f54a.png" r:id="rId145"/>
+    <hyperlink ref="A38" display="accelerometer1.png" r:id="rId146"/>
+    <hyperlink ref="D38" display="34ce1ba42c93457b28691e358831a508597b298f.png" r:id="rId147"/>
+    <hyperlink ref="F38" display="accelerometer1.png" r:id="rId148"/>
+    <hyperlink ref="G38" display="34ce1ba42c93457b28691e358831a508597b298f.png" r:id="rId149"/>
+    <hyperlink ref="A39" display="accelerometer2.png" r:id="rId150"/>
+    <hyperlink ref="D39" display="ad405137416569d6e655743fbf94c8c80f93755c.png" r:id="rId151"/>
+    <hyperlink ref="F39" display="accelerometer2.png" r:id="rId152"/>
+    <hyperlink ref="G39" display="ad405137416569d6e655743fbf94c8c80f93755c.png" r:id="rId153"/>
+    <hyperlink ref="A40" display="ap-tools.png" r:id="rId154"/>
+    <hyperlink ref="D40" display="1e45b813bb59c1c92dc98602387180ae11d43249.png" r:id="rId155"/>
+    <hyperlink ref="F40" display="ap-tools.png" r:id="rId156"/>
+    <hyperlink ref="G40" display="1e45b813bb59c1c92dc98602387180ae11d43249.png" r:id="rId157"/>
+    <hyperlink ref="A41" display="batchsample.png" r:id="rId158"/>
+    <hyperlink ref="D41" display="5f0f8f74ecf3a67cf978683559ec0994695068fe.png" r:id="rId159"/>
+    <hyperlink ref="F41" display="batchsample.png" r:id="rId160"/>
+    <hyperlink ref="G41" display="5f0f8f74ecf3a67cf978683559ec0994695068fe.png" r:id="rId161"/>
+    <hyperlink ref="A42" display="compass.png" r:id="rId162"/>
+    <hyperlink ref="D42" display="6e4afeadfe36ce4b91f6c9617ee00814924f2770.png" r:id="rId163"/>
+    <hyperlink ref="F42" display="compass.png" r:id="rId164"/>
+    <hyperlink ref="G42" display="6e4afeadfe36ce4b91f6c9617ee00814924f2770.png" r:id="rId165"/>
+    <hyperlink ref="A43" display="eulers-formula.png" r:id="rId166"/>
+    <hyperlink ref="D43" display="4f625926cc2e273d91c1f0179fc5bb3e78fbf3ad.png" r:id="rId167"/>
+    <hyperlink ref="F43" display="eulers-formula.png" r:id="rId168"/>
+    <hyperlink ref="G43" display="4f625926cc2e273d91c1f0179fc5bb3e78fbf3ad.png" r:id="rId169"/>
+    <hyperlink ref="A44" display="gyrometer.png" r:id="rId170"/>
+    <hyperlink ref="D44" display="6084dfebd13ad8f42139027580920b2c316db9a0.png" r:id="rId171"/>
+    <hyperlink ref="F44" display="gyrometer.png" r:id="rId172"/>
+    <hyperlink ref="G44" display="6084dfebd13ad8f42139027580920b2c316db9a0.png" r:id="rId173"/>
+    <hyperlink ref="A45" display="inclinometer.png" r:id="rId174"/>
+    <hyperlink ref="D45" display="edd67b20e8ca923aedcc76f7ee4726c2d302c972.png" r:id="rId175"/>
+    <hyperlink ref="F45" display="inclinometer.png" r:id="rId176"/>
+    <hyperlink ref="G45" display="edd67b20e8ca923aedcc76f7ee4726c2d302c972.png" r:id="rId177"/>
+    <hyperlink ref="A46" display="nfc-architecture.png" r:id="rId178"/>
+    <hyperlink ref="D46" display="58236135d6c51eeca583aa62721d60d2244a3f69.png" r:id="rId179"/>
+    <hyperlink ref="F46" display="nfc-architecture.png" r:id="rId180"/>
+    <hyperlink ref="G46" display="58236135d6c51eeca583aa62721d60d2244a3f69.png" r:id="rId181"/>
+    <hyperlink ref="A47" display="nfc-settings.png" r:id="rId182"/>
+    <hyperlink ref="D47" display="d0ca1c2b792d95199b7c692d4be7852a6413440d.png" r:id="rId183"/>
+    <hyperlink ref="F47" display="nfc-settings.png" r:id="rId184"/>
+    <hyperlink ref="G47" display="d0ca1c2b792d95199b7c692d4be7852a6413440d.png" r:id="rId185"/>
+    <hyperlink ref="A48" display="orientation-formula.png" r:id="rId186"/>
+    <hyperlink ref="D48" display="7245ab445177e9240f9294539c5fa108ccf52add.png" r:id="rId187"/>
+    <hyperlink ref="F48" display="orientation-formula.png" r:id="rId188"/>
+    <hyperlink ref="G48" display="7245ab445177e9240f9294539c5fa108ccf52add.png" r:id="rId189"/>
+    <hyperlink ref="A49" display="orientation-sensor.png" r:id="rId190"/>
+    <hyperlink ref="D49" display="7551619cd5856be67a81dd891dd7b75cafa45877.png" r:id="rId191"/>
+    <hyperlink ref="F49" display="orientation-sensor.png" r:id="rId192"/>
+    <hyperlink ref="G49" display="7551619cd5856be67a81dd891dd7b75cafa45877.png" r:id="rId193"/>
+    <hyperlink ref="A50" display="app-to-app-diagram-600px.png" r:id="rId194"/>
+    <hyperlink ref="D50" display="1223021b5904a53a7ae4f06400037d597608eeea.png" r:id="rId195"/>
+    <hyperlink ref="F50" display="app-to-app-diagram-600px.png" r:id="rId196"/>
+    <hyperlink ref="G50" display="1223021b5904a53a7ae4f06400037d597608eeea.png" r:id="rId197"/>
+    <hyperlink ref="A51" display="phone-media-locations.png" r:id="rId198"/>
+    <hyperlink ref="D51" display="9a5d025932240178a724c75df457cf6e2e3dead6.png" r:id="rId199"/>
+    <hyperlink ref="F51" display="phone-media-locations.png" r:id="rId200"/>
+    <hyperlink ref="G51" display="9a5d025932240178a724c75df457cf6e2e3dead6.png" r:id="rId201"/>
+    <hyperlink ref="A52" display="phone-media-queries.png" r:id="rId202"/>
+    <hyperlink ref="D52" display="c380c2394ff9d39c56af5f382a131a8460a4a136.png" r:id="rId203"/>
+    <hyperlink ref="F52" display="phone-media-queries.png" r:id="rId204"/>
+    <hyperlink ref="G52" display="c380c2394ff9d39c56af5f382a131a8460a4a136.png" r:id="rId205"/>
+    <hyperlink ref="A53" display="picker-multifile-600px.png" r:id="rId206"/>
+    <hyperlink ref="D53" display="6d4b6e3ac9146763af8ef8e02271aafa2047e50c.png" r:id="rId207"/>
+    <hyperlink ref="F53" display="picker-multifile-600px.png" r:id="rId208"/>
+    <hyperlink ref="G53" display="6d4b6e3ac9146763af8ef8e02271aafa2047e50c.png" r:id="rId209"/>
+    <hyperlink ref="A54" display="animation-child-rectangles.gif" r:id="rId210"/>
+    <hyperlink ref="D54" display="2c93f2a215aa9b5e0a5b880a0cafaa790fb9b141.gif" r:id="rId211"/>
+    <hyperlink ref="F54" display="animation-child-rectangles.gif" r:id="rId212"/>
+    <hyperlink ref="G54" display="2c93f2a215aa9b5e0a5b880a0cafaa790fb9b141.gif" r:id="rId213"/>
+    <hyperlink ref="A55" display="test-xliff-2.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.fr-fr.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="test-xliff-2.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.fr-fr.xlf" r:id="rId217"/>
     <hyperlink ref="A56" display="attestation_driver_signing_submission_dashboard.png" r:id="rId218"/>
-    <hyperlink ref="C56" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId219"/>
-    <hyperlink ref="E56" display="attestation_driver_signing_submission_dashboard.png" r:id="rId220"/>
-    <hyperlink ref="F56" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId221"/>
+    <hyperlink ref="D56" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId219"/>
+    <hyperlink ref="F56" display="attestation_driver_signing_submission_dashboard.png" r:id="rId220"/>
+    <hyperlink ref="G56" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId221"/>
     <hyperlink ref="A57" display="b_wes_driversigning_v2.png" r:id="rId222"/>
-    <hyperlink ref="C57" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId223"/>
-    <hyperlink ref="E57" display="b_wes_driversigning_v2.png" r:id="rId224"/>
-    <hyperlink ref="F57" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId225"/>
+    <hyperlink ref="D57" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId223"/>
+    <hyperlink ref="F57" display="b_wes_driversigning_v2.png" r:id="rId224"/>
+    <hyperlink ref="G57" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId225"/>
     <hyperlink ref="A58" display="ert_test_results.png" r:id="rId226"/>
-    <hyperlink ref="C58" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId227"/>
-    <hyperlink ref="E58" display="ert_test_results.png" r:id="rId228"/>
-    <hyperlink ref="F58" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId229"/>
+    <hyperlink ref="D58" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId227"/>
+    <hyperlink ref="F58" display="ert_test_results.png" r:id="rId228"/>
+    <hyperlink ref="G58" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId229"/>
     <hyperlink ref="A59" display="MultipleDriversSingleSolution.png" r:id="rId230"/>
-    <hyperlink ref="C59" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId231"/>
-    <hyperlink ref="E59" display="MultipleDriversSingleSolution.png" r:id="rId232"/>
-    <hyperlink ref="F59" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId233"/>
+    <hyperlink ref="D59" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId231"/>
+    <hyperlink ref="F59" display="MultipleDriversSingleSolution.png" r:id="rId232"/>
+    <hyperlink ref="G59" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId233"/>
     <hyperlink ref="A60" display="SigningADriver01.png" r:id="rId234"/>
-    <hyperlink ref="C60" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId235"/>
-    <hyperlink ref="E60" display="SigningADriver01.png" r:id="rId236"/>
-    <hyperlink ref="F60" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId237"/>
+    <hyperlink ref="D60" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId235"/>
+    <hyperlink ref="F60" display="SigningADriver01.png" r:id="rId236"/>
+    <hyperlink ref="G60" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId237"/>
     <hyperlink ref="A61" display="TargetPlatform.png" r:id="rId238"/>
-    <hyperlink ref="C61" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId239"/>
-    <hyperlink ref="E61" display="TargetPlatform.png" r:id="rId240"/>
-    <hyperlink ref="F61" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId241"/>
+    <hyperlink ref="D61" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId239"/>
+    <hyperlink ref="F61" display="TargetPlatform.png" r:id="rId240"/>
+    <hyperlink ref="G61" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId241"/>
     <hyperlink ref="A62" display="VsDrvrPkgProps.png" r:id="rId242"/>
-    <hyperlink ref="C62" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId243"/>
-    <hyperlink ref="E62" display="VsDrvrPkgProps.png" r:id="rId244"/>
-    <hyperlink ref="F62" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId245"/>
+    <hyperlink ref="D62" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId243"/>
+    <hyperlink ref="F62" display="VsDrvrPkgProps.png" r:id="rId244"/>
+    <hyperlink ref="G62" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId245"/>
     <hyperlink ref="A63" display="VsSlnExplorer.png" r:id="rId246"/>
-    <hyperlink ref="C63" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId247"/>
-    <hyperlink ref="E63" display="VsSlnExplorer.png" r:id="rId248"/>
-    <hyperlink ref="F63" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId249"/>
+    <hyperlink ref="D63" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId247"/>
+    <hyperlink ref="F63" display="VsSlnExplorer.png" r:id="rId248"/>
+    <hyperlink ref="G63" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId249"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3040,7 +3512,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3055,6 +3527,9 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3084,6 +3559,15 @@
       </c>
       <c r="I1" s="0" t="s">
         <v>73</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1907">
   <si>
     <t>File Name</t>
   </si>
@@ -5432,6 +5432,9 @@
   </si>
   <si>
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-19 11:41:08</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>
@@ -74536,7 +74539,7 @@
         <v>1805</v>
       </c>
       <c r="J1082" s="2" t="s">
-        <v>994</v>
+        <v>1806</v>
       </c>
       <c r="K1082" s="0" t="s">
         <v>793</v>
@@ -74565,7 +74568,7 @@
         <v>6</v>
       </c>
       <c r="D1083" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1083" s="0" t="s">
         <v>793</v>
@@ -74612,13 +74615,13 @@
         <v>6</v>
       </c>
       <c r="D1084" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1084" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1084" s="0" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G1084" s="2" t="s">
         <v>7</v>
@@ -74627,7 +74630,7 @@
         <v>387</v>
       </c>
       <c r="I1084" s="0" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="J1084" s="2" t="s">
         <v>795</v>
@@ -74659,7 +74662,7 @@
         <v>6</v>
       </c>
       <c r="D1085" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1085" s="0" t="s">
         <v>793</v>
@@ -74706,7 +74709,7 @@
         <v>6</v>
       </c>
       <c r="D1086" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1086" s="0" t="s">
         <v>793</v>
@@ -74753,13 +74756,13 @@
         <v>6</v>
       </c>
       <c r="D1087" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1087" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1087" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="G1087" s="2" t="s">
         <v>7</v>
@@ -74768,7 +74771,7 @@
         <v>390</v>
       </c>
       <c r="I1087" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="J1087" s="2" t="s">
         <v>795</v>
@@ -74800,7 +74803,7 @@
         <v>6</v>
       </c>
       <c r="D1088" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1088" s="0" t="s">
         <v>793</v>
@@ -74847,7 +74850,7 @@
         <v>6</v>
       </c>
       <c r="D1089" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1089" s="0" t="s">
         <v>793</v>
@@ -74894,7 +74897,7 @@
         <v>6</v>
       </c>
       <c r="D1090" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1090" s="0" t="s">
         <v>793</v>
@@ -74941,7 +74944,7 @@
         <v>6</v>
       </c>
       <c r="D1091" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1091" s="0" t="s">
         <v>793</v>
@@ -74988,7 +74991,7 @@
         <v>6</v>
       </c>
       <c r="D1092" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1092" s="0" t="s">
         <v>793</v>
@@ -75035,13 +75038,13 @@
         <v>6</v>
       </c>
       <c r="D1093" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1093" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1093" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G1093" s="2" t="s">
         <v>7</v>
@@ -75050,7 +75053,7 @@
         <v>395</v>
       </c>
       <c r="I1093" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J1093" s="2" t="s">
         <v>795</v>
@@ -75082,13 +75085,13 @@
         <v>6</v>
       </c>
       <c r="D1094" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1094" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1094" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G1094" s="2" t="s">
         <v>7</v>
@@ -75097,7 +75100,7 @@
         <v>396</v>
       </c>
       <c r="I1094" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J1094" s="2" t="s">
         <v>795</v>
@@ -75129,7 +75132,7 @@
         <v>6</v>
       </c>
       <c r="D1095" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1095" s="0" t="s">
         <v>793</v>
@@ -75176,13 +75179,13 @@
         <v>6</v>
       </c>
       <c r="D1096" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1096" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1096" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G1096" s="2" t="s">
         <v>7</v>
@@ -75191,7 +75194,7 @@
         <v>398</v>
       </c>
       <c r="I1096" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="J1096" s="2" t="s">
         <v>795</v>
@@ -75223,13 +75226,13 @@
         <v>6</v>
       </c>
       <c r="D1097" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1097" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1097" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G1097" s="2" t="s">
         <v>7</v>
@@ -75238,7 +75241,7 @@
         <v>399</v>
       </c>
       <c r="I1097" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="J1097" s="2" t="s">
         <v>795</v>
@@ -75270,13 +75273,13 @@
         <v>6</v>
       </c>
       <c r="D1098" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1098" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1098" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G1098" s="2" t="s">
         <v>7</v>
@@ -75285,7 +75288,7 @@
         <v>400</v>
       </c>
       <c r="I1098" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="J1098" s="2" t="s">
         <v>795</v>
@@ -75317,13 +75320,13 @@
         <v>6</v>
       </c>
       <c r="D1099" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1099" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1099" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="G1099" s="2" t="s">
         <v>7</v>
@@ -75332,7 +75335,7 @@
         <v>401</v>
       </c>
       <c r="I1099" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J1099" s="2" t="s">
         <v>795</v>
@@ -75364,13 +75367,13 @@
         <v>6</v>
       </c>
       <c r="D1100" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1100" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1100" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G1100" s="2" t="s">
         <v>7</v>
@@ -75379,7 +75382,7 @@
         <v>402</v>
       </c>
       <c r="I1100" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J1100" s="2" t="s">
         <v>795</v>
@@ -75411,13 +75414,13 @@
         <v>6</v>
       </c>
       <c r="D1101" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1101" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1101" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G1101" s="2" t="s">
         <v>7</v>
@@ -75426,7 +75429,7 @@
         <v>403</v>
       </c>
       <c r="I1101" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J1101" s="2" t="s">
         <v>795</v>
@@ -75458,13 +75461,13 @@
         <v>6</v>
       </c>
       <c r="D1102" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1102" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1102" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="G1102" s="2" t="s">
         <v>7</v>
@@ -75473,7 +75476,7 @@
         <v>404</v>
       </c>
       <c r="I1102" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>795</v>
@@ -75505,13 +75508,13 @@
         <v>6</v>
       </c>
       <c r="D1103" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1103" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1103" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G1103" s="2" t="s">
         <v>7</v>
@@ -75520,7 +75523,7 @@
         <v>405</v>
       </c>
       <c r="I1103" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J1103" s="2" t="s">
         <v>795</v>
@@ -75552,13 +75555,13 @@
         <v>6</v>
       </c>
       <c r="D1104" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1104" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1104" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="G1104" s="2" t="s">
         <v>7</v>
@@ -75567,7 +75570,7 @@
         <v>406</v>
       </c>
       <c r="I1104" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="J1104" s="2" t="s">
         <v>795</v>
@@ -75599,13 +75602,13 @@
         <v>6</v>
       </c>
       <c r="D1105" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1105" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1105" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="G1105" s="2" t="s">
         <v>7</v>
@@ -75614,7 +75617,7 @@
         <v>407</v>
       </c>
       <c r="I1105" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J1105" s="2" t="s">
         <v>795</v>
@@ -75646,13 +75649,13 @@
         <v>6</v>
       </c>
       <c r="D1106" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1106" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1106" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G1106" s="2" t="s">
         <v>7</v>
@@ -75661,7 +75664,7 @@
         <v>408</v>
       </c>
       <c r="I1106" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J1106" s="2" t="s">
         <v>795</v>
@@ -75693,7 +75696,7 @@
         <v>6</v>
       </c>
       <c r="D1107" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1107" s="0" t="s">
         <v>793</v>
@@ -75740,7 +75743,7 @@
         <v>6</v>
       </c>
       <c r="D1108" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1108" s="0" t="s">
         <v>793</v>
@@ -75787,7 +75790,7 @@
         <v>6</v>
       </c>
       <c r="D1109" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1109" s="0" t="s">
         <v>793</v>
@@ -75834,13 +75837,13 @@
         <v>6</v>
       </c>
       <c r="D1110" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1110" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1110" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="G1110" s="2" t="s">
         <v>7</v>
@@ -75849,7 +75852,7 @@
         <v>412</v>
       </c>
       <c r="I1110" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J1110" s="2" t="s">
         <v>795</v>
@@ -75881,7 +75884,7 @@
         <v>6</v>
       </c>
       <c r="D1111" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1111" s="0" t="s">
         <v>793</v>
@@ -75928,7 +75931,7 @@
         <v>6</v>
       </c>
       <c r="D1112" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E1112" s="0" t="s">
         <v>793</v>
@@ -75981,7 +75984,7 @@
         <v>793</v>
       </c>
       <c r="F1113" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G1113" s="2" t="s">
         <v>7</v>
@@ -75990,7 +75993,7 @@
         <v>704</v>
       </c>
       <c r="I1113" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J1113" s="2" t="s">
         <v>795</v>
@@ -76022,13 +76025,13 @@
         <v>6</v>
       </c>
       <c r="D1114" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E1114" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1114" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="G1114" s="2" t="s">
         <v>7</v>
@@ -76037,7 +76040,7 @@
         <v>705</v>
       </c>
       <c r="I1114" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J1114" s="2" t="s">
         <v>795</v>
@@ -76069,13 +76072,13 @@
         <v>6</v>
       </c>
       <c r="D1115" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E1115" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1115" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G1115" s="2" t="s">
         <v>7</v>
@@ -76084,7 +76087,7 @@
         <v>706</v>
       </c>
       <c r="I1115" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="J1115" s="2" t="s">
         <v>795</v>
@@ -76116,13 +76119,13 @@
         <v>6</v>
       </c>
       <c r="D1116" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E1116" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1116" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="G1116" s="2" t="s">
         <v>7</v>
@@ -76131,7 +76134,7 @@
         <v>707</v>
       </c>
       <c r="I1116" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="J1116" s="2" t="s">
         <v>795</v>
@@ -76163,13 +76166,13 @@
         <v>6</v>
       </c>
       <c r="D1117" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E1117" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1117" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="G1117" s="2" t="s">
         <v>7</v>
@@ -76178,7 +76181,7 @@
         <v>708</v>
       </c>
       <c r="I1117" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J1117" s="2" t="s">
         <v>795</v>
@@ -76216,7 +76219,7 @@
         <v>793</v>
       </c>
       <c r="F1118" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G1118" s="2" t="s">
         <v>7</v>
@@ -76225,10 +76228,10 @@
         <v>709</v>
       </c>
       <c r="I1118" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J1118" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="K1118" s="0" t="s">
         <v>793</v>
@@ -76263,7 +76266,7 @@
         <v>793</v>
       </c>
       <c r="F1119" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="G1119" s="2" t="s">
         <v>7</v>
@@ -76272,7 +76275,7 @@
         <v>365</v>
       </c>
       <c r="I1119" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J1119" s="2" t="s">
         <v>795</v>
@@ -76304,13 +76307,13 @@
         <v>6</v>
       </c>
       <c r="D1120" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1120" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1120" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G1120" s="2" t="s">
         <v>7</v>
@@ -76319,7 +76322,7 @@
         <v>710</v>
       </c>
       <c r="I1120" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="J1120" s="2" t="s">
         <v>795</v>
@@ -76351,13 +76354,13 @@
         <v>6</v>
       </c>
       <c r="D1121" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1121" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1121" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G1121" s="2" t="s">
         <v>7</v>
@@ -76366,7 +76369,7 @@
         <v>711</v>
       </c>
       <c r="I1121" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J1121" s="2" t="s">
         <v>795</v>
@@ -76398,13 +76401,13 @@
         <v>6</v>
       </c>
       <c r="D1122" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1122" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1122" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="G1122" s="2" t="s">
         <v>7</v>
@@ -76413,7 +76416,7 @@
         <v>712</v>
       </c>
       <c r="I1122" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J1122" s="2" t="s">
         <v>795</v>
@@ -76445,13 +76448,13 @@
         <v>6</v>
       </c>
       <c r="D1123" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1123" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1123" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G1123" s="2" t="s">
         <v>7</v>
@@ -76460,7 +76463,7 @@
         <v>713</v>
       </c>
       <c r="I1123" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J1123" s="2" t="s">
         <v>795</v>
@@ -76492,13 +76495,13 @@
         <v>6</v>
       </c>
       <c r="D1124" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1124" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1124" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="G1124" s="2" t="s">
         <v>7</v>
@@ -76507,7 +76510,7 @@
         <v>714</v>
       </c>
       <c r="I1124" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J1124" s="2" t="s">
         <v>795</v>
@@ -76539,13 +76542,13 @@
         <v>6</v>
       </c>
       <c r="D1125" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1125" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1125" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="G1125" s="2" t="s">
         <v>7</v>
@@ -76554,7 +76557,7 @@
         <v>715</v>
       </c>
       <c r="I1125" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="J1125" s="2" t="s">
         <v>795</v>
@@ -76586,13 +76589,13 @@
         <v>6</v>
       </c>
       <c r="D1126" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1126" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1126" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G1126" s="2" t="s">
         <v>7</v>
@@ -76601,7 +76604,7 @@
         <v>716</v>
       </c>
       <c r="I1126" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J1126" s="2" t="s">
         <v>795</v>
@@ -76633,13 +76636,13 @@
         <v>6</v>
       </c>
       <c r="D1127" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1127" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1127" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G1127" s="2" t="s">
         <v>7</v>
@@ -76648,7 +76651,7 @@
         <v>717</v>
       </c>
       <c r="I1127" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="J1127" s="2" t="s">
         <v>795</v>
@@ -76680,13 +76683,13 @@
         <v>6</v>
       </c>
       <c r="D1128" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1128" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1128" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="G1128" s="2" t="s">
         <v>7</v>
@@ -76695,7 +76698,7 @@
         <v>718</v>
       </c>
       <c r="I1128" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J1128" s="2" t="s">
         <v>795</v>
@@ -76727,13 +76730,13 @@
         <v>6</v>
       </c>
       <c r="D1129" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1129" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1129" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G1129" s="2" t="s">
         <v>7</v>
@@ -76742,7 +76745,7 @@
         <v>719</v>
       </c>
       <c r="I1129" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J1129" s="2" t="s">
         <v>795</v>
@@ -76774,13 +76777,13 @@
         <v>6</v>
       </c>
       <c r="D1130" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1130" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1130" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="G1130" s="2" t="s">
         <v>7</v>
@@ -76789,7 +76792,7 @@
         <v>720</v>
       </c>
       <c r="I1130" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="J1130" s="2" t="s">
         <v>795</v>
@@ -76821,13 +76824,13 @@
         <v>6</v>
       </c>
       <c r="D1131" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1131" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1131" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G1131" s="2" t="s">
         <v>7</v>
@@ -76836,7 +76839,7 @@
         <v>721</v>
       </c>
       <c r="I1131" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J1131" s="2" t="s">
         <v>795</v>
@@ -76868,13 +76871,13 @@
         <v>6</v>
       </c>
       <c r="D1132" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1132" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1132" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G1132" s="2" t="s">
         <v>7</v>
@@ -76883,7 +76886,7 @@
         <v>722</v>
       </c>
       <c r="I1132" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J1132" s="2" t="s">
         <v>795</v>
@@ -76915,13 +76918,13 @@
         <v>6</v>
       </c>
       <c r="D1133" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1133" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1133" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="G1133" s="2" t="s">
         <v>7</v>
@@ -76930,7 +76933,7 @@
         <v>723</v>
       </c>
       <c r="I1133" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J1133" s="2" t="s">
         <v>795</v>
@@ -76962,13 +76965,13 @@
         <v>6</v>
       </c>
       <c r="D1134" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1134" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1134" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="G1134" s="2" t="s">
         <v>7</v>
@@ -76977,7 +76980,7 @@
         <v>724</v>
       </c>
       <c r="I1134" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J1134" s="2" t="s">
         <v>795</v>
@@ -77009,13 +77012,13 @@
         <v>6</v>
       </c>
       <c r="D1135" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1135" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1135" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G1135" s="2" t="s">
         <v>7</v>
@@ -77024,7 +77027,7 @@
         <v>725</v>
       </c>
       <c r="I1135" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J1135" s="2" t="s">
         <v>795</v>
@@ -77056,13 +77059,13 @@
         <v>6</v>
       </c>
       <c r="D1136" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1136" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1136" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="G1136" s="2" t="s">
         <v>7</v>
@@ -77071,7 +77074,7 @@
         <v>726</v>
       </c>
       <c r="I1136" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J1136" s="2" t="s">
         <v>795</v>
@@ -77103,13 +77106,13 @@
         <v>6</v>
       </c>
       <c r="D1137" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1137" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1137" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="G1137" s="2" t="s">
         <v>7</v>
@@ -77118,7 +77121,7 @@
         <v>727</v>
       </c>
       <c r="I1137" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J1137" s="2" t="s">
         <v>795</v>
@@ -77150,13 +77153,13 @@
         <v>6</v>
       </c>
       <c r="D1138" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1138" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1138" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="G1138" s="2" t="s">
         <v>7</v>
@@ -77165,7 +77168,7 @@
         <v>728</v>
       </c>
       <c r="I1138" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J1138" s="2" t="s">
         <v>795</v>
@@ -77197,13 +77200,13 @@
         <v>6</v>
       </c>
       <c r="D1139" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1139" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1139" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="G1139" s="2" t="s">
         <v>7</v>
@@ -77212,7 +77215,7 @@
         <v>729</v>
       </c>
       <c r="I1139" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J1139" s="2" t="s">
         <v>795</v>
@@ -77244,13 +77247,13 @@
         <v>6</v>
       </c>
       <c r="D1140" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1140" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1140" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="G1140" s="2" t="s">
         <v>7</v>
@@ -77259,7 +77262,7 @@
         <v>730</v>
       </c>
       <c r="I1140" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J1140" s="2" t="s">
         <v>795</v>
@@ -77291,13 +77294,13 @@
         <v>6</v>
       </c>
       <c r="D1141" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1141" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1141" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G1141" s="2" t="s">
         <v>7</v>
@@ -77306,7 +77309,7 @@
         <v>731</v>
       </c>
       <c r="I1141" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J1141" s="2" t="s">
         <v>795</v>
@@ -77338,13 +77341,13 @@
         <v>6</v>
       </c>
       <c r="D1142" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1142" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1142" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="G1142" s="2" t="s">
         <v>7</v>
@@ -77353,7 +77356,7 @@
         <v>732</v>
       </c>
       <c r="I1142" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J1142" s="2" t="s">
         <v>795</v>
@@ -77385,13 +77388,13 @@
         <v>6</v>
       </c>
       <c r="D1143" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1143" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1143" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="G1143" s="2" t="s">
         <v>7</v>
@@ -77400,7 +77403,7 @@
         <v>733</v>
       </c>
       <c r="I1143" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J1143" s="2" t="s">
         <v>795</v>
@@ -77432,13 +77435,13 @@
         <v>6</v>
       </c>
       <c r="D1144" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1144" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1144" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="G1144" s="2" t="s">
         <v>7</v>
@@ -77447,7 +77450,7 @@
         <v>734</v>
       </c>
       <c r="I1144" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J1144" s="2" t="s">
         <v>795</v>
@@ -77479,13 +77482,13 @@
         <v>6</v>
       </c>
       <c r="D1145" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1145" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1145" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G1145" s="2" t="s">
         <v>7</v>
@@ -77494,7 +77497,7 @@
         <v>735</v>
       </c>
       <c r="I1145" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J1145" s="2" t="s">
         <v>795</v>
@@ -77526,13 +77529,13 @@
         <v>6</v>
       </c>
       <c r="D1146" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1146" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1146" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="G1146" s="2" t="s">
         <v>7</v>
@@ -77541,7 +77544,7 @@
         <v>736</v>
       </c>
       <c r="I1146" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J1146" s="2" t="s">
         <v>795</v>
@@ -77573,13 +77576,13 @@
         <v>6</v>
       </c>
       <c r="D1147" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1147" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1147" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G1147" s="2" t="s">
         <v>7</v>
@@ -77588,7 +77591,7 @@
         <v>737</v>
       </c>
       <c r="I1147" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J1147" s="2" t="s">
         <v>795</v>
@@ -77620,13 +77623,13 @@
         <v>6</v>
       </c>
       <c r="D1148" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1148" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1148" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G1148" s="2" t="s">
         <v>7</v>
@@ -77635,7 +77638,7 @@
         <v>738</v>
       </c>
       <c r="I1148" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="J1148" s="2" t="s">
         <v>795</v>
@@ -77667,13 +77670,13 @@
         <v>6</v>
       </c>
       <c r="D1149" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1149" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1149" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G1149" s="2" t="s">
         <v>7</v>
@@ -77682,7 +77685,7 @@
         <v>739</v>
       </c>
       <c r="I1149" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="J1149" s="2" t="s">
         <v>851</v>
@@ -77694,7 +77697,7 @@
         <v>802</v>
       </c>
       <c r="M1149" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="N1149" s="0" t="s">
         <v>797</v>
@@ -77714,13 +77717,13 @@
         <v>6</v>
       </c>
       <c r="D1150" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1150" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1150" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="G1150" s="2" t="s">
         <v>7</v>
@@ -77729,7 +77732,7 @@
         <v>740</v>
       </c>
       <c r="I1150" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J1150" s="2" t="s">
         <v>851</v>
@@ -77741,7 +77744,7 @@
         <v>802</v>
       </c>
       <c r="M1150" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="N1150" s="0" t="s">
         <v>797</v>
@@ -77761,13 +77764,13 @@
         <v>6</v>
       </c>
       <c r="D1151" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1151" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1151" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="G1151" s="2" t="s">
         <v>7</v>
@@ -77776,7 +77779,7 @@
         <v>741</v>
       </c>
       <c r="I1151" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J1151" s="2" t="s">
         <v>851</v>
@@ -77788,7 +77791,7 @@
         <v>802</v>
       </c>
       <c r="M1151" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="N1151" s="0" t="s">
         <v>797</v>
@@ -77808,13 +77811,13 @@
         <v>6</v>
       </c>
       <c r="D1152" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1152" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1152" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G1152" s="2" t="s">
         <v>7</v>
@@ -77823,7 +77826,7 @@
         <v>742</v>
       </c>
       <c r="I1152" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J1152" s="2" t="s">
         <v>851</v>
@@ -77835,7 +77838,7 @@
         <v>802</v>
       </c>
       <c r="M1152" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="N1152" s="0" t="s">
         <v>797</v>
@@ -77855,13 +77858,13 @@
         <v>6</v>
       </c>
       <c r="D1153" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1153" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1153" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="G1153" s="2" t="s">
         <v>7</v>
@@ -77870,7 +77873,7 @@
         <v>743</v>
       </c>
       <c r="I1153" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="J1153" s="2" t="s">
         <v>851</v>
@@ -77882,7 +77885,7 @@
         <v>802</v>
       </c>
       <c r="M1153" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N1153" s="0" t="s">
         <v>797</v>
@@ -77902,13 +77905,13 @@
         <v>6</v>
       </c>
       <c r="D1154" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1154" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1154" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G1154" s="2" t="s">
         <v>7</v>
@@ -77917,7 +77920,7 @@
         <v>744</v>
       </c>
       <c r="I1154" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="J1154" s="2" t="s">
         <v>851</v>
@@ -77929,7 +77932,7 @@
         <v>802</v>
       </c>
       <c r="M1154" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N1154" s="0" t="s">
         <v>797</v>
@@ -77949,13 +77952,13 @@
         <v>6</v>
       </c>
       <c r="D1155" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1155" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1155" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G1155" s="2" t="s">
         <v>7</v>
@@ -77964,7 +77967,7 @@
         <v>745</v>
       </c>
       <c r="I1155" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="J1155" s="2" t="s">
         <v>851</v>
@@ -77976,7 +77979,7 @@
         <v>802</v>
       </c>
       <c r="M1155" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="N1155" s="0" t="s">
         <v>797</v>
@@ -77996,13 +77999,13 @@
         <v>6</v>
       </c>
       <c r="D1156" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E1156" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1156" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="G1156" s="2" t="s">
         <v>7</v>
@@ -78011,7 +78014,7 @@
         <v>746</v>
       </c>
       <c r="I1156" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="J1156" s="2" t="s">
         <v>851</v>
@@ -78023,7 +78026,7 @@
         <v>802</v>
       </c>
       <c r="M1156" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="N1156" s="0" t="s">
         <v>797</v>
@@ -78043,13 +78046,13 @@
         <v>6</v>
       </c>
       <c r="D1157" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1157" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1157" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="G1157" s="2" t="s">
         <v>7</v>
@@ -78058,7 +78061,7 @@
         <v>747</v>
       </c>
       <c r="I1157" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="J1157" s="2" t="s">
         <v>795</v>
@@ -78090,13 +78093,13 @@
         <v>6</v>
       </c>
       <c r="D1158" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1158" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1158" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G1158" s="2" t="s">
         <v>7</v>
@@ -78105,7 +78108,7 @@
         <v>748</v>
       </c>
       <c r="I1158" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J1158" s="2" t="s">
         <v>795</v>
@@ -78137,13 +78140,13 @@
         <v>6</v>
       </c>
       <c r="D1159" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1159" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1159" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G1159" s="2" t="s">
         <v>7</v>
@@ -78152,7 +78155,7 @@
         <v>749</v>
       </c>
       <c r="I1159" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="J1159" s="2" t="s">
         <v>795</v>
@@ -78184,13 +78187,13 @@
         <v>6</v>
       </c>
       <c r="D1160" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1160" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1160" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="G1160" s="2" t="s">
         <v>7</v>
@@ -78199,7 +78202,7 @@
         <v>750</v>
       </c>
       <c r="I1160" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="J1160" s="2" t="s">
         <v>795</v>
@@ -78231,13 +78234,13 @@
         <v>6</v>
       </c>
       <c r="D1161" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1161" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1161" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="G1161" s="2" t="s">
         <v>7</v>
@@ -78246,7 +78249,7 @@
         <v>751</v>
       </c>
       <c r="I1161" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J1161" s="2" t="s">
         <v>795</v>
@@ -78278,13 +78281,13 @@
         <v>6</v>
       </c>
       <c r="D1162" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1162" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1162" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="G1162" s="2" t="s">
         <v>7</v>
@@ -78293,7 +78296,7 @@
         <v>752</v>
       </c>
       <c r="I1162" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J1162" s="2" t="s">
         <v>795</v>
@@ -78325,13 +78328,13 @@
         <v>6</v>
       </c>
       <c r="D1163" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1163" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1163" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="G1163" s="2" t="s">
         <v>7</v>
@@ -78340,7 +78343,7 @@
         <v>753</v>
       </c>
       <c r="I1163" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="J1163" s="2" t="s">
         <v>795</v>
@@ -78372,13 +78375,13 @@
         <v>6</v>
       </c>
       <c r="D1164" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1164" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1164" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G1164" s="2" t="s">
         <v>7</v>
@@ -78387,7 +78390,7 @@
         <v>754</v>
       </c>
       <c r="I1164" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J1164" s="2" t="s">
         <v>795</v>
@@ -78419,13 +78422,13 @@
         <v>6</v>
       </c>
       <c r="D1165" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1165" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1165" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="G1165" s="2" t="s">
         <v>7</v>
@@ -78434,7 +78437,7 @@
         <v>755</v>
       </c>
       <c r="I1165" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="J1165" s="2" t="s">
         <v>795</v>
@@ -78466,13 +78469,13 @@
         <v>6</v>
       </c>
       <c r="D1166" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1166" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1166" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G1166" s="2" t="s">
         <v>7</v>
@@ -78481,7 +78484,7 @@
         <v>756</v>
       </c>
       <c r="I1166" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J1166" s="2" t="s">
         <v>795</v>
@@ -78513,13 +78516,13 @@
         <v>6</v>
       </c>
       <c r="D1167" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1167" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1167" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="G1167" s="2" t="s">
         <v>7</v>
@@ -78528,7 +78531,7 @@
         <v>757</v>
       </c>
       <c r="I1167" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="J1167" s="2" t="s">
         <v>795</v>
@@ -78560,13 +78563,13 @@
         <v>6</v>
       </c>
       <c r="D1168" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1168" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1168" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G1168" s="2" t="s">
         <v>7</v>
@@ -78575,7 +78578,7 @@
         <v>758</v>
       </c>
       <c r="I1168" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J1168" s="2" t="s">
         <v>795</v>
@@ -78607,13 +78610,13 @@
         <v>6</v>
       </c>
       <c r="D1169" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1169" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1169" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="G1169" s="2" t="s">
         <v>7</v>
@@ -78622,7 +78625,7 @@
         <v>759</v>
       </c>
       <c r="I1169" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J1169" s="2" t="s">
         <v>795</v>
@@ -78654,13 +78657,13 @@
         <v>6</v>
       </c>
       <c r="D1170" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1170" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1170" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G1170" s="2" t="s">
         <v>7</v>
@@ -78669,7 +78672,7 @@
         <v>760</v>
       </c>
       <c r="I1170" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="J1170" s="2" t="s">
         <v>795</v>
@@ -78701,13 +78704,13 @@
         <v>6</v>
       </c>
       <c r="D1171" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1171" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1171" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="G1171" s="2" t="s">
         <v>7</v>
@@ -78716,7 +78719,7 @@
         <v>761</v>
       </c>
       <c r="I1171" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="J1171" s="2" t="s">
         <v>795</v>
@@ -78748,13 +78751,13 @@
         <v>6</v>
       </c>
       <c r="D1172" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1172" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1172" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G1172" s="2" t="s">
         <v>7</v>
@@ -78763,7 +78766,7 @@
         <v>762</v>
       </c>
       <c r="I1172" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="J1172" s="2" t="s">
         <v>795</v>
@@ -78795,13 +78798,13 @@
         <v>6</v>
       </c>
       <c r="D1173" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1173" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1173" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="G1173" s="2" t="s">
         <v>7</v>
@@ -78810,7 +78813,7 @@
         <v>763</v>
       </c>
       <c r="I1173" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J1173" s="2" t="s">
         <v>795</v>
@@ -78842,13 +78845,13 @@
         <v>6</v>
       </c>
       <c r="D1174" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1174" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1174" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G1174" s="2" t="s">
         <v>7</v>
@@ -78857,7 +78860,7 @@
         <v>764</v>
       </c>
       <c r="I1174" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="J1174" s="2" t="s">
         <v>795</v>
@@ -78889,13 +78892,13 @@
         <v>6</v>
       </c>
       <c r="D1175" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1175" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1175" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="G1175" s="2" t="s">
         <v>7</v>
@@ -78904,7 +78907,7 @@
         <v>765</v>
       </c>
       <c r="I1175" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J1175" s="2" t="s">
         <v>795</v>
@@ -78936,13 +78939,13 @@
         <v>6</v>
       </c>
       <c r="D1176" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1176" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1176" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="G1176" s="2" t="s">
         <v>7</v>
@@ -78951,7 +78954,7 @@
         <v>766</v>
       </c>
       <c r="I1176" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="J1176" s="2" t="s">
         <v>795</v>
@@ -78983,13 +78986,13 @@
         <v>6</v>
       </c>
       <c r="D1177" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1177" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1177" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="G1177" s="2" t="s">
         <v>7</v>
@@ -78998,7 +79001,7 @@
         <v>365</v>
       </c>
       <c r="I1177" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J1177" s="2" t="s">
         <v>795</v>
@@ -79030,13 +79033,13 @@
         <v>6</v>
       </c>
       <c r="D1178" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1178" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1178" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G1178" s="2" t="s">
         <v>7</v>
@@ -79045,7 +79048,7 @@
         <v>767</v>
       </c>
       <c r="I1178" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="J1178" s="2" t="s">
         <v>795</v>
@@ -79077,13 +79080,13 @@
         <v>6</v>
       </c>
       <c r="D1179" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1179" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1179" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G1179" s="2" t="s">
         <v>7</v>
@@ -79092,7 +79095,7 @@
         <v>768</v>
       </c>
       <c r="I1179" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="J1179" s="2" t="s">
         <v>795</v>
@@ -79124,13 +79127,13 @@
         <v>6</v>
       </c>
       <c r="D1180" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1180" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1180" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="G1180" s="2" t="s">
         <v>7</v>
@@ -79139,7 +79142,7 @@
         <v>769</v>
       </c>
       <c r="I1180" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="J1180" s="2" t="s">
         <v>795</v>
@@ -79171,13 +79174,13 @@
         <v>6</v>
       </c>
       <c r="D1181" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1181" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1181" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G1181" s="2" t="s">
         <v>7</v>
@@ -79186,7 +79189,7 @@
         <v>770</v>
       </c>
       <c r="I1181" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J1181" s="2" t="s">
         <v>795</v>
@@ -79218,13 +79221,13 @@
         <v>6</v>
       </c>
       <c r="D1182" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1182" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1182" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="G1182" s="2" t="s">
         <v>7</v>
@@ -79233,7 +79236,7 @@
         <v>771</v>
       </c>
       <c r="I1182" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J1182" s="2" t="s">
         <v>795</v>
@@ -79265,13 +79268,13 @@
         <v>6</v>
       </c>
       <c r="D1183" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1183" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1183" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G1183" s="2" t="s">
         <v>7</v>
@@ -79280,7 +79283,7 @@
         <v>772</v>
       </c>
       <c r="I1183" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J1183" s="2" t="s">
         <v>795</v>
@@ -79312,13 +79315,13 @@
         <v>6</v>
       </c>
       <c r="D1184" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1184" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1184" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G1184" s="2" t="s">
         <v>7</v>
@@ -79327,7 +79330,7 @@
         <v>773</v>
       </c>
       <c r="I1184" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="J1184" s="2" t="s">
         <v>795</v>
@@ -79359,13 +79362,13 @@
         <v>6</v>
       </c>
       <c r="D1185" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1185" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1185" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="G1185" s="2" t="s">
         <v>7</v>
@@ -79374,7 +79377,7 @@
         <v>774</v>
       </c>
       <c r="I1185" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J1185" s="2" t="s">
         <v>795</v>
@@ -79406,13 +79409,13 @@
         <v>6</v>
       </c>
       <c r="D1186" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E1186" s="0" t="s">
         <v>793</v>
       </c>
       <c r="F1186" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="G1186" s="2" t="s">
         <v>7</v>
@@ -79421,7 +79424,7 @@
         <v>775</v>
       </c>
       <c r="I1186" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J1186" s="2" t="s">
         <v>795</v>
@@ -79459,7 +79462,7 @@
         <v>793</v>
       </c>
       <c r="F1187" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="G1187" s="2" t="s">
         <v>7</v>
@@ -79468,7 +79471,7 @@
         <v>776</v>
       </c>
       <c r="I1187" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J1187" s="2" t="s">
         <v>795</v>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5434,7 +5434,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-19 11:41:08</t>
+    <t>2016-05-19 11:42:03</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5434,7 +5434,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-19 11:42:03</t>
+    <t>2016-05-19 11:52:00</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5434,7 +5434,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-19 11:52:00</t>
+    <t>2016-05-19 12:01:58</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1909">
   <si>
     <t>File Name</t>
   </si>
@@ -5438,6 +5438,9 @@
   </si>
   <si>
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-05-25 01:45:32</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>
@@ -74681,7 +74684,7 @@
         <v>1807</v>
       </c>
       <c r="J1084" s="2" t="s">
-        <v>798</v>
+        <v>1808</v>
       </c>
       <c r="K1084" s="0" t="s">
         <v>796</v>
@@ -74710,7 +74713,7 @@
         <v>6</v>
       </c>
       <c r="D1085" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1085" s="0" t="s">
         <v>796</v>
@@ -74757,13 +74760,13 @@
         <v>6</v>
       </c>
       <c r="D1086" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1086" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1086" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G1086" s="2" t="s">
         <v>7</v>
@@ -74772,7 +74775,7 @@
         <v>388</v>
       </c>
       <c r="I1086" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J1086" s="2" t="s">
         <v>798</v>
@@ -74804,7 +74807,7 @@
         <v>6</v>
       </c>
       <c r="D1087" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1087" s="0" t="s">
         <v>796</v>
@@ -74851,7 +74854,7 @@
         <v>6</v>
       </c>
       <c r="D1088" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1088" s="0" t="s">
         <v>796</v>
@@ -74898,13 +74901,13 @@
         <v>6</v>
       </c>
       <c r="D1089" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1089" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1089" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G1089" s="2" t="s">
         <v>7</v>
@@ -74913,7 +74916,7 @@
         <v>391</v>
       </c>
       <c r="I1089" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J1089" s="2" t="s">
         <v>798</v>
@@ -74945,7 +74948,7 @@
         <v>6</v>
       </c>
       <c r="D1090" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1090" s="0" t="s">
         <v>796</v>
@@ -74992,7 +74995,7 @@
         <v>6</v>
       </c>
       <c r="D1091" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1091" s="0" t="s">
         <v>796</v>
@@ -75039,7 +75042,7 @@
         <v>6</v>
       </c>
       <c r="D1092" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1092" s="0" t="s">
         <v>796</v>
@@ -75086,7 +75089,7 @@
         <v>6</v>
       </c>
       <c r="D1093" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1093" s="0" t="s">
         <v>796</v>
@@ -75133,7 +75136,7 @@
         <v>6</v>
       </c>
       <c r="D1094" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1094" s="0" t="s">
         <v>796</v>
@@ -75180,13 +75183,13 @@
         <v>6</v>
       </c>
       <c r="D1095" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1095" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1095" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G1095" s="2" t="s">
         <v>7</v>
@@ -75195,7 +75198,7 @@
         <v>396</v>
       </c>
       <c r="I1095" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="J1095" s="2" t="s">
         <v>798</v>
@@ -75227,13 +75230,13 @@
         <v>6</v>
       </c>
       <c r="D1096" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1096" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1096" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G1096" s="2" t="s">
         <v>7</v>
@@ -75242,7 +75245,7 @@
         <v>397</v>
       </c>
       <c r="I1096" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="J1096" s="2" t="s">
         <v>798</v>
@@ -75274,7 +75277,7 @@
         <v>6</v>
       </c>
       <c r="D1097" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1097" s="0" t="s">
         <v>796</v>
@@ -75321,13 +75324,13 @@
         <v>6</v>
       </c>
       <c r="D1098" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1098" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1098" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="G1098" s="2" t="s">
         <v>7</v>
@@ -75336,7 +75339,7 @@
         <v>399</v>
       </c>
       <c r="I1098" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="J1098" s="2" t="s">
         <v>798</v>
@@ -75368,13 +75371,13 @@
         <v>6</v>
       </c>
       <c r="D1099" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1099" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1099" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="G1099" s="2" t="s">
         <v>7</v>
@@ -75383,7 +75386,7 @@
         <v>400</v>
       </c>
       <c r="I1099" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J1099" s="2" t="s">
         <v>798</v>
@@ -75415,13 +75418,13 @@
         <v>6</v>
       </c>
       <c r="D1100" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1100" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1100" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G1100" s="2" t="s">
         <v>7</v>
@@ -75430,7 +75433,7 @@
         <v>401</v>
       </c>
       <c r="I1100" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J1100" s="2" t="s">
         <v>798</v>
@@ -75462,13 +75465,13 @@
         <v>6</v>
       </c>
       <c r="D1101" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1101" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1101" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G1101" s="2" t="s">
         <v>7</v>
@@ -75477,7 +75480,7 @@
         <v>402</v>
       </c>
       <c r="I1101" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J1101" s="2" t="s">
         <v>798</v>
@@ -75509,13 +75512,13 @@
         <v>6</v>
       </c>
       <c r="D1102" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1102" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1102" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="G1102" s="2" t="s">
         <v>7</v>
@@ -75524,7 +75527,7 @@
         <v>403</v>
       </c>
       <c r="I1102" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J1102" s="2" t="s">
         <v>798</v>
@@ -75556,13 +75559,13 @@
         <v>6</v>
       </c>
       <c r="D1103" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1103" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1103" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G1103" s="2" t="s">
         <v>7</v>
@@ -75571,7 +75574,7 @@
         <v>404</v>
       </c>
       <c r="I1103" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J1103" s="2" t="s">
         <v>798</v>
@@ -75603,13 +75606,13 @@
         <v>6</v>
       </c>
       <c r="D1104" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1104" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1104" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="G1104" s="2" t="s">
         <v>7</v>
@@ -75618,7 +75621,7 @@
         <v>405</v>
       </c>
       <c r="I1104" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="J1104" s="2" t="s">
         <v>798</v>
@@ -75650,13 +75653,13 @@
         <v>6</v>
       </c>
       <c r="D1105" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1105" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1105" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="G1105" s="2" t="s">
         <v>7</v>
@@ -75665,7 +75668,7 @@
         <v>406</v>
       </c>
       <c r="I1105" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J1105" s="2" t="s">
         <v>798</v>
@@ -75697,13 +75700,13 @@
         <v>6</v>
       </c>
       <c r="D1106" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1106" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1106" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G1106" s="2" t="s">
         <v>7</v>
@@ -75712,7 +75715,7 @@
         <v>407</v>
       </c>
       <c r="I1106" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J1106" s="2" t="s">
         <v>798</v>
@@ -75744,13 +75747,13 @@
         <v>6</v>
       </c>
       <c r="D1107" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1107" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1107" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="G1107" s="2" t="s">
         <v>7</v>
@@ -75759,7 +75762,7 @@
         <v>408</v>
       </c>
       <c r="I1107" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J1107" s="2" t="s">
         <v>798</v>
@@ -75791,13 +75794,13 @@
         <v>6</v>
       </c>
       <c r="D1108" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1108" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1108" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="G1108" s="2" t="s">
         <v>7</v>
@@ -75806,7 +75809,7 @@
         <v>409</v>
       </c>
       <c r="I1108" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J1108" s="2" t="s">
         <v>798</v>
@@ -75838,7 +75841,7 @@
         <v>6</v>
       </c>
       <c r="D1109" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1109" s="0" t="s">
         <v>796</v>
@@ -75885,7 +75888,7 @@
         <v>6</v>
       </c>
       <c r="D1110" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1110" s="0" t="s">
         <v>796</v>
@@ -75932,7 +75935,7 @@
         <v>6</v>
       </c>
       <c r="D1111" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1111" s="0" t="s">
         <v>796</v>
@@ -75979,13 +75982,13 @@
         <v>6</v>
       </c>
       <c r="D1112" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1112" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1112" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G1112" s="2" t="s">
         <v>7</v>
@@ -75994,7 +75997,7 @@
         <v>413</v>
       </c>
       <c r="I1112" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J1112" s="2" t="s">
         <v>798</v>
@@ -76026,7 +76029,7 @@
         <v>6</v>
       </c>
       <c r="D1113" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1113" s="0" t="s">
         <v>796</v>
@@ -76073,7 +76076,7 @@
         <v>6</v>
       </c>
       <c r="D1114" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E1114" s="0" t="s">
         <v>796</v>
@@ -76126,7 +76129,7 @@
         <v>796</v>
       </c>
       <c r="F1115" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="G1115" s="2" t="s">
         <v>7</v>
@@ -76135,7 +76138,7 @@
         <v>705</v>
       </c>
       <c r="I1115" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J1115" s="2" t="s">
         <v>798</v>
@@ -76167,13 +76170,13 @@
         <v>6</v>
       </c>
       <c r="D1116" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E1116" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1116" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="G1116" s="2" t="s">
         <v>7</v>
@@ -76182,7 +76185,7 @@
         <v>706</v>
       </c>
       <c r="I1116" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="J1116" s="2" t="s">
         <v>798</v>
@@ -76214,13 +76217,13 @@
         <v>6</v>
       </c>
       <c r="D1117" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E1117" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1117" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="G1117" s="2" t="s">
         <v>7</v>
@@ -76229,7 +76232,7 @@
         <v>707</v>
       </c>
       <c r="I1117" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J1117" s="2" t="s">
         <v>798</v>
@@ -76261,13 +76264,13 @@
         <v>6</v>
       </c>
       <c r="D1118" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E1118" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1118" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G1118" s="2" t="s">
         <v>7</v>
@@ -76276,7 +76279,7 @@
         <v>708</v>
       </c>
       <c r="I1118" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J1118" s="2" t="s">
         <v>798</v>
@@ -76308,13 +76311,13 @@
         <v>6</v>
       </c>
       <c r="D1119" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E1119" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1119" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="G1119" s="2" t="s">
         <v>7</v>
@@ -76323,7 +76326,7 @@
         <v>709</v>
       </c>
       <c r="I1119" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="J1119" s="2" t="s">
         <v>798</v>
@@ -76361,7 +76364,7 @@
         <v>796</v>
       </c>
       <c r="F1120" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="G1120" s="2" t="s">
         <v>7</v>
@@ -76370,7 +76373,7 @@
         <v>710</v>
       </c>
       <c r="I1120" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J1120" s="2" t="s">
         <v>798</v>
@@ -76408,7 +76411,7 @@
         <v>796</v>
       </c>
       <c r="F1121" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="G1121" s="2" t="s">
         <v>7</v>
@@ -76417,7 +76420,7 @@
         <v>711</v>
       </c>
       <c r="I1121" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="J1121" s="2" t="s">
         <v>798</v>
@@ -76455,7 +76458,7 @@
         <v>796</v>
       </c>
       <c r="F1122" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G1122" s="2" t="s">
         <v>7</v>
@@ -76464,7 +76467,7 @@
         <v>365</v>
       </c>
       <c r="I1122" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="J1122" s="2" t="s">
         <v>798</v>
@@ -76496,13 +76499,13 @@
         <v>6</v>
       </c>
       <c r="D1123" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1123" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1123" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="G1123" s="2" t="s">
         <v>7</v>
@@ -76511,7 +76514,7 @@
         <v>712</v>
       </c>
       <c r="I1123" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J1123" s="2" t="s">
         <v>798</v>
@@ -76543,13 +76546,13 @@
         <v>6</v>
       </c>
       <c r="D1124" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1124" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1124" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G1124" s="2" t="s">
         <v>7</v>
@@ -76558,7 +76561,7 @@
         <v>713</v>
       </c>
       <c r="I1124" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J1124" s="2" t="s">
         <v>798</v>
@@ -76590,13 +76593,13 @@
         <v>6</v>
       </c>
       <c r="D1125" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1125" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1125" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="G1125" s="2" t="s">
         <v>7</v>
@@ -76605,7 +76608,7 @@
         <v>714</v>
       </c>
       <c r="I1125" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J1125" s="2" t="s">
         <v>798</v>
@@ -76637,13 +76640,13 @@
         <v>6</v>
       </c>
       <c r="D1126" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1126" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1126" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="G1126" s="2" t="s">
         <v>7</v>
@@ -76652,7 +76655,7 @@
         <v>715</v>
       </c>
       <c r="I1126" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="J1126" s="2" t="s">
         <v>798</v>
@@ -76684,13 +76687,13 @@
         <v>6</v>
       </c>
       <c r="D1127" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1127" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1127" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="G1127" s="2" t="s">
         <v>7</v>
@@ -76699,7 +76702,7 @@
         <v>716</v>
       </c>
       <c r="I1127" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J1127" s="2" t="s">
         <v>798</v>
@@ -76731,13 +76734,13 @@
         <v>6</v>
       </c>
       <c r="D1128" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1128" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1128" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G1128" s="2" t="s">
         <v>7</v>
@@ -76746,7 +76749,7 @@
         <v>717</v>
       </c>
       <c r="I1128" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="J1128" s="2" t="s">
         <v>798</v>
@@ -76778,13 +76781,13 @@
         <v>6</v>
       </c>
       <c r="D1129" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1129" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1129" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="G1129" s="2" t="s">
         <v>7</v>
@@ -76793,7 +76796,7 @@
         <v>718</v>
       </c>
       <c r="I1129" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J1129" s="2" t="s">
         <v>798</v>
@@ -76825,13 +76828,13 @@
         <v>6</v>
       </c>
       <c r="D1130" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1130" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1130" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G1130" s="2" t="s">
         <v>7</v>
@@ -76840,7 +76843,7 @@
         <v>719</v>
       </c>
       <c r="I1130" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J1130" s="2" t="s">
         <v>798</v>
@@ -76872,13 +76875,13 @@
         <v>6</v>
       </c>
       <c r="D1131" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1131" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1131" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="G1131" s="2" t="s">
         <v>7</v>
@@ -76887,7 +76890,7 @@
         <v>720</v>
       </c>
       <c r="I1131" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="J1131" s="2" t="s">
         <v>798</v>
@@ -76919,13 +76922,13 @@
         <v>6</v>
       </c>
       <c r="D1132" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1132" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1132" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G1132" s="2" t="s">
         <v>7</v>
@@ -76934,7 +76937,7 @@
         <v>721</v>
       </c>
       <c r="I1132" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J1132" s="2" t="s">
         <v>798</v>
@@ -76966,13 +76969,13 @@
         <v>6</v>
       </c>
       <c r="D1133" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1133" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1133" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="G1133" s="2" t="s">
         <v>7</v>
@@ -76981,7 +76984,7 @@
         <v>722</v>
       </c>
       <c r="I1133" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J1133" s="2" t="s">
         <v>798</v>
@@ -77013,13 +77016,13 @@
         <v>6</v>
       </c>
       <c r="D1134" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1134" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1134" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="G1134" s="2" t="s">
         <v>7</v>
@@ -77028,7 +77031,7 @@
         <v>723</v>
       </c>
       <c r="I1134" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J1134" s="2" t="s">
         <v>798</v>
@@ -77060,13 +77063,13 @@
         <v>6</v>
       </c>
       <c r="D1135" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1135" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1135" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="G1135" s="2" t="s">
         <v>7</v>
@@ -77075,7 +77078,7 @@
         <v>724</v>
       </c>
       <c r="I1135" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J1135" s="2" t="s">
         <v>798</v>
@@ -77107,13 +77110,13 @@
         <v>6</v>
       </c>
       <c r="D1136" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1136" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1136" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="G1136" s="2" t="s">
         <v>7</v>
@@ -77122,7 +77125,7 @@
         <v>725</v>
       </c>
       <c r="I1136" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J1136" s="2" t="s">
         <v>798</v>
@@ -77154,13 +77157,13 @@
         <v>6</v>
       </c>
       <c r="D1137" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1137" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1137" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="G1137" s="2" t="s">
         <v>7</v>
@@ -77169,7 +77172,7 @@
         <v>726</v>
       </c>
       <c r="I1137" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J1137" s="2" t="s">
         <v>798</v>
@@ -77201,13 +77204,13 @@
         <v>6</v>
       </c>
       <c r="D1138" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1138" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1138" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="G1138" s="2" t="s">
         <v>7</v>
@@ -77216,7 +77219,7 @@
         <v>727</v>
       </c>
       <c r="I1138" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J1138" s="2" t="s">
         <v>798</v>
@@ -77248,13 +77251,13 @@
         <v>6</v>
       </c>
       <c r="D1139" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1139" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1139" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="G1139" s="2" t="s">
         <v>7</v>
@@ -77263,7 +77266,7 @@
         <v>728</v>
       </c>
       <c r="I1139" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J1139" s="2" t="s">
         <v>798</v>
@@ -77295,13 +77298,13 @@
         <v>6</v>
       </c>
       <c r="D1140" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1140" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1140" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="G1140" s="2" t="s">
         <v>7</v>
@@ -77310,7 +77313,7 @@
         <v>729</v>
       </c>
       <c r="I1140" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J1140" s="2" t="s">
         <v>798</v>
@@ -77342,13 +77345,13 @@
         <v>6</v>
       </c>
       <c r="D1141" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1141" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1141" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="G1141" s="2" t="s">
         <v>7</v>
@@ -77357,7 +77360,7 @@
         <v>730</v>
       </c>
       <c r="I1141" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J1141" s="2" t="s">
         <v>798</v>
@@ -77389,13 +77392,13 @@
         <v>6</v>
       </c>
       <c r="D1142" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1142" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1142" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G1142" s="2" t="s">
         <v>7</v>
@@ -77404,7 +77407,7 @@
         <v>731</v>
       </c>
       <c r="I1142" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J1142" s="2" t="s">
         <v>798</v>
@@ -77436,13 +77439,13 @@
         <v>6</v>
       </c>
       <c r="D1143" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1143" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1143" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="G1143" s="2" t="s">
         <v>7</v>
@@ -77451,7 +77454,7 @@
         <v>732</v>
       </c>
       <c r="I1143" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J1143" s="2" t="s">
         <v>798</v>
@@ -77483,13 +77486,13 @@
         <v>6</v>
       </c>
       <c r="D1144" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1144" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1144" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="G1144" s="2" t="s">
         <v>7</v>
@@ -77498,7 +77501,7 @@
         <v>733</v>
       </c>
       <c r="I1144" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J1144" s="2" t="s">
         <v>798</v>
@@ -77530,13 +77533,13 @@
         <v>6</v>
       </c>
       <c r="D1145" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1145" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1145" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="G1145" s="2" t="s">
         <v>7</v>
@@ -77545,7 +77548,7 @@
         <v>734</v>
       </c>
       <c r="I1145" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J1145" s="2" t="s">
         <v>798</v>
@@ -77577,13 +77580,13 @@
         <v>6</v>
       </c>
       <c r="D1146" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1146" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1146" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G1146" s="2" t="s">
         <v>7</v>
@@ -77592,7 +77595,7 @@
         <v>735</v>
       </c>
       <c r="I1146" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J1146" s="2" t="s">
         <v>798</v>
@@ -77624,13 +77627,13 @@
         <v>6</v>
       </c>
       <c r="D1147" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1147" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1147" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="G1147" s="2" t="s">
         <v>7</v>
@@ -77639,7 +77642,7 @@
         <v>736</v>
       </c>
       <c r="I1147" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J1147" s="2" t="s">
         <v>798</v>
@@ -77671,13 +77674,13 @@
         <v>6</v>
       </c>
       <c r="D1148" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1148" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1148" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G1148" s="2" t="s">
         <v>7</v>
@@ -77686,7 +77689,7 @@
         <v>737</v>
       </c>
       <c r="I1148" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J1148" s="2" t="s">
         <v>798</v>
@@ -77718,13 +77721,13 @@
         <v>6</v>
       </c>
       <c r="D1149" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1149" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1149" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G1149" s="2" t="s">
         <v>7</v>
@@ -77733,7 +77736,7 @@
         <v>738</v>
       </c>
       <c r="I1149" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="J1149" s="2" t="s">
         <v>798</v>
@@ -77765,13 +77768,13 @@
         <v>6</v>
       </c>
       <c r="D1150" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1150" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1150" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="G1150" s="2" t="s">
         <v>7</v>
@@ -77780,7 +77783,7 @@
         <v>739</v>
       </c>
       <c r="I1150" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="J1150" s="2" t="s">
         <v>798</v>
@@ -77812,13 +77815,13 @@
         <v>6</v>
       </c>
       <c r="D1151" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1151" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1151" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G1151" s="2" t="s">
         <v>7</v>
@@ -77827,7 +77830,7 @@
         <v>740</v>
       </c>
       <c r="I1151" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="J1151" s="2" t="s">
         <v>798</v>
@@ -77859,13 +77862,13 @@
         <v>6</v>
       </c>
       <c r="D1152" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1152" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1152" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="G1152" s="2" t="s">
         <v>7</v>
@@ -77874,7 +77877,7 @@
         <v>741</v>
       </c>
       <c r="I1152" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J1152" s="2" t="s">
         <v>798</v>
@@ -77886,7 +77889,7 @@
         <v>805</v>
       </c>
       <c r="M1152" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="N1152" s="0" t="s">
         <v>800</v>
@@ -77906,13 +77909,13 @@
         <v>6</v>
       </c>
       <c r="D1153" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1153" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1153" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="G1153" s="2" t="s">
         <v>7</v>
@@ -77921,7 +77924,7 @@
         <v>742</v>
       </c>
       <c r="I1153" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J1153" s="2" t="s">
         <v>798</v>
@@ -77933,7 +77936,7 @@
         <v>805</v>
       </c>
       <c r="M1153" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="N1153" s="0" t="s">
         <v>800</v>
@@ -77953,13 +77956,13 @@
         <v>6</v>
       </c>
       <c r="D1154" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1154" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1154" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G1154" s="2" t="s">
         <v>7</v>
@@ -77968,7 +77971,7 @@
         <v>743</v>
       </c>
       <c r="I1154" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J1154" s="2" t="s">
         <v>798</v>
@@ -77980,7 +77983,7 @@
         <v>805</v>
       </c>
       <c r="M1154" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="N1154" s="0" t="s">
         <v>800</v>
@@ -78000,13 +78003,13 @@
         <v>6</v>
       </c>
       <c r="D1155" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1155" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1155" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="G1155" s="2" t="s">
         <v>7</v>
@@ -78015,7 +78018,7 @@
         <v>744</v>
       </c>
       <c r="I1155" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="J1155" s="2" t="s">
         <v>798</v>
@@ -78027,7 +78030,7 @@
         <v>805</v>
       </c>
       <c r="M1155" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N1155" s="0" t="s">
         <v>800</v>
@@ -78047,13 +78050,13 @@
         <v>6</v>
       </c>
       <c r="D1156" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1156" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1156" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G1156" s="2" t="s">
         <v>7</v>
@@ -78062,7 +78065,7 @@
         <v>745</v>
       </c>
       <c r="I1156" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="J1156" s="2" t="s">
         <v>798</v>
@@ -78074,7 +78077,7 @@
         <v>805</v>
       </c>
       <c r="M1156" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N1156" s="0" t="s">
         <v>800</v>
@@ -78094,13 +78097,13 @@
         <v>6</v>
       </c>
       <c r="D1157" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1157" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1157" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G1157" s="2" t="s">
         <v>7</v>
@@ -78109,7 +78112,7 @@
         <v>746</v>
       </c>
       <c r="I1157" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="J1157" s="2" t="s">
         <v>798</v>
@@ -78121,7 +78124,7 @@
         <v>805</v>
       </c>
       <c r="M1157" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="N1157" s="0" t="s">
         <v>800</v>
@@ -78141,13 +78144,13 @@
         <v>6</v>
       </c>
       <c r="D1158" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1158" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1158" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="G1158" s="2" t="s">
         <v>7</v>
@@ -78156,7 +78159,7 @@
         <v>747</v>
       </c>
       <c r="I1158" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="J1158" s="2" t="s">
         <v>798</v>
@@ -78168,7 +78171,7 @@
         <v>805</v>
       </c>
       <c r="M1158" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N1158" s="0" t="s">
         <v>800</v>
@@ -78188,13 +78191,13 @@
         <v>6</v>
       </c>
       <c r="D1159" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E1159" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1159" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G1159" s="2" t="s">
         <v>7</v>
@@ -78203,7 +78206,7 @@
         <v>748</v>
       </c>
       <c r="I1159" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J1159" s="2" t="s">
         <v>798</v>
@@ -78215,7 +78218,7 @@
         <v>805</v>
       </c>
       <c r="M1159" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="N1159" s="0" t="s">
         <v>800</v>
@@ -78235,13 +78238,13 @@
         <v>6</v>
       </c>
       <c r="D1160" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1160" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1160" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G1160" s="2" t="s">
         <v>7</v>
@@ -78250,7 +78253,7 @@
         <v>749</v>
       </c>
       <c r="I1160" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="J1160" s="2" t="s">
         <v>798</v>
@@ -78282,13 +78285,13 @@
         <v>6</v>
       </c>
       <c r="D1161" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1161" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1161" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="G1161" s="2" t="s">
         <v>7</v>
@@ -78297,7 +78300,7 @@
         <v>750</v>
       </c>
       <c r="I1161" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="J1161" s="2" t="s">
         <v>798</v>
@@ -78329,13 +78332,13 @@
         <v>6</v>
       </c>
       <c r="D1162" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1162" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1162" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="G1162" s="2" t="s">
         <v>7</v>
@@ -78344,7 +78347,7 @@
         <v>751</v>
       </c>
       <c r="I1162" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J1162" s="2" t="s">
         <v>798</v>
@@ -78376,13 +78379,13 @@
         <v>6</v>
       </c>
       <c r="D1163" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1163" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1163" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="G1163" s="2" t="s">
         <v>7</v>
@@ -78391,7 +78394,7 @@
         <v>752</v>
       </c>
       <c r="I1163" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J1163" s="2" t="s">
         <v>798</v>
@@ -78423,13 +78426,13 @@
         <v>6</v>
       </c>
       <c r="D1164" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1164" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1164" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="G1164" s="2" t="s">
         <v>7</v>
@@ -78438,7 +78441,7 @@
         <v>753</v>
       </c>
       <c r="I1164" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="J1164" s="2" t="s">
         <v>798</v>
@@ -78470,13 +78473,13 @@
         <v>6</v>
       </c>
       <c r="D1165" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1165" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1165" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G1165" s="2" t="s">
         <v>7</v>
@@ -78485,7 +78488,7 @@
         <v>754</v>
       </c>
       <c r="I1165" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J1165" s="2" t="s">
         <v>798</v>
@@ -78517,13 +78520,13 @@
         <v>6</v>
       </c>
       <c r="D1166" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1166" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1166" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="G1166" s="2" t="s">
         <v>7</v>
@@ -78532,7 +78535,7 @@
         <v>755</v>
       </c>
       <c r="I1166" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="J1166" s="2" t="s">
         <v>798</v>
@@ -78564,13 +78567,13 @@
         <v>6</v>
       </c>
       <c r="D1167" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1167" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1167" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="G1167" s="2" t="s">
         <v>7</v>
@@ -78579,7 +78582,7 @@
         <v>756</v>
       </c>
       <c r="I1167" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J1167" s="2" t="s">
         <v>798</v>
@@ -78611,13 +78614,13 @@
         <v>6</v>
       </c>
       <c r="D1168" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1168" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1168" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="G1168" s="2" t="s">
         <v>7</v>
@@ -78626,7 +78629,7 @@
         <v>757</v>
       </c>
       <c r="I1168" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="J1168" s="2" t="s">
         <v>798</v>
@@ -78658,13 +78661,13 @@
         <v>6</v>
       </c>
       <c r="D1169" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1169" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1169" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G1169" s="2" t="s">
         <v>7</v>
@@ -78673,7 +78676,7 @@
         <v>758</v>
       </c>
       <c r="I1169" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J1169" s="2" t="s">
         <v>798</v>
@@ -78705,13 +78708,13 @@
         <v>6</v>
       </c>
       <c r="D1170" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1170" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1170" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="G1170" s="2" t="s">
         <v>7</v>
@@ -78720,7 +78723,7 @@
         <v>759</v>
       </c>
       <c r="I1170" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J1170" s="2" t="s">
         <v>798</v>
@@ -78752,13 +78755,13 @@
         <v>6</v>
       </c>
       <c r="D1171" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1171" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1171" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G1171" s="2" t="s">
         <v>7</v>
@@ -78767,7 +78770,7 @@
         <v>760</v>
       </c>
       <c r="I1171" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="J1171" s="2" t="s">
         <v>798</v>
@@ -78799,13 +78802,13 @@
         <v>6</v>
       </c>
       <c r="D1172" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1172" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1172" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="G1172" s="2" t="s">
         <v>7</v>
@@ -78814,7 +78817,7 @@
         <v>761</v>
       </c>
       <c r="I1172" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="J1172" s="2" t="s">
         <v>798</v>
@@ -78846,13 +78849,13 @@
         <v>6</v>
       </c>
       <c r="D1173" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1173" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1173" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G1173" s="2" t="s">
         <v>7</v>
@@ -78861,7 +78864,7 @@
         <v>762</v>
       </c>
       <c r="I1173" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="J1173" s="2" t="s">
         <v>798</v>
@@ -78893,13 +78896,13 @@
         <v>6</v>
       </c>
       <c r="D1174" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1174" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1174" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="G1174" s="2" t="s">
         <v>7</v>
@@ -78908,7 +78911,7 @@
         <v>763</v>
       </c>
       <c r="I1174" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="J1174" s="2" t="s">
         <v>798</v>
@@ -78940,13 +78943,13 @@
         <v>6</v>
       </c>
       <c r="D1175" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1175" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1175" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G1175" s="2" t="s">
         <v>7</v>
@@ -78955,7 +78958,7 @@
         <v>764</v>
       </c>
       <c r="I1175" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="J1175" s="2" t="s">
         <v>798</v>
@@ -78987,13 +78990,13 @@
         <v>6</v>
       </c>
       <c r="D1176" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1176" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1176" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="G1176" s="2" t="s">
         <v>7</v>
@@ -79002,7 +79005,7 @@
         <v>765</v>
       </c>
       <c r="I1176" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J1176" s="2" t="s">
         <v>798</v>
@@ -79034,13 +79037,13 @@
         <v>6</v>
       </c>
       <c r="D1177" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1177" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1177" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="G1177" s="2" t="s">
         <v>7</v>
@@ -79049,7 +79052,7 @@
         <v>766</v>
       </c>
       <c r="I1177" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="J1177" s="2" t="s">
         <v>798</v>
@@ -79081,13 +79084,13 @@
         <v>6</v>
       </c>
       <c r="D1178" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1178" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1178" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="G1178" s="2" t="s">
         <v>7</v>
@@ -79096,7 +79099,7 @@
         <v>767</v>
       </c>
       <c r="I1178" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J1178" s="2" t="s">
         <v>798</v>
@@ -79128,13 +79131,13 @@
         <v>6</v>
       </c>
       <c r="D1179" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1179" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1179" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G1179" s="2" t="s">
         <v>7</v>
@@ -79143,7 +79146,7 @@
         <v>768</v>
       </c>
       <c r="I1179" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="J1179" s="2" t="s">
         <v>798</v>
@@ -79175,13 +79178,13 @@
         <v>6</v>
       </c>
       <c r="D1180" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1180" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1180" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="G1180" s="2" t="s">
         <v>7</v>
@@ -79190,7 +79193,7 @@
         <v>365</v>
       </c>
       <c r="I1180" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="J1180" s="2" t="s">
         <v>798</v>
@@ -79222,13 +79225,13 @@
         <v>6</v>
       </c>
       <c r="D1181" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1181" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1181" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G1181" s="2" t="s">
         <v>7</v>
@@ -79237,7 +79240,7 @@
         <v>769</v>
       </c>
       <c r="I1181" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J1181" s="2" t="s">
         <v>798</v>
@@ -79269,13 +79272,13 @@
         <v>6</v>
       </c>
       <c r="D1182" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1182" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1182" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G1182" s="2" t="s">
         <v>7</v>
@@ -79284,7 +79287,7 @@
         <v>770</v>
       </c>
       <c r="I1182" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J1182" s="2" t="s">
         <v>798</v>
@@ -79316,13 +79319,13 @@
         <v>6</v>
       </c>
       <c r="D1183" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1183" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1183" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="G1183" s="2" t="s">
         <v>7</v>
@@ -79331,7 +79334,7 @@
         <v>771</v>
       </c>
       <c r="I1183" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="J1183" s="2" t="s">
         <v>798</v>
@@ -79363,13 +79366,13 @@
         <v>6</v>
       </c>
       <c r="D1184" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1184" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1184" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G1184" s="2" t="s">
         <v>7</v>
@@ -79378,7 +79381,7 @@
         <v>772</v>
       </c>
       <c r="I1184" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="J1184" s="2" t="s">
         <v>798</v>
@@ -79410,13 +79413,13 @@
         <v>6</v>
       </c>
       <c r="D1185" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1185" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1185" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G1185" s="2" t="s">
         <v>7</v>
@@ -79425,7 +79428,7 @@
         <v>773</v>
       </c>
       <c r="I1185" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="J1185" s="2" t="s">
         <v>798</v>
@@ -79457,13 +79460,13 @@
         <v>6</v>
       </c>
       <c r="D1186" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1186" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1186" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="G1186" s="2" t="s">
         <v>7</v>
@@ -79472,7 +79475,7 @@
         <v>774</v>
       </c>
       <c r="I1186" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J1186" s="2" t="s">
         <v>798</v>
@@ -79504,13 +79507,13 @@
         <v>6</v>
       </c>
       <c r="D1187" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1187" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1187" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="G1187" s="2" t="s">
         <v>7</v>
@@ -79519,7 +79522,7 @@
         <v>775</v>
       </c>
       <c r="I1187" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J1187" s="2" t="s">
         <v>798</v>
@@ -79551,13 +79554,13 @@
         <v>6</v>
       </c>
       <c r="D1188" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1188" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1188" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="G1188" s="2" t="s">
         <v>7</v>
@@ -79566,7 +79569,7 @@
         <v>776</v>
       </c>
       <c r="I1188" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J1188" s="2" t="s">
         <v>798</v>
@@ -79598,13 +79601,13 @@
         <v>6</v>
       </c>
       <c r="D1189" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E1189" s="0" t="s">
         <v>796</v>
       </c>
       <c r="F1189" s="0" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G1189" s="2" t="s">
         <v>7</v>
@@ -79613,7 +79616,7 @@
         <v>777</v>
       </c>
       <c r="I1189" s="0" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="J1189" s="2" t="s">
         <v>798</v>
@@ -79651,7 +79654,7 @@
         <v>796</v>
       </c>
       <c r="F1190" s="0" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="G1190" s="2" t="s">
         <v>779</v>
@@ -79660,7 +79663,7 @@
         <v>778</v>
       </c>
       <c r="I1190" s="0" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="J1190" s="2" t="s">
         <v>798</v>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5440,7 +5440,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-25 01:45:32</t>
+    <t>2016-05-25 01:55:17</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5440,7 +5440,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-25 01:55:17</t>
+    <t>2016-05-25 02:05:01</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5440,7 +5440,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-25 02:05:01</t>
+    <t>2016-05-25 02:14:45</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5440,7 +5440,7 @@
     <t>walkthrough-creating-a-simple-windows-runtime-component-and-calling-it-from-.372542a45742fb93d68b1e180a36fa247b5cd7bf.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-05-25 02:14:45</t>
+    <t>2016-05-25 02:25:29</t>
   </si>
   <si>
     <t>wdg-cpub-test\ndolci2\xaml-platform</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1925">
   <si>
     <t>File Name</t>
   </si>
@@ -5776,10 +5776,13 @@
     <t>account-types-locations-and-fees.52e52704753403f64bda470c9808229f2f42f46e.ko-kr.xlf</t>
   </si>
   <si>
+    <t>2016-06-06 06:17:49</t>
+  </si>
+  <si>
+    <t>accessibility-testing.ca7a36c28ccc34b72a1dc9010c27c75d84760094.ko-kr.xlf</t>
+  </si>
+  <si>
     <t>2016-06-06 02:06:00</t>
-  </si>
-  <si>
-    <t>accessibility-testing.ca7a36c28ccc34b72a1dc9010c27c75d84760094.ko-kr.xlf</t>
   </si>
   <si>
     <t>accessibility-testing.cda58c0da3fdc9616274328a2b51521617fd499c.ko-kr.xlf</t>
@@ -85910,7 +85913,7 @@
         <v>1921</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>801</v>
@@ -85945,7 +85948,7 @@
         <v>801</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>206</v>
@@ -85954,10 +85957,10 @@
         <v>375</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>1922</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1920</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>801</v>
@@ -85992,7 +85995,7 @@
         <v>801</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>206</v>
@@ -86001,10 +86004,10 @@
         <v>205</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>801</v>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -5776,7 +5776,7 @@
     <t>account-types-locations-and-fees.52e52704753403f64bda470c9808229f2f42f46e.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-06-06 06:17:49</t>
+    <t>2016-06-06 12:25:36</t>
   </si>
   <si>
     <t>accessibility-testing.ca7a36c28ccc34b72a1dc9010c27c75d84760094.ko-kr.xlf</t>
